--- a/Data/model_outputs_baseline/number_of_dwellings/s_SFH.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_SFH.xlsx
@@ -450,7 +450,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>38426.9227632158</v>
+        <v>40784.29618366806</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>38471.83835726183</v>
+        <v>40831.96721114341</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>38517.39935330921</v>
+        <v>40880.32323404615</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>38563.61496271595</v>
+        <v>40929.37402882271</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>38610.49452657034</v>
+        <v>40979.1295096084</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>38658.04751747171</v>
+        <v>41029.59973011738</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>38706.28354133415</v>
+        <v>41080.79488555697</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>38755.21233921373</v>
+        <v>41132.72531456707</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>38804.8437891598</v>
+        <v>41185.40150118493</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>38855.1879080901</v>
+        <v>41238.83407683537</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>38906.25485369036</v>
+        <v>41293.03382234687</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>38958.05492633868</v>
+        <v>41348.01166999401</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>39010.59857105459</v>
+        <v>41403.77870556614</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>39063.89637947377</v>
+        <v>41460.34617046313</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>39117.95909184781</v>
+        <v>41517.72546381802</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>39172.79759907036</v>
+        <v>41575.92814464718</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>39228.422944729</v>
+        <v>41634.96593402833</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>39284.8463271838</v>
+        <v>41694.85071730646</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>39342.07910167264</v>
+        <v>41755.59454632836</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>39400.13278244351</v>
+        <v>41817.20964170564</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>39459.01904491427</v>
+        <v>41879.70839510715</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>39518.7497278602</v>
+        <v>41943.10337158055</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>39579.33683562938</v>
+        <v>42007.40731190376</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>39640.79254038673</v>
+        <v>42072.63313496651</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>39703.12918438652</v>
+        <v>42138.7939401824</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>39766.35928227392</v>
+        <v>42205.90300993158</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>39830.49552341618</v>
+        <v>42273.97381203485</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>39895.55077426304</v>
+        <v>42343.02000225908</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>39961.53808073776</v>
+        <v>42413.05542685476</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>40028.47067065803</v>
+        <v>42484.09412512549</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>40096.36195618798</v>
+        <v>42556.15033203035</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>40165.22553632117</v>
+        <v>42629.23848081932</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>40235.07519939501</v>
+        <v>42703.37320570184</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>40305.92492563707</v>
+        <v>42778.5693445494</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>40377.78888974354</v>
+        <v>42854.84194163221</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>40450.68146349042</v>
+        <v>42932.20625039045</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>40524.61721837735</v>
+        <v>43010.67773624042</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>40599.61092830498</v>
+        <v>43090.27207941611</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>40675.67757228616</v>
+        <v>43171.00517784667</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>40752.83233719091</v>
+        <v>43252.89315006985</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>40831.09062052607</v>
+        <v>43335.95233818214</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>40910.46803324998</v>
+        <v>43420.19931082612</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>40990.98040262212</v>
+        <v>43505.65086621494</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>41072.64377508883</v>
+        <v>43592.32403519499</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>41155.4744192049</v>
+        <v>43680.23608434682</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>41239.48882859175</v>
+        <v>43769.40451912478</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>41324.7037249327</v>
+        <v>43859.84708703595</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>41411.13606100551</v>
+        <v>43951.58178085888</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>41498.80302375286</v>
+        <v>44044.62684190218</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>41587.72203739097</v>
+        <v>44139.0007633042</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>41677.91076655724</v>
+        <v>44234.72229337337</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>41769.38711949672</v>
+        <v>44331.81043897053</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>41862.16925128848</v>
+        <v>44430.28446893292</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>41956.27556711213</v>
+        <v>44530.16391754126</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>42051.72472555475</v>
+        <v>44631.46858802951</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>42148.53564195896</v>
+        <v>44734.21855613837</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>42246.7274918129</v>
+        <v>44838.43417371312</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>42346.31971418174</v>
+        <v>44944.13607234572</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>42447.33201518223</v>
+        <v>45051.34516706254</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>42549.78437150011</v>
+        <v>45160.08266005751</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>42653.69703395143</v>
+        <v>45270.37004447186</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>42759.0905310875</v>
+        <v>45382.2291082204</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>42865.98567284539</v>
+        <v>45495.6819378657</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>42974.4035542428</v>
+        <v>45610.75092253993</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>43084.36555911954</v>
+        <v>45727.45875791561</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>43195.89336392486</v>
+        <v>45845.82845022542</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>43309.00894155209</v>
+        <v>45965.88332033207</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>43423.73456522082</v>
+        <v>46087.64700784855</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>43540.09281240723</v>
+        <v>46211.14347530979</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>43658.10656882328</v>
+        <v>46336.3970123957</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>43777.79903244555</v>
+        <v>46463.43224020731</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>43899.19371759382</v>
+        <v>46592.27411559549</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>44022.31445906081</v>
+        <v>46722.94793554417</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>44147.18541629314</v>
+        <v>46855.47934160765</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>44273.83107762468</v>
+        <v>46989.89432440368</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>44402.27626456243</v>
+        <v>47126.21922816232</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>44532.54613612644</v>
+        <v>47264.48075533203</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>44664.66619324357</v>
+        <v>47404.70597124308</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>44798.66228319691</v>
+        <v>47546.92230882972</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>44934.56060413051</v>
+        <v>47691.15757341159</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>45072.3877096113</v>
+        <v>47837.43994753515</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>45212.17051324816</v>
+        <v>47985.79799587637</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>45353.93629336951</v>
+        <v>48136.26067020513</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>45497.71269776009</v>
+        <v>48288.85731441264</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>45643.52774845792</v>
+        <v>48443.61766960273</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>45791.40984661209</v>
+        <v>48600.57187924751</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>45941.38777740258</v>
+        <v>48759.75049440919</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>46093.49071502326</v>
+        <v>48921.18447902858</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>46247.74822772837</v>
+        <v>49084.90521528131</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>46404.1902829442</v>
+        <v>49250.94450900309</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>46562.84725244693</v>
+        <v>49419.33459518494</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>46723.74991760704</v>
+        <v>49590.10814353977</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>46886.92947470238</v>
+        <v>49763.29826414103</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>47052.41754030048</v>
+        <v>49938.93851313531</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>47220.24615671123</v>
+        <v>50117.06289852958</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>47390.44779751144</v>
+        <v>50297.70588605463</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>47563.05537314247</v>
+        <v>50480.90240510612</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>47738.10223658216</v>
+        <v>50666.68785476434</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>47915.62218909233</v>
+        <v>50855.09810989454</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>48095.64948604355</v>
+        <v>51046.16952732878</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>48278.21884281816</v>
+        <v>51239.93895213126</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>48463.36544079376</v>
+        <v>51436.44372394877</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>48651.1249334076</v>
+        <v>51635.72168344721</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>48841.53345230465</v>
+        <v>51837.81117883674</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>49034.6276135702</v>
+        <v>52042.75107248678</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>49230.44452404907</v>
+        <v>52250.58074763282</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>49429.02178775297</v>
+        <v>52461.34011517694</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>49630.39751235795</v>
+        <v>52675.06962058385</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>49834.61031579406</v>
+        <v>52891.81025087462</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>50041.69933292856</v>
+        <v>53111.60354172024</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>50251.70422234556</v>
+        <v>53334.4915846369</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>50464.6651732235</v>
+        <v>53560.51703428532</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>50680.62291231287</v>
+        <v>53789.72311587683</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>50899.6187110167</v>
+        <v>54022.15363268795</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>51121.69439257582</v>
+        <v>54257.85297368665</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>51346.89233936148</v>
+        <v>54496.86612127212</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>51575.25550027793</v>
+        <v>54739.23865913171</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>51806.82739827751</v>
+        <v>54985.01678021689</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>52041.6521379909</v>
+        <v>55234.24729484171</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>52279.77441347561</v>
+        <v>55486.97763890646</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>52521.23951608538</v>
+        <v>55743.25588225006</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>52766.09334246381</v>
+        <v>56003.13073713386</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>53014.38240266513</v>
+        <v>56266.65156686078</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>53266.15382840556</v>
+        <v>56533.86839453275</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>53521.4553814488</v>
+        <v>56804.83191195063</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>53780.33546212889</v>
+        <v>57079.59348865997</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>54042.84311801454</v>
+        <v>57358.20518114679</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>54309.02805271816</v>
+        <v>57640.71974218718</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>54578.94063485472</v>
+        <v>57927.19063035557</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>54852.63190715295</v>
+        <v>58217.67201969495</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>55130.15359572473</v>
+        <v>58512.21880955492</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>55411.55811949636</v>
+        <v>58810.8866346016</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>55696.89859980634</v>
+        <v>59113.73187500406</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>55986.22887017504</v>
+        <v>59420.81166680341</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>56279.60348625045</v>
+        <v>59732.1839124687</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>56577.07773593617</v>
+        <v>60047.90729164623</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>56878.70764970634</v>
+        <v>60368.04127210729</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>57184.55001111358</v>
+        <v>60692.64612090056</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>57494.66236749546</v>
+        <v>61021.78291571571</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>57809.10304088618</v>
+        <v>61355.51355646418</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>58127.9311391389</v>
+        <v>61693.90077708392</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>58451.20656726621</v>
+        <v>62037.00815757566</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>58778.99003900497</v>
+        <v>62384.90013627717</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>59111.34308861304</v>
+        <v>62737.64202238354</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>59448.32808290469</v>
+        <v>63095.30000872115</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>59790.00823353326</v>
+        <v>63457.94118478367</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>60136.44760952807</v>
+        <v>63825.63355003813</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>60487.71115009443</v>
+        <v>64198.4460275102</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>60843.86467768547</v>
+        <v>64576.44847765788</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>61204.974911354</v>
+        <v>64959.71171254248</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>61571.10948039455</v>
+        <v>65348.30751030758</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>61942.33693828439</v>
+        <v>65742.30862997522</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>62318.72677693421</v>
+        <v>66141.78882657093</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>62700.34944125841</v>
+        <v>66546.82286658773</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>63087.27634407568</v>
+        <v>66957.48654380091</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>63479.57988135159</v>
+        <v>67373.85669544566</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>63877.33344779397</v>
+        <v>67796.01121876921</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>64280.61145281384</v>
+        <v>68224.02908797091</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>64689.4893368639</v>
+        <v>68657.99037154292</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>65104.04358816757</v>
+        <v>69097.97625002581</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>65524.35175985219</v>
+        <v>69544.06903419251</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>65950.49248749999</v>
+        <v>69996.35218367615</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>66382.54550713158</v>
+        <v>70454.91032605676</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>66820.59167363643</v>
+        <v>70919.82927642236</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>67264.71297966604</v>
+        <v>71391.19605742121</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>67714.9925750062</v>
+        <v>71869.09891982254</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>68171.51478644424</v>
+        <v>72353.62736360246</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>68634.3651381488</v>
+        <v>72844.87215957408</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>69103.63037258005</v>
+        <v>73342.92537158052</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>69579.39847194862</v>
+        <v>73847.88037927014</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>70061.75868024211</v>
+        <v>74359.83190147451</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>70550.80152583936</v>
+        <v>74878.87602020978</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>71046.61884473244</v>
+        <v>75405.11020532349</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>71549.30380437776</v>
+        <v>75938.63333980864</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>72058.95092819777</v>
+        <v>76479.54574580872</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>72575.65612075629</v>
+        <v>77027.94921133725</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>73099.51669363018</v>
+        <v>77583.94701773688</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>73630.63139200205</v>
+        <v>78147.6439679031</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>74169.10042199808</v>
+        <v>78719.1464152995</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>74715.02547879731</v>
+        <v>79298.5622937913</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>75268.50977553852</v>
+        <v>79886.00114832565</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>75829.65807305233</v>
+        <v>80481.57416648758</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>76398.57671044576</v>
+        <v>81085.39421096104</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>76975.3736365699</v>
+        <v>81697.57585292676</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>77560.15844239903</v>
+        <v>82318.23540642802</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>78153.04239435305</v>
+        <v>82947.49096373699</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>78754.13846859467</v>
+        <v>83585.46243175623</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>79363.56138633394</v>
+        <v>84232.27156948883</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>79981.4276501741</v>
+        <v>84888.04202661416</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>80607.85558153324</v>
+        <v>85552.89938320503</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>81242.96535917695</v>
+        <v>86226.97119062438</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>81886.87905889974</v>
+        <v>86910.38701364092</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>82539.72069439152</v>
+        <v>87603.27847380267</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>83201.61625932845</v>
+        <v>88305.77929410993</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>83872.69377072787</v>
+        <v>89018.02534503008</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>84553.08331360774</v>
+        <v>89740.15469189637</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>85242.9170869923</v>
+        <v>90472.30764373632</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>85942.32945130703</v>
+        <v>91214.62680357383</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>86651.45697720611</v>
+        <v>91967.25712025232</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>87370.43849587778</v>
+        <v>92730.3459418261</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>88099.4151508732</v>
+        <v>93504.0430705687</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>88838.53045150569</v>
+        <v>94288.50081964798</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>89587.93032786791</v>
+        <v>95083.87407151863</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>90347.76318751699</v>
+        <v>95890.32033808454</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>91118.17997387605</v>
+        <v>96707.99982268314</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>91899.33422640391</v>
+        <v>97537.07548394648</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>92691.38214258483</v>
+        <v>98377.7131015936</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>93494.48264179046</v>
+        <v>99230.08134421041</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>94308.7974310681</v>
+        <v>100094.3518390738</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>95134.4910729097</v>
+        <v>100970.6992440779</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>95971.73105505685</v>
+        <v>101859.3013218218</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>96820.68786239791</v>
+        <v>102760.339015917</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>97681.53505101395</v>
+        <v>103673.9965295757</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>98554.44932443142</v>
+        <v>104600.4614065418</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>99439.61061213922</v>
+        <v>105539.9246144245</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>100337.2021504289</v>
+        <v>106492.5806304978</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>101247.4105656177</v>
+        <v>107458.6275300289</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>102170.4259597125</v>
+        <v>108438.2670771977</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>103106.4419985759</v>
+        <v>109431.7048186713</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>104055.6560026546</v>
+        <v>110439.1501798983</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>105018.2690403276</v>
+        <v>111460.8165641839</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>105994.4860239377</v>
+        <v>112496.9214546123</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>106984.5158085632</v>
+        <v>113547.6865188779</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>107988.5712935919</v>
+        <v>114613.3377170905</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>109006.8695271529</v>
+        <v>115694.1054126141</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>110039.6318134698</v>
+        <v>116790.2244860047</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>111087.0838231872</v>
+        <v>117901.9344521065</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>112149.4557067318</v>
+        <v>119029.4795803664</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>113226.9822107604</v>
+        <v>120173.109018426</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>114319.9027977522</v>
+        <v>121333.0769190504</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>115428.4617687938</v>
+        <v>122509.6425704457</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>116552.9083896103</v>
+        <v>123703.0705300221</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>117693.4970198917</v>
+        <v>124913.6307616536</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>118850.4872459572</v>
+        <v>126141.5987764808</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>120024.1440168045</v>
+        <v>127387.2557773069</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>121214.7377835823</v>
+        <v>128650.888806626</v>
       </c>
     </row>
     <row r="238">
@@ -2338,7 +2338,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>122422.5446425236</v>
+        <v>129932.7908983251</v>
       </c>
     </row>
     <row r="239">
@@ -2346,7 +2346,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>123647.8464813735</v>
+        <v>131233.2612330948</v>
       </c>
     </row>
     <row r="240">
@@ -2354,7 +2354,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>124890.9311293412</v>
+        <v>132552.6052975801</v>
       </c>
     </row>
     <row r="241">
@@ -2362,7 +2362,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>126152.0925105985</v>
+        <v>133891.1350472961</v>
       </c>
     </row>
     <row r="242">
@@ -2370,7 +2370,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>127431.6308013493</v>
+        <v>135249.1690733326</v>
       </c>
     </row>
     <row r="243">
@@ -2378,7 +2378,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>128729.8525904807</v>
+        <v>136627.0327728613</v>
       </c>
     </row>
     <row r="244">
@@ -2386,7 +2386,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>130047.0710438071</v>
+        <v>138025.0585234551</v>
       </c>
     </row>
     <row r="245">
@@ -2394,7 +2394,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>131383.6060719086</v>
+        <v>139443.5858612236</v>
       </c>
     </row>
     <row r="246">
@@ -2402,7 +2402,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>132739.7845015613</v>
+        <v>140882.9616627594</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>134115.9402507468</v>
+        <v>142343.5403308844</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>135512.4145072234</v>
+        <v>143825.6839841755</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>136929.5559106291</v>
+        <v>145329.7626502395</v>
       </c>
     </row>
     <row r="250">
@@ -2434,7 +2434,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>138367.7207380838</v>
+        <v>146856.1544627004</v>
       </c>
     </row>
     <row r="251">
@@ -2442,7 +2442,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>139827.2730932405</v>
+        <v>148405.24586185</v>
       </c>
     </row>
     <row r="252">
@@ -2450,7 +2450,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>141308.5850987323</v>
+        <v>149977.4317988991</v>
       </c>
     </row>
     <row r="253">
@@ -2458,7 +2458,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>142812.0370919462</v>
+        <v>151573.1159437628</v>
       </c>
     </row>
     <row r="254">
@@ -2466,7 +2466,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>144338.0178240463</v>
+        <v>153192.7108962921</v>
       </c>
     </row>
     <row r="255">
@@ -2474,7 +2474,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>145886.9246621522</v>
+        <v>154836.6384008565</v>
       </c>
     </row>
     <row r="256">
@@ -2482,7 +2482,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>147459.1637945716</v>
+        <v>156505.3295641657</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>149055.1504389656</v>
+        <v>158199.2250762064</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>150675.3090533153</v>
+        <v>159918.77543415</v>
       </c>
     </row>
     <row r="259">
@@ -2506,7 +2506,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>152320.0735495386</v>
+        <v>161664.4411690749</v>
       </c>
     </row>
     <row r="260">
@@ -2514,7 +2514,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>153989.8875095942</v>
+        <v>163436.6930753276</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>155685.2044038872</v>
+        <v>165236.0124423263</v>
       </c>
     </row>
     <row r="262">
@@ -2530,7 +2530,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>157406.487811777</v>
+        <v>167062.8912885974</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>159154.2116439657</v>
+        <v>168917.8325978056</v>
       </c>
     </row>
     <row r="264">
@@ -2546,7 +2546,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>160928.8603665257</v>
+        <v>170801.3505565253</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>162730.9292263067</v>
+        <v>172713.9707934762</v>
       </c>
     </row>
     <row r="266">
@@ -2562,7 +2562,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>164560.9244774332</v>
+        <v>174656.2306199147</v>
       </c>
     </row>
     <row r="267">
@@ -2570,7 +2570,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>166419.3636085896</v>
+        <v>176628.6792708631</v>
       </c>
     </row>
     <row r="268">
@@ -2578,7 +2578,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>168306.7755707585</v>
+        <v>178631.8781468183</v>
       </c>
     </row>
     <row r="269">
@@ -2586,7 +2586,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>170223.7010050529</v>
+        <v>180666.4010555615</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>172170.6924702626</v>
+        <v>182732.8344536634</v>
       </c>
     </row>
     <row r="271">
@@ -2602,7 +2602,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>174148.3146696996</v>
+        <v>184831.7776872454</v>
       </c>
     </row>
     <row r="272">
@@ -2610,7 +2610,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>176157.1446769041</v>
+        <v>186963.8432315334</v>
       </c>
     </row>
     <row r="273">
@@ -2618,7 +2618,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>178197.7721597419</v>
+        <v>189129.6569287014</v>
       </c>
     </row>
     <row r="274">
@@ -2626,7 +2626,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>180270.7996023916</v>
+        <v>191329.8582234778</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>182376.8425246904</v>
+        <v>193565.1003959469</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>184516.5296982726</v>
+        <v>195836.0507909472</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>186690.5033589037</v>
+        <v>198143.3910434315</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>188899.4194143754</v>
+        <v>200487.8172991154</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>191143.9476472925</v>
+        <v>202870.0404297044</v>
       </c>
     </row>
     <row r="280">
@@ -2674,7 +2674,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>193424.7719120458</v>
+        <v>205290.7862419516</v>
       </c>
     </row>
     <row r="281">
@@ -2682,7 +2682,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>195742.5903252291</v>
+        <v>207750.7956797543</v>
       </c>
     </row>
     <row r="282">
@@ -2690,7 +2690,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>198098.1154487164</v>
+        <v>210250.8250184642</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>200492.0744645812</v>
+        <v>212791.6460505363</v>
       </c>
     </row>
     <row r="284">
@@ -2706,7 +2706,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>202925.2093409959</v>
+        <v>215374.0462616067</v>
       </c>
     </row>
     <row r="285">
@@ -2714,7 +2714,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>205398.2769882123</v>
+        <v>217998.8289960406</v>
       </c>
     </row>
     <row r="286">
@@ -2722,7 +2722,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>207912.0494036815</v>
+        <v>220666.8136109568</v>
       </c>
     </row>
     <row r="287">
@@ -2730,7 +2730,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>210467.3138053311</v>
+        <v>223378.8356176791</v>
       </c>
     </row>
     <row r="288">
@@ -2738,7 +2738,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>213064.872751977</v>
+        <v>226135.7468095364</v>
       </c>
     </row>
     <row r="289">
@@ -2746,7 +2746,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>215705.5442498043</v>
+        <v>228938.415374875</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>218390.1618438121</v>
+        <v>231787.7259941137</v>
       </c>
     </row>
     <row r="291">
@@ -2762,7 +2762,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>221119.574693075</v>
+        <v>234684.5799196226</v>
       </c>
     </row>
     <row r="292">
@@ -2770,7 +2770,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>223894.6476286328</v>
+        <v>237629.8950371633</v>
       </c>
     </row>
     <row r="293">
@@ -2778,7 +2778,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>226716.2611927798</v>
+        <v>240624.6059075895</v>
       </c>
     </row>
     <row r="294">
@@ -2786,7 +2786,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>229585.3116584892</v>
+        <v>243669.6637874621</v>
       </c>
     </row>
     <row r="295">
@@ -2794,7 +2794,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>232502.7110276618</v>
+        <v>246766.036627191</v>
       </c>
     </row>
     <row r="296">
@@ -2802,7 +2802,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>235469.3870068589</v>
+        <v>249914.7090452793</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>238486.28295914</v>
+        <v>253116.6822772062</v>
       </c>
     </row>
     <row r="298">
@@ -2818,7 +2818,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>241554.3578305904</v>
+        <v>256372.9740974474</v>
       </c>
     </row>
     <row r="299">
@@ -2826,7 +2826,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>244674.5860500929</v>
+        <v>259684.6187130981</v>
       </c>
     </row>
     <row r="300">
@@ -2834,7 +2834,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>247847.9574008714</v>
+        <v>263052.6666275362</v>
       </c>
     </row>
     <row r="301">
@@ -2842,7 +2842,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>251075.4768622995</v>
+        <v>266478.1844725258</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>254358.1644204475</v>
+        <v>269962.2548071431</v>
       </c>
     </row>
     <row r="303">
@@ -2858,7 +2858,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>257697.0548458224</v>
+        <v>273505.9758818803</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>261093.1974367319</v>
+        <v>277110.461366266</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>264547.6557266923</v>
+        <v>280776.8400383239</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>268061.5071542938</v>
+        <v>284506.2554341851</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>271635.842693928</v>
+        <v>288299.8654561615</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>275271.7664457829</v>
+        <v>292158.8419375891</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>278970.3951835219</v>
+        <v>296084.3701627576</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>282732.8578580705</v>
+        <v>300077.6483402565</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>286560.2950559502</v>
+        <v>304139.8870280794</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>290453.8584106338</v>
+        <v>308272.3085088672</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>294414.7099654211</v>
+        <v>312476.1461136995</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>298444.0214863737</v>
+        <v>316752.6434928782</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>302542.9737238999</v>
+        <v>321103.0538322147</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>306712.7556216366</v>
+        <v>325528.6390133779</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>310954.5634713358</v>
+        <v>330030.6687169363</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>315269.6000125462</v>
+        <v>334610.4194668073</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>319659.0734759559</v>
+        <v>339269.1736149126</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>324124.1965693623</v>
+        <v>344008.2182649397</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>328666.1854053411</v>
+        <v>348828.8441342273</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>333286.2583697947</v>
+        <v>353732.3443529021</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>337985.6349306948</v>
+        <v>358720.0131995423</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>342765.5343864626</v>
+        <v>363793.1447727736</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>347627.174553588</v>
+        <v>368953.0315983786</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>352571.7703932406</v>
+        <v>374200.9631716547</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>357600.5325767986</v>
+        <v>379538.2244349424</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>362714.6659904101</v>
+        <v>384966.0941904458</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>367915.3681788848</v>
+        <v>390485.8434486623</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>373203.8277294275</v>
+        <v>396098.7337129629</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>378581.2225959378</v>
+        <v>401806.0152010925</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>384048.7183648261</v>
+        <v>407608.9250046001</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>389607.4664635343</v>
+        <v>413508.6851874563</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>395258.602313195</v>
+        <v>419506.5008253854</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>401003.2434271208</v>
+        <v>425603.5579877014</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>406842.4874570755</v>
+        <v>431801.0216637249</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>412777.410189558</v>
+        <v>438100.0336361447</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>418809.0634946012</v>
+        <v>444501.7103039825</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>424938.473229875</v>
+        <v>451007.1404581182</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>431166.6371031787</v>
+        <v>457617.3830126532</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>437494.522496691</v>
+        <v>464333.4646956851</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>443923.0642566463</v>
+        <v>471156.3777033867</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>450453.162452405</v>
+        <v>478087.0773216033</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>457085.6801091748</v>
+        <v>485126.4795194824</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>463821.4409189419</v>
+        <v>492275.4585199775</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>470661.2269344451</v>
+        <v>499534.8443523562</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>477605.7762513362</v>
+        <v>506905.4203921659</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>484655.7806839112</v>
+        <v>514387.9208943802</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>491811.8834401009</v>
+        <v>521983.0285257566</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>499074.6768016313</v>
+        <v>529691.3719026811</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>506444.6998155321</v>
+        <v>537513.5231410603</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>513922.4360033835</v>
+        <v>545449.9954250338</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>521508.311094905</v>
+        <v>553501.2406015297</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>529202.6907926792</v>
+        <v>561667.6468078581</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>537005.8785749733</v>
+        <v>569949.5361397438</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>544918.1135437625</v>
+        <v>578347.1623673313</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>552939.5683251783</v>
+        <v>586860.7087068351</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>561070.3470297036</v>
+        <v>595030.1102754027</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>569310.4832794856</v>
+        <v>603309.4723087884</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>577659.938310182</v>
+        <v>611698.7392947455</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>586118.5991547466</v>
+        <v>620197.7800671799</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>594686.2769165359</v>
+        <v>628806.3860428642</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>603362.7051390284</v>
+        <v>637524.2695557219</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>612147.5382793762</v>
+        <v>646351.06229601</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>621040.3502928312</v>
+        <v>655286.3138615541</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>630040.6333349295</v>
+        <v>664329.4904280409</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>639147.796588102</v>
+        <v>673479.973545149</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>648361.165219106</v>
+        <v>682737.0590650395</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>657679.9794734044</v>
+        <v>692099.9562094512</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>667103.3939122641</v>
+        <v>701567.7867813053</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>676630.476798001</v>
+        <v>711139.5845263654</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>686260.2096323811</v>
+        <v>720814.2946501065</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>695991.4868527597</v>
+        <v>731546.2216073744</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>705823.1156900654</v>
+        <v>742389.0362335402</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>715753.8161922457</v>
+        <v>753341.3548783726</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>725782.2214162473</v>
+        <v>764401.6992389227</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>735906.8777910639</v>
+        <v>775568.4967953357</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>746126.2456537989</v>
+        <v>786840.0814387021</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>756438.6999600908</v>
+        <v>798214.6942925381</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>766842.5311696323</v>
+        <v>809690.4847287984</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>777335.9463068849</v>
+        <v>821265.5115786379</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>787917.0701964453</v>
+        <v>832937.7445374158</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>798583.9468718753</v>
+        <v>845660.2325829284</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>809334.5411561409</v>
+        <v>858484.1903876921</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>820166.7404111746</v>
+        <v>871407.2275412884</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>831078.3564534013</v>
+        <v>884426.8682501967</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>842067.1276314454</v>
+        <v>897540.5539113999</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>853130.7210616006</v>
+        <v>910745.6458762245</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>864266.7350160273</v>
+        <v>924039.428398435</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>875472.7014580575</v>
+        <v>937419.1117598516</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>886746.0887184051</v>
+        <v>950881.8355660308</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>898084.3043055484</v>
+        <v>964424.6722038386</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>909484.6978430183</v>
+        <v>974478.5307845703</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>920944.564125873</v>
+        <v>984580.9261781969</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>932461.1462881647</v>
+        <v>994729.1930562035</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>944031.6390728187</v>
+        <v>1004920.616907071</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>955653.1921949742</v>
+        <v>1015152.436919497</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>967322.9137895039</v>
+        <v>1025421.848934811</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>979037.8739331764</v>
+        <v>1035726.008459501</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>990795.1082316611</v>
+        <v>1046062.033728581</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>1002591.621461431</v>
+        <v>1056427.008810343</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>1014424.391256438</v>
+        <v>1066817.986742962</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>1026290.371829392</v>
+        <v>1073338.127945122</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>1038186.497717408</v>
+        <v>1079856.6304742</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>1050109.687541799</v>
+        <v>1086370.892396166</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>1062056.847771859</v>
+        <v>1092878.282277813</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>1074024.876482576</v>
+        <v>1099376.14087129</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>1086010.667096356</v>
+        <v>1105861.782776055</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>1098011.112099061</v>
+        <v>1112332.498074074</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>1110023.106720832</v>
+        <v>1118785.553934634</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>1122043.55257254</v>
+        <v>1125218.196185866</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>1134069.361228904</v>
+        <v>1131627.650850745</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>1146097.45774976</v>
+        <v>1138113.150572928</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>1158124.78413127</v>
+        <v>1144570.313889365</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>1170148.302679303</v>
+        <v>1150996.310237677</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>1182164.999297632</v>
+        <v>1157388.29566131</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>1194171.886684063</v>
+        <v>1163743.414199305</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>1206166.007428062</v>
+        <v>1170058.799246792</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>1218144.437003946</v>
+        <v>1176331.574891553</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>1230104.286654216</v>
+        <v>1182558.857233447</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>1242042.706158111</v>
+        <v>1188737.755694961</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>1253956.886480966</v>
+        <v>1194865.37433276</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>1265844.062300525</v>
+        <v>1200938.813161744</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>1277701.51440683</v>
+        <v>1206955.169504781</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>1289526.57197287</v>
+        <v>1212911.539383044</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>1301316.614693656</v>
+        <v>1218805.018963574</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>1313069.074791932</v>
+        <v>1224632.706082464</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>1324781.438889197</v>
+        <v>1230391.701863765</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>1336451.249741223</v>
+        <v>1236079.112455864</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>1348076.107837707</v>
+        <v>1241692.050908714</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>1359653.672866178</v>
+        <v>1247227.63921675</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>1371181.665040669</v>
+        <v>1252683.010553707</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>1382657.866296157</v>
+        <v>1258055.311726713</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>1394080.121350065</v>
+        <v>1263341.705878013</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>1405446.338632626</v>
+        <v>1268539.375463385</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>1416754.491088127</v>
+        <v>1273645.525536716</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>1428002.616849487</v>
+        <v>1278657.38737032</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>1439188.819788855</v>
+        <v>1283572.222440226</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>1450311.269947249</v>
+        <v>1288387.326804989</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>1461368.20384645</v>
+        <v>1293100.035905322</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>1472357.924686665</v>
+        <v>1297707.729810172</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>1483278.802433619</v>
+        <v>1302207.838932585</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>1494129.273798947</v>
+        <v>1306597.850235853</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>1504907.842117914</v>
+        <v>1310875.313946992</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>1515613.077128605</v>
+        <v>1315037.850790474</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>1526243.614656879</v>
+        <v>1319083.159750429</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>1536798.156211405</v>
+        <v>1323009.026364089</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>1547275.468493228</v>
+        <v>1326813.331543198</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>1557674.38282434</v>
+        <v>1330494.060913461</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>1567993.794499723</v>
+        <v>1334049.3146547</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>1578232.662067406</v>
+        <v>1337477.317816639</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>1588390.006541016</v>
+        <v>1340776.431076736</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/s_SFH.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_SFH.xlsx
@@ -450,7 +450,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>40784.29618366806</v>
+        <v>72114.86845643715</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>40831.96721114341</v>
+        <v>72199.16045598732</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>40880.32323404615</v>
+        <v>72284.66366572774</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>40929.37402882271</v>
+        <v>72371.39537238918</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>40979.1295096084</v>
+        <v>72459.37310616416</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>41029.59973011738</v>
+        <v>72548.61464404878</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>41080.79488555697</v>
+        <v>72639.13801322764</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>41132.72531456707</v>
+        <v>72730.96149450299</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>41185.40150118493</v>
+        <v>72824.10362576904</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>41238.83407683537</v>
+        <v>72918.583205531</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>41293.03382234687</v>
+        <v>73014.41929646983</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>41348.01166999401</v>
+        <v>73111.6312290538</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>41403.77870556614</v>
+        <v>73210.23860519631</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>41460.34617046313</v>
+        <v>73310.26130196149</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>41517.72546381802</v>
+        <v>73411.71947531763</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>41575.92814464718</v>
+        <v>73514.63356393902</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>41634.96593402833</v>
+        <v>73619.0242930571</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>41694.85071730646</v>
+        <v>73724.91267836101</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>41755.59454632836</v>
+        <v>73832.32002994865</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>41817.20964170564</v>
+        <v>73941.26795632829</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>41879.70839510715</v>
+        <v>74051.77836847182</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>41943.10337158055</v>
+        <v>74163.87348391996</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>42007.40731190376</v>
+        <v>74277.57583093985</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>42072.63313496651</v>
+        <v>74392.90825273651</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>42138.7939401824</v>
+        <v>74509.89391171731</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>42205.90300993158</v>
+        <v>74628.55629381165</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>42273.97381203485</v>
+        <v>74748.91921284536</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>42343.02000225908</v>
+        <v>74871.00681497087</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>42413.05542685476</v>
+        <v>74994.84358315397</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>42484.09412512549</v>
+        <v>75120.45434171747</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>42556.15033203035</v>
+        <v>75247.86426094257</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>42629.23848081932</v>
+        <v>75377.09886172874</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>42703.37320570184</v>
+        <v>75508.18402031236</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>42778.5693445494</v>
+        <v>75641.14597304541</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>42854.84194163221</v>
+        <v>75776.01132123452</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>42932.20625039045</v>
+        <v>75912.80703604099</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>43010.67773624042</v>
+        <v>76051.56046344271</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>43090.27207941611</v>
+        <v>76192.29932925869</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>43171.00517784667</v>
+        <v>76335.05174423674</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>43252.89315006985</v>
+        <v>76479.84620920545</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>43335.95233818214</v>
+        <v>76626.71162029021</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>43420.19931082612</v>
+        <v>76775.67727419568</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>43505.65086621494</v>
+        <v>76926.77287355356</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>43592.32403519499</v>
+        <v>77080.02853233829</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>43680.23608434682</v>
+        <v>77235.47478134967</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>43769.40451912478</v>
+        <v>77393.14257376469</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>43859.84708703595</v>
+        <v>77553.06329075839</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>43951.58178085888</v>
+        <v>77715.26874719532</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>44044.62684190218</v>
+        <v>77879.79119739142</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>44139.0007633042</v>
+        <v>78046.66334094822</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>44234.72229337337</v>
+        <v>78215.9183286597</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>44331.81043897053</v>
+        <v>78387.58976849251</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>44430.28446893292</v>
+        <v>78561.71173164058</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>44530.16391754126</v>
+        <v>78738.31875865546</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>44631.46858802951</v>
+        <v>78917.44586565232</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>44734.21855613837</v>
+        <v>79099.12855059322</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>44838.43417371312</v>
+        <v>79283.40279964883</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>44944.13607234572</v>
+        <v>79470.30509363866</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>45051.34516706254</v>
+        <v>79659.87241455111</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>45160.08266005751</v>
+        <v>79852.142252145</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>45270.37004447186</v>
+        <v>80047.15261063269</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>45382.2291082204</v>
+        <v>80244.9420154457</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>45495.6819378657</v>
+        <v>80445.54952008517</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>45610.75092253993</v>
+        <v>80649.0147130562</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>45727.45875791561</v>
+        <v>80855.3777248892</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>45845.82845022542</v>
+        <v>81064.67923524774</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>45965.88332033207</v>
+        <v>81276.9604801246</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>46087.64700784855</v>
+        <v>81492.26325912755</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>46211.14347530979</v>
+        <v>81710.62994285533</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>46336.3970123957</v>
+        <v>81932.1034803654</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>46463.43224020731</v>
+        <v>82156.72740673428</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>46592.27411559549</v>
+        <v>82384.54585071225</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>46722.94793554417</v>
+        <v>82615.60354247336</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>46855.47934160765</v>
+        <v>82849.94582146168</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>46989.89432440368</v>
+        <v>83087.61864433586</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>47126.21922816232</v>
+        <v>83328.66859301263</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>47264.48075533203</v>
+        <v>83573.14288281102</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>47404.70597124308</v>
+        <v>83821.08937069842</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>47546.92230882972</v>
+        <v>84072.5565636403</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>47691.15757341159</v>
+        <v>84327.59362705456</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>47837.43994753515</v>
+        <v>84586.25039337242</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>47985.79799587637</v>
+        <v>84848.57737070699</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>48136.26067020513</v>
+        <v>85114.62575163177</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>48288.85731441264</v>
+        <v>85384.44742206988</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>48443.61766960273</v>
+        <v>85658.0949702964</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>48600.57187924751</v>
+        <v>85935.62169605489</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>48759.75049440919</v>
+        <v>86217.08161979038</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>48921.18447902858</v>
+        <v>86502.52949200076</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>49084.90521528131</v>
+        <v>86792.02080270741</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>49250.94450900309</v>
+        <v>87085.61179104814</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>49419.33459518494</v>
+        <v>87383.35945499424</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>49590.10814353977</v>
+        <v>87685.32156119285</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>49763.29826414103</v>
+        <v>87991.55665493745</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>49938.93851313531</v>
+        <v>88302.12407026897</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>50117.06289852958</v>
+        <v>88617.08394020874</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>50297.70588605463</v>
+        <v>88936.49720712603</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>50480.90240510612</v>
+        <v>89260.42563324324</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>50666.68785476434</v>
+        <v>89588.9318112802</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>50855.09810989454</v>
+        <v>89922.0791752403</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>51046.16952732878</v>
+        <v>90259.93201134176</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>51239.93895213126</v>
+        <v>90602.55546909574</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>51436.44372394877</v>
+        <v>90950.01557253519</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>51635.72168344721</v>
+        <v>91302.37923159602</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>51837.81117883674</v>
+        <v>91659.71425365482</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>52042.75107248678</v>
+        <v>92022.08935522556</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>52250.58074763282</v>
+        <v>92389.57417381863</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>52461.34011517694</v>
+        <v>92762.23927996536</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>52675.06962058385</v>
+        <v>93140.15618941172</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>52891.81025087462</v>
+        <v>93523.39737548484</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>53111.60354172024</v>
+        <v>93912.03628163536</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>53334.4915846369</v>
+        <v>94306.14733416057</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>53560.51703428532</v>
+        <v>94705.80595511114</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>53789.72311587683</v>
+        <v>95111.08857538609</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>54022.15363268795</v>
+        <v>95522.07264802061</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>54257.85297368665</v>
+        <v>95938.83666167042</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>54496.86612127212</v>
+        <v>96361.46015429767</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>54739.23865913171</v>
+        <v>96790.02372706313</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>54985.01678021689</v>
+        <v>97224.60905842963</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>55234.24729484171</v>
+        <v>97665.29891848155</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>55486.97763890646</v>
+        <v>98112.17718346625</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>55743.25588225006</v>
+        <v>98565.32885056238</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>56003.13073713386</v>
+        <v>99024.84005288113</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>56266.65156686078</v>
+        <v>99490.79807470665</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>56533.86839453275</v>
+        <v>99963.29136698093</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>56804.83191195063</v>
+        <v>100442.4095630407</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>57079.59348865997</v>
+        <v>100928.2434946119</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>57358.20518114679</v>
+        <v>101420.8852080701</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>57640.71974218718</v>
+        <v>101920.4279809724</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>57927.19063035557</v>
+        <v>102426.9663388694</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>58217.67201969495</v>
+        <v>102940.596072405</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>58512.21880955492</v>
+        <v>103461.4142547113</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>58810.8866346016</v>
+        <v>103989.5192591084</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>59113.73187500406</v>
+        <v>104525.0107771164</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>59420.81166680341</v>
+        <v>105067.9898367896</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>59732.1839124687</v>
+        <v>105618.5588213815</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>60047.90729164623</v>
+        <v>106176.821488352</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>60368.04127210729</v>
+        <v>106742.882988725</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>60692.64612090056</v>
+        <v>107316.8498868083</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>61021.78291571571</v>
+        <v>107898.8301802864</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>61355.51355646418</v>
+        <v>108488.9333206979</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>61693.90077708392</v>
+        <v>109087.2702343089</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>62037.00815757566</v>
+        <v>109693.953343395</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>62384.90013627717</v>
+        <v>110309.096587945</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>62737.64202238354</v>
+        <v>110932.8154477993</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>63095.30000872115</v>
+        <v>111565.2269652367</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>63457.94118478367</v>
+        <v>112206.4497680249</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>63825.63355003813</v>
+        <v>112856.6040929481</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>64198.4460275102</v>
+        <v>113515.8118098287</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>64576.44847765788</v>
+        <v>114184.1964460585</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>64959.71171254248</v>
+        <v>114861.8832116563</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>65348.30751030758</v>
+        <v>115548.9990248692</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>65742.30862997522</v>
+        <v>116245.6725383353</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>66141.78882657093</v>
+        <v>116952.0341658283</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>66546.82286658773</v>
+        <v>117668.2161096003</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>66957.48654380091</v>
+        <v>118394.3523883458</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>67373.85669544566</v>
+        <v>119130.5788658073</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>67796.01121876921</v>
+        <v>119877.0332800423</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>68224.02908797091</v>
+        <v>120633.8552733772</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>68657.99037154292</v>
+        <v>121401.186423069</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>69097.97625002581</v>
+        <v>122179.1702727005</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>69544.06903419251</v>
+        <v>122967.9523643338</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>69996.35218367615</v>
+        <v>123767.6802714477</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>70454.91032605676</v>
+        <v>124578.5036326866</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>70919.82927642236</v>
+        <v>125400.5741864491</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>71391.19605742121</v>
+        <v>126234.0458063438</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>71869.09891982254</v>
+        <v>127079.0745375452</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>72353.62736360246</v>
+        <v>127935.8186340777</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>72844.87215957408</v>
+        <v>128804.4385970621</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>73342.92537158052</v>
+        <v>129685.0972139572</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>73847.88037927014</v>
+        <v>130577.9595988312</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>74359.83190147451</v>
+        <v>131483.1932336983</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>74878.87602020978</v>
+        <v>132400.9680109586</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>75405.11020532349</v>
+        <v>133331.4562769778</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>75938.63333980864</v>
+        <v>134274.8328768483</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>76479.54574580872</v>
+        <v>135231.2752003711</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>77027.94921133725</v>
+        <v>136200.9632293013</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>77583.94701773688</v>
+        <v>137184.0795859011</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>78147.6439679031</v>
+        <v>138180.8095828457</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>78719.1464152995</v>
+        <v>139191.3412745273</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>79298.5622937913</v>
+        <v>140215.8655098072</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>79886.00114832565</v>
+        <v>141254.5759862653</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>80481.57416648758</v>
+        <v>142307.6693059963</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>81085.39421096104</v>
+        <v>143375.3450330081</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>81697.57585292676</v>
+        <v>144457.8057522759</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>82318.23540642802</v>
+        <v>145555.2571305076</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>82947.49096373699</v>
+        <v>146667.9079786786</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>83585.46243175623</v>
+        <v>147795.9703163975</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>84232.27156948883</v>
+        <v>148939.6594381602</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>84888.04202661416</v>
+        <v>150099.1939815599</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>85552.89938320503</v>
+        <v>151274.7959975155</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>86226.97119062438</v>
+        <v>152466.6910225841</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>86910.38701364092</v>
+        <v>153675.1081534311</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>87603.27847380267</v>
+        <v>154900.2801235229</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>88305.77929410993</v>
+        <v>156142.4433821177</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>89018.02534503008</v>
+        <v>157401.8381756287</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>89740.15469189637</v>
+        <v>158678.7086314354</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>90472.30764373632</v>
+        <v>159973.3028442215</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>91214.62680357383</v>
+        <v>161285.8729649194</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>91967.25712025232</v>
+        <v>162616.6752923439</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>92730.3459418261</v>
+        <v>163965.970367599</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>93504.0430705687</v>
+        <v>165334.0230713438</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>94288.50081964798</v>
+        <v>166721.1027240053</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>95083.87407151863</v>
+        <v>168127.4831890282</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>95890.32033808454</v>
+        <v>169553.4429792544</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>96707.99982268314</v>
+        <v>170999.2653665234</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>97537.07548394648</v>
+        <v>172465.2384945918</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>98377.7131015936</v>
+        <v>173951.6554954675</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>99230.08134421041</v>
+        <v>175458.8146092582</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>100094.3518390738</v>
+        <v>176987.0193076345</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>100970.6992440779</v>
+        <v>178536.5784210101</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>101859.3013218218</v>
+        <v>180107.8062695437</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>102760.339015917</v>
+        <v>181701.0227980658</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>103673.9965295757</v>
+        <v>183316.5537150396</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>104600.4614065418</v>
+        <v>184954.7306356622</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>105539.9246144245</v>
+        <v>186615.8912292157</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>106492.5806304978</v>
+        <v>188300.3793707782</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>107458.6275300289</v>
+        <v>190008.5452974059</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>108438.2670771977</v>
+        <v>191740.7457688974</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>109431.7048186713</v>
+        <v>193497.3442332523</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>110439.1501798983</v>
+        <v>195278.7109969389</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>111460.8165641839</v>
+        <v>197085.2234000786</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>112496.9214546123</v>
+        <v>198917.2659966659</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>113547.6865188779</v>
+        <v>200775.230739931</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>114613.3377170905</v>
+        <v>202659.5171729606</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>115694.1054126141</v>
+        <v>204570.5326246838</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>116790.2244860047</v>
+        <v>206508.6924113375</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>117901.9344521065</v>
+        <v>208474.4200435149</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>119029.4795803664</v>
+        <v>210468.1474389067</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>120173.109018426</v>
+        <v>212490.3151408372</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>121333.0769190504</v>
+        <v>214541.3725426985</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>122509.6425704457</v>
+        <v>216621.7781183797</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>123703.0705300221</v>
+        <v>218731.9996587861</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>124913.6307616536</v>
+        <v>220872.5145145421</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>126141.5987764808</v>
+        <v>223043.80984496</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>127387.2557773069</v>
+        <v>225246.3828733597</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>128650.888806626</v>
+        <v>227480.7411488139</v>
       </c>
     </row>
     <row r="238">
@@ -2338,7 +2338,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>129932.7908983251</v>
+        <v>229747.4028143874</v>
       </c>
     </row>
     <row r="239">
@@ -2346,7 +2346,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>131233.2612330948</v>
+        <v>232046.8968819343</v>
       </c>
     </row>
     <row r="240">
@@ -2354,7 +2354,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>132552.6052975801</v>
+        <v>234379.7635135089</v>
       </c>
     </row>
     <row r="241">
@@ -2362,7 +2362,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>133891.1350472961</v>
+        <v>236746.5543094341</v>
       </c>
     </row>
     <row r="242">
@@ -2370,7 +2370,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>135249.1690733326</v>
+        <v>239147.8326030683</v>
       </c>
     </row>
     <row r="243">
@@ -2378,7 +2378,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>136627.0327728613</v>
+        <v>241584.1737622963</v>
       </c>
     </row>
     <row r="244">
@@ -2386,7 +2386,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>138025.0585234551</v>
+        <v>244056.1654977613</v>
       </c>
     </row>
     <row r="245">
@@ -2394,7 +2394,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>139443.5858612236</v>
+        <v>246564.4081778446</v>
       </c>
     </row>
     <row r="246">
@@ -2402,7 +2402,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>140882.9616627594</v>
+        <v>249109.5151503831</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>142343.5403308844</v>
+        <v>251692.1130711067</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>143825.6839841755</v>
+        <v>254312.8422387569</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>145329.7626502395</v>
+        <v>256972.3569368375</v>
       </c>
     </row>
     <row r="250">
@@ -2434,7 +2434,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>146856.1544627004</v>
+        <v>259671.3257819266</v>
       </c>
     </row>
     <row r="251">
@@ -2442,7 +2442,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>148405.24586185</v>
+        <v>262410.4320784673</v>
       </c>
     </row>
     <row r="252">
@@ -2450,7 +2450,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>149977.4317988991</v>
+        <v>265190.3741799265</v>
       </c>
     </row>
     <row r="253">
@@ -2458,7 +2458,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>151573.1159437628</v>
+        <v>268011.8658561993</v>
       </c>
     </row>
     <row r="254">
@@ -2466,7 +2466,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>153192.7108962921</v>
+        <v>270875.636667111</v>
       </c>
     </row>
     <row r="255">
@@ -2474,7 +2474,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>154836.6384008565</v>
+        <v>273782.4323418406</v>
       </c>
     </row>
     <row r="256">
@@ -2482,7 +2482,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>156505.3295641657</v>
+        <v>276733.0151640754</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>158199.2250762064</v>
+        <v>279728.16436267</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>159918.77543415</v>
+        <v>282768.6765075623</v>
       </c>
     </row>
     <row r="259">
@@ -2506,7 +2506,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>161664.4411690749</v>
+        <v>285855.3659106622</v>
       </c>
     </row>
     <row r="260">
@@ -2514,7 +2514,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>163436.6930753276</v>
+        <v>288989.0650314101</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>165236.0124423263</v>
+        <v>292170.6248866515</v>
       </c>
     </row>
     <row r="262">
@@ -2530,7 +2530,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>167062.8912885974</v>
+        <v>295400.9154644608</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>168917.8325978056</v>
+        <v>298680.8261414907</v>
       </c>
     </row>
     <row r="264">
@@ -2546,7 +2546,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>170801.3505565253</v>
+        <v>302011.2661033995</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>172713.9707934762</v>
+        <v>305393.1647678678</v>
       </c>
     </row>
     <row r="266">
@@ -2562,7 +2562,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>174656.2306199147</v>
+        <v>308827.4722096601</v>
       </c>
     </row>
     <row r="267">
@@ -2570,7 +2570,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>176628.6792708631</v>
+        <v>312315.1595871656</v>
       </c>
     </row>
     <row r="268">
@@ -2578,7 +2578,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>178631.8781468183</v>
+        <v>315857.2195697881</v>
       </c>
     </row>
     <row r="269">
@@ -2586,7 +2586,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>180666.4010555615</v>
+        <v>319454.6667655148</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>182732.8344536634</v>
+        <v>323108.538147946</v>
       </c>
     </row>
     <row r="271">
@@ -2602,7 +2602,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>184831.7776872454</v>
+        <v>326819.8934820099</v>
       </c>
     </row>
     <row r="272">
@@ -2610,7 +2610,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>186963.8432315334</v>
+        <v>330589.8157475411</v>
       </c>
     </row>
     <row r="273">
@@ -2618,7 +2618,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>189129.6569287014</v>
+        <v>334419.4115598373</v>
       </c>
     </row>
     <row r="274">
@@ -2626,7 +2626,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>191329.8582234778</v>
+        <v>338309.8115862578</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>193565.1003959469</v>
+        <v>342262.170957864</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>195836.0507909472</v>
+        <v>346277.6696750423</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>198143.3910434315</v>
+        <v>350357.5130059855</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>200487.8172991154</v>
+        <v>354502.931876844</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>202870.0404297044</v>
+        <v>358715.1832522915</v>
       </c>
     </row>
     <row r="280">
@@ -2674,7 +2674,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>205290.7862419516</v>
+        <v>362995.5505051798</v>
       </c>
     </row>
     <row r="281">
@@ -2682,7 +2682,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>207750.7956797543</v>
+        <v>367345.3437738884</v>
       </c>
     </row>
     <row r="282">
@@ -2690,7 +2690,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>210250.8250184642</v>
+        <v>371765.9003059021</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>212791.6460505363</v>
+        <v>376258.5847860774</v>
       </c>
     </row>
     <row r="284">
@@ -2706,7 +2706,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>215374.0462616067</v>
+        <v>380824.7896479817</v>
       </c>
     </row>
     <row r="285">
@@ -2714,7 +2714,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>217998.8289960406</v>
+        <v>385465.9353666182</v>
       </c>
     </row>
     <row r="286">
@@ -2722,7 +2722,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>220666.8136109568</v>
+        <v>390183.4707307695</v>
       </c>
     </row>
     <row r="287">
@@ -2730,7 +2730,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>223378.8356176791</v>
+        <v>394978.8730931147</v>
       </c>
     </row>
     <row r="288">
@@ -2738,7 +2738,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>226135.7468095364</v>
+        <v>399853.6485962035</v>
       </c>
     </row>
     <row r="289">
@@ -2746,7 +2746,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>228938.415374875</v>
+        <v>404809.3323722868</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>231787.7259941137</v>
+        <v>409847.4887149289</v>
       </c>
     </row>
     <row r="291">
@@ -2762,7 +2762,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>234684.5799196226</v>
+        <v>414969.711220248</v>
       </c>
     </row>
     <row r="292">
@@ -2770,7 +2770,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>237629.8950371633</v>
+        <v>420177.6228955574</v>
       </c>
     </row>
     <row r="293">
@@ -2778,7 +2778,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>240624.6059075895</v>
+        <v>425472.8762330988</v>
       </c>
     </row>
     <row r="294">
@@ -2786,7 +2786,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>243669.6637874621</v>
+        <v>430857.1532464945</v>
       </c>
     </row>
     <row r="295">
@@ -2794,7 +2794,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>246766.036627191</v>
+        <v>436332.1654674619</v>
       </c>
     </row>
     <row r="296">
@@ -2802,7 +2802,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>249914.7090452793</v>
+        <v>441899.6539002715</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>253116.6822772062</v>
+        <v>447561.3889313621</v>
       </c>
     </row>
     <row r="298">
@@ -2818,7 +2818,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>256372.9740974474</v>
+        <v>453319.1701914564</v>
       </c>
     </row>
     <row r="299">
@@ -2826,7 +2826,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>259684.6187130981</v>
+        <v>459174.8263674665</v>
       </c>
     </row>
     <row r="300">
@@ -2834,7 +2834,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>263052.6666275362</v>
+        <v>465130.2149614209</v>
       </c>
     </row>
     <row r="301">
@@ -2842,7 +2842,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>266478.1844725258</v>
+        <v>471187.2219935916</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>269962.2548071431</v>
+        <v>477347.7616469524</v>
       </c>
     </row>
     <row r="303">
@@ -2858,7 +2858,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>273505.9758818803</v>
+        <v>480261.5680698871</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>277110.461366266</v>
+        <v>483229.650429331</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>280776.8400383239</v>
+        <v>486253.0876555885</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>284506.2554341851</v>
+        <v>489332.9727301305</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>288299.8654561615</v>
+        <v>492470.4122557968</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>292158.8419375891</v>
+        <v>495666.5259861783</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>296084.3701627576</v>
+        <v>498922.4463126519</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>300077.6483402565</v>
+        <v>502239.3177075557</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>304139.8870280794</v>
+        <v>505618.2961220079</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>308272.3085088672</v>
+        <v>509060.5483369149</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>312476.1461136995</v>
+        <v>512567.2512657453</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>316752.6434928782</v>
+        <v>516139.5912076827</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>321103.0538322147</v>
+        <v>519778.7630498438</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>325528.6390133779</v>
+        <v>523485.96941729</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>330030.6687169363</v>
+        <v>527262.4197696464</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>334610.4194668073</v>
+        <v>531109.3294432183</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>339269.1736149126</v>
+        <v>535027.9186375854</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>344008.2182649397</v>
+        <v>539019.4113457539</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>348828.8441342273</v>
+        <v>543085.0342270704</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>353732.3443529021</v>
+        <v>547226.015422203</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>358720.0131995423</v>
+        <v>551443.5833096536</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>363793.1447727736</v>
+        <v>555738.9652033858</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>368953.0315983786</v>
+        <v>560113.3859913338</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>374200.9631716547</v>
+        <v>564568.0667147035</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>379538.2244349424</v>
+        <v>569104.2230881718</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>384966.0941904458</v>
+        <v>573723.063961275</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>390485.8434486623</v>
+        <v>578425.7897214775</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>396098.7337129629</v>
+        <v>583213.5906396298</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>401806.0152010925</v>
+        <v>588087.6451587448</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>407608.9250046001</v>
+        <v>593049.1181272612</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>413508.6851874563</v>
+        <v>598099.1589781982</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>419506.5008253854</v>
+        <v>603238.8998558705</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>425603.5579877014</v>
+        <v>608469.4536920873</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>431801.0216637249</v>
+        <v>613791.9122340328</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>438100.0336361447</v>
+        <v>619207.344026305</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>444501.7103039825</v>
+        <v>624716.792349873</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>451007.1404581182</v>
+        <v>630321.2731209943</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>457617.3830126532</v>
+        <v>636021.7727534487</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>464333.4646956851</v>
+        <v>641819.2459877124</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>471156.3777033867</v>
+        <v>647714.6136910174</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>478087.0773216033</v>
+        <v>653708.7606325236</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>485126.4795194824</v>
+        <v>659802.533238137</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>492275.4585199775</v>
+        <v>665996.7373297896</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>499534.8443523562</v>
+        <v>672292.1358542857</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>506905.4203921659</v>
+        <v>678689.4466071083</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>514387.9208943802</v>
+        <v>685189.3399568311</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>521983.0285257566</v>
+        <v>691792.4365760596</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>529691.3719026811</v>
+        <v>698499.3051850554</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>537513.5231410603</v>
+        <v>705310.4603144404</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>545449.9954250338</v>
+        <v>712226.3600935818</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>553501.2406015297</v>
+        <v>719247.4040714612</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>561667.6468078581</v>
+        <v>726373.9310769903</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>569949.5361397438</v>
+        <v>733606.2171259036</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>578347.1623673313</v>
+        <v>740944.4733814616</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>586860.7087068351</v>
+        <v>748388.8441763041</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>595030.1102754027</v>
+        <v>755479.2297226704</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>603309.4723087884</v>
+        <v>762669.7045901729</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>611698.7392947455</v>
+        <v>769960.1871036231</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>620197.7800671799</v>
+        <v>777350.5247054812</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>628806.3860428642</v>
+        <v>784840.4924642462</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>637524.2695557219</v>
+        <v>792429.7916832647</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>646351.06229601</v>
+        <v>800118.0486167334</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>655286.3138615541</v>
+        <v>807904.8132994665</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>664329.4904280409</v>
+        <v>815789.5584967997</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>673479.973545149</v>
+        <v>823771.6787807768</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>682737.0590650395</v>
+        <v>831850.4897384456</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>692099.9562094512</v>
+        <v>840025.227317808</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>701567.7867813053</v>
+        <v>848295.0473165843</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>711139.5845263654</v>
+        <v>856659.0250185785</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>720814.2946501065</v>
+        <v>865116.1549820048</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>731546.2216073744</v>
+        <v>874620.7990965438</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>742389.0362335402</v>
+        <v>884226.6939770015</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>753341.3548783726</v>
+        <v>893932.530353936</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>764401.6992389227</v>
+        <v>903736.9131566761</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>775568.4967953357</v>
+        <v>913638.3621917597</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>786840.0814387021</v>
+        <v>923635.3130050063</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>798214.6942925381</v>
+        <v>933726.1179279016</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>809690.4847287984</v>
+        <v>943909.0473082837</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>821265.5115786379</v>
+        <v>954182.2909246283</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>832937.7445374158</v>
+        <v>964543.9595825012</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>845660.2325829284</v>
+        <v>975947.2537112542</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>858484.1903876921</v>
+        <v>987443.5499408644</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>871407.2275412884</v>
+        <v>999030.6304740336</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>884426.8682501967</v>
+        <v>1010706.20292008</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>897540.5539113999</v>
+        <v>1022467.902986035</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>910745.6458762245</v>
+        <v>1034313.297340553</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>924039.428398435</v>
+        <v>1046239.886643833</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>937419.1117598516</v>
+        <v>1058245.108736003</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>950881.8355660308</v>
+        <v>1070326.341975766</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>964424.6722038386</v>
+        <v>1082480.908720378</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>974478.5307845703</v>
+        <v>1091139.979269936</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>984580.9261781969</v>
+        <v>1099841.340880903</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>994729.1930562035</v>
+        <v>1108582.611765734</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>1004920.616907071</v>
+        <v>1117361.3720421</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>1015152.436919497</v>
+        <v>1126175.166526318</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>1025421.848934811</v>
+        <v>1135021.507571991</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>1035726.008459501</v>
+        <v>1143897.87794442</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>1046062.033728581</v>
+        <v>1152801.733721177</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>1056427.008810343</v>
+        <v>1161730.507209167</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>1066817.986742962</v>
+        <v>1170681.609868447</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>1073338.127945122</v>
+        <v>1175758.570484891</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>1079856.6304742</v>
+        <v>1180830.9651652</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>1086370.892396166</v>
+        <v>1185896.579418459</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>1092878.282277813</v>
+        <v>1190953.178335004</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>1099376.14087129</v>
+        <v>1195998.50793277</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>1105861.782776055</v>
+        <v>1201030.296456528</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>1112332.498074074</v>
+        <v>1206046.255626214</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>1118785.553934634</v>
+        <v>1211044.081831187</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>1125218.196185866</v>
+        <v>1216021.457268029</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>1131627.650850745</v>
+        <v>1220976.051020311</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>1138113.150572928</v>
+        <v>1226007.54500635</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>1144570.313889365</v>
+        <v>1231012.01275274</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>1150996.310237677</v>
+        <v>1235987.083882448</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>1157388.29566131</v>
+        <v>1240930.379281508</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>1163743.414199305</v>
+        <v>1245839.511932114</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>1170058.799246792</v>
+        <v>1250712.087699361</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>1176331.574891553</v>
+        <v>1255545.706078138</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>1182558.857233447</v>
+        <v>1260337.960908201</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>1188737.755694961</v>
+        <v>1265086.441067005</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>1194865.37433276</v>
+        <v>1269788.731151533</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>1200938.813161744</v>
+        <v>1274442.412162053</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>1206955.169504781</v>
+        <v>1279045.062202456</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>1212911.539383044</v>
+        <v>1283594.257213623</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>1218805.018963574</v>
+        <v>1288087.57175802</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>1224632.706082464</v>
+        <v>1292522.579875525</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>1230391.701863765</v>
+        <v>1296896.856032217</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>1236079.112455864</v>
+        <v>1301207.976185569</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>1241692.050908714</v>
+        <v>1305453.518991092</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>1247227.63921675</v>
+        <v>1309631.067176986</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>1252683.010553707</v>
+        <v>1313738.209114714</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>1258055.311726713</v>
+        <v>1317772.54061461</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>1263341.705878013</v>
+        <v>1321731.666976564</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>1268539.375463385</v>
+        <v>1325613.205326576</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>1273645.525536716</v>
+        <v>1329414.787270315</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>1278657.38737032</v>
+        <v>1333134.06189494</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>1283572.222440226</v>
+        <v>1336768.699150047</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>1288387.326804989</v>
+        <v>1340316.393637896</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>1293100.035905322</v>
+        <v>1343774.868841771</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>1297707.729810172</v>
+        <v>1347141.881819615</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>1302207.838932585</v>
+        <v>1350415.228387751</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>1306597.850235853</v>
+        <v>1353592.748816562</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>1310875.313946992</v>
+        <v>1356672.334056539</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>1315037.850790474</v>
+        <v>1359651.93250888</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>1319083.159750429</v>
+        <v>1362529.557350044</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>1323009.026364089</v>
+        <v>1365303.294414158</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>1326813.331543198</v>
+        <v>1367971.310631031</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>1330494.060913461</v>
+        <v>1370531.863010783</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>1334049.3146547</v>
+        <v>1372983.308158642</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>1337477.317816639</v>
+        <v>1375324.112295551</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>1340776.431076736</v>
+        <v>1377552.86175172</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/s_SFH.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_SFH.xlsx
@@ -450,7 +450,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>72114.86845643715</v>
+        <v>73096.02312931385</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>72199.16045598732</v>
+        <v>73181.46195878988</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>72284.66366572774</v>
+        <v>73268.12847750637</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>72371.39537238918</v>
+        <v>73356.04020738768</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>72459.37310616416</v>
+        <v>73445.2149171324</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>72548.61464404878</v>
+        <v>73535.67062560047</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>72639.13801322764</v>
+        <v>73627.42560524434</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>72730.96149450299</v>
+        <v>73720.49838558465</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>72824.10362576904</v>
+        <v>73814.90775673189</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>72918.583205531</v>
+        <v>73910.67277295321</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>73014.41929646983</v>
+        <v>74007.81275628577</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>73111.6312290538</v>
+        <v>74106.34730019741</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>73210.23860519631</v>
+        <v>74206.29627329421</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>73310.26130196149</v>
+        <v>74307.67982307663</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>73411.71947531763</v>
+        <v>74410.51837974372</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>73514.63356393902</v>
+        <v>74514.83266004703</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>73619.0242930571</v>
+        <v>74620.64367119395</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>73724.91267836101</v>
+        <v>74727.97271480129</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>73832.32002994865</v>
+        <v>74836.84139090034</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>73941.26795632829</v>
+        <v>74947.27160199262</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>74051.77836847182</v>
+        <v>75059.28555715852</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>74163.87348391996</v>
+        <v>75172.90577621818</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>74277.57583093985</v>
+        <v>75288.15509394582</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>74392.90825273651</v>
+        <v>75405.05666433836</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>74509.89391171731</v>
+        <v>75523.63396493797</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>74628.55629381165</v>
+        <v>75643.91080121048</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>74748.91921284536</v>
+        <v>75765.91131097931</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>74871.00681497087</v>
+        <v>75889.65996891605</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>74994.84358315397</v>
+        <v>76015.18159108805</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>75120.45434171747</v>
+        <v>76142.50133956397</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>75247.86426094257</v>
+        <v>76271.64472707786</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>75377.09886172874</v>
+        <v>76402.63762175226</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>75508.18402031236</v>
+        <v>76535.50625188123</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>75641.14597304541</v>
+        <v>76670.27721077393</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>75776.01132123452</v>
+        <v>76806.97746165948</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>75912.80703604099</v>
+        <v>76945.63434265381</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>76051.56046344271</v>
+        <v>77086.27557178889</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>76192.29932925869</v>
+        <v>77228.92925210574</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>76335.05174423674</v>
+        <v>77373.6238768114</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>76479.84620920545</v>
+        <v>77520.38833450076</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>76626.71162029021</v>
+        <v>77669.25191444384</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>76775.67727419568</v>
+        <v>77820.24431193982</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>76926.77287355356</v>
+        <v>77973.39563373801</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>77080.02853233829</v>
+        <v>78128.73640352656</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>77235.47478134967</v>
+        <v>78286.29756749047</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>77393.14257376469</v>
+        <v>78446.11049993834</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>77553.06329075839</v>
+        <v>78608.20700900002</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>77715.26874719532</v>
+        <v>78772.61934239528</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>77879.79119739142</v>
+        <v>78939.38019327429</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>78046.66334094822</v>
+        <v>79108.52270613122</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>78215.9183286597</v>
+        <v>79280.08048279109</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>78387.58976849251</v>
+        <v>79454.08758847199</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>78561.71173164058</v>
+        <v>79630.57855792143</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>78738.31875865546</v>
+        <v>79809.58840163038</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>78917.44586565232</v>
+        <v>79991.15261212381</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>79099.12855059322</v>
+        <v>80175.30717032919</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>79283.40279964883</v>
+        <v>80362.08855202502</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>79470.30509363866</v>
+        <v>80551.53373436841</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>79659.87241455111</v>
+        <v>80743.68020250415</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>79852.142252145</v>
+        <v>80938.5659562558</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>80047.15261063269</v>
+        <v>81136.22951689978</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>80244.9420154457</v>
+        <v>81336.70993402318</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>80445.54952008517</v>
+        <v>81540.0467924673</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>80649.0147130562</v>
+        <v>81746.2802193563</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>80855.3777248892</v>
+        <v>81955.45089121423</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>81064.67923524774</v>
+        <v>82167.60004116948</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>81276.9604801246</v>
+        <v>82382.76946624875</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>81492.26325912755</v>
+        <v>82601.00153476193</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>81710.62994285533</v>
+        <v>82822.33919377858</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>81932.1034803654</v>
+        <v>83046.82597669694</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>82156.72740673428</v>
+        <v>83274.50601090751</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>82384.54585071225</v>
+        <v>83505.42402555191</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>82615.60354247336</v>
+        <v>83739.62535937775</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>82849.94582146168</v>
+        <v>83977.15596869246</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>83087.61864433586</v>
+        <v>84218.06243541531</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>83328.66859301263</v>
+        <v>84462.39197523048</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>83573.14288281102</v>
+        <v>84710.19244584245</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>83821.08937069842</v>
+        <v>84961.51235533378</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>84072.5565636403</v>
+        <v>85216.40087062858</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>84327.59362705456</v>
+        <v>85474.90782606213</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>84586.25039337242</v>
+        <v>85737.08373205776</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>84848.57737070699</v>
+        <v>86002.97978391394</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>85114.62575163177</v>
+        <v>86272.64787070162</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>85384.44742206988</v>
+        <v>86546.14058427489</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>85658.0949702964</v>
+        <v>86823.51122839564</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>85935.62169605489</v>
+        <v>87104.81382797399</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>86217.08161979038</v>
+        <v>87390.10313842699</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>86502.52949200076</v>
+        <v>87679.43465515724</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>86792.02080270741</v>
+        <v>87972.86462315237</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>87085.61179104814</v>
+        <v>88270.45004670865</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>87383.35945499424</v>
+        <v>88572.24869927985</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>87685.32156119285</v>
+        <v>88878.31913345397</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>87991.55665493745</v>
+        <v>89188.72069105906</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>88302.12407026897</v>
+        <v>89503.51351340191</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>88617.08394020874</v>
+        <v>89822.75855164012</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>88936.49720712603</v>
+        <v>90146.51757729099</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>89260.42563324324</v>
+        <v>90474.85319287924</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>89588.9318112802</v>
+        <v>90807.82884272617</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>89922.0791752403</v>
+        <v>91145.50882388304</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>90259.93201134176</v>
+        <v>91487.95829721038</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>90602.55546909574</v>
+        <v>91835.24329860724</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>90950.01557253519</v>
+        <v>92187.43075039284</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>91302.37923159602</v>
+        <v>92544.58847284222</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>91659.71425365482</v>
+        <v>92906.78519588141</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>92022.08935522556</v>
+        <v>93274.09057094292</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>92389.57417381863</v>
+        <v>93646.57518298624</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>92762.23927996536</v>
+        <v>94024.31056268598</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>93140.15618941172</v>
+        <v>94407.36919879146</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>93523.39737548484</v>
+        <v>94795.82455066148</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>93912.03628163536</v>
+        <v>95189.75106097732</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>94306.14733416057</v>
+        <v>95589.22416863895</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>94705.80595511114</v>
+        <v>95994.32032184734</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>95111.08857538609</v>
+        <v>96405.11699137773</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>95522.07264802061</v>
+        <v>96821.69268404812</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>95938.83666167042</v>
+        <v>97244.12695638706</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>96361.46015429767</v>
+        <v>97672.50042850578</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>96790.02372706313</v>
+        <v>98106.89479817964</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>97224.60905842963</v>
+        <v>98547.39285514297</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>97665.29891848155</v>
+        <v>98994.07849560377</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>98112.17718346625</v>
+        <v>99447.03673698285</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>98565.32885056238</v>
+        <v>99906.35373288294</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>99024.84005288113</v>
+        <v>100372.1167882945</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>99490.79807470665</v>
+        <v>100844.4143750428</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>99963.29136698093</v>
+        <v>101323.336147484</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>100442.4095630407</v>
+        <v>101808.9729584562</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>100928.2434946119</v>
+        <v>102301.4168754909</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>101420.8852080701</v>
+        <v>102800.7611972956</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>101920.4279809724</v>
+        <v>103307.1004705095</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>102426.9663388694</v>
+        <v>103820.5305067452</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>102940.596072405</v>
+        <v>104341.1483999207</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>103461.4142547113</v>
+        <v>104869.052543891</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>103989.5192591084</v>
+        <v>105404.3426503889</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>104525.0107771164</v>
+        <v>105947.1197672813</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>105067.9898367896</v>
+        <v>106497.4862971541</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>105618.5588213815</v>
+        <v>107055.5460162303</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>106176.821488352</v>
+        <v>107621.4040936358</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>106742.882988725</v>
+        <v>108195.1671110206</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>107316.8498868083</v>
+        <v>108776.9430825472</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>107898.8301802864</v>
+        <v>109366.8414752563</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>108488.9333206979</v>
+        <v>109964.9732298231</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>109087.2702343089</v>
+        <v>110571.4507817145</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>109693.953343395</v>
+        <v>111186.3880827609</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>110309.096587945</v>
+        <v>111809.9006231551</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>110932.8154477993</v>
+        <v>112442.1054538918</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>111565.2269652367</v>
+        <v>113083.1212096617</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>112206.4497680249</v>
+        <v>113733.0681322157</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>112856.6040929481</v>
+        <v>114392.0680942127</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>113515.8118098287</v>
+        <v>115060.2446235679</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>114184.1964460585</v>
+        <v>115737.7229283178</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>114861.8832116563</v>
+        <v>116424.629922019</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>115548.9990248692</v>
+        <v>117121.0942496973</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>116245.6725383353</v>
+        <v>117827.2463143671</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>116952.0341658283</v>
+        <v>118543.2183041389</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>117668.2161096003</v>
+        <v>119269.1442199349</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>118394.3523883458</v>
+        <v>120005.1599038335</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>119130.5788658073</v>
+        <v>120751.4030680632</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>119877.0332800423</v>
+        <v>121508.0133246687</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>120633.8552733772</v>
+        <v>122275.1322158721</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>121401.186423069</v>
+        <v>123052.9032451515</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>122179.1702727005</v>
+        <v>123841.4719090638</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>122967.9523643338</v>
+        <v>124640.985729835</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>123767.6802714477</v>
+        <v>125451.5942887463</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>124578.5036326866</v>
+        <v>126273.4492603422</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>125400.5741864491</v>
+        <v>127106.7044474892</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>126234.0458063438</v>
+        <v>127951.5158173144</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>127079.0745375452</v>
+        <v>128808.041538056</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>127935.8186340777</v>
+        <v>129676.4420168542</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>128804.4385970621</v>
+        <v>130556.8799385187</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>129685.0972139572</v>
+        <v>131449.5203053035</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>130577.9595988312</v>
+        <v>132354.5304777268</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>131483.1932336983</v>
+        <v>133272.0802164697</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>132400.9680109586</v>
+        <v>134202.3417253934</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>133331.4562769778</v>
+        <v>135145.4896957122</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>134274.8328768483</v>
+        <v>136101.7013513633</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>135231.2752003711</v>
+        <v>137071.1564956143</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>136200.9632293013</v>
+        <v>138054.0375589517</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>137184.0795859011</v>
+        <v>139050.5296482944</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>138180.8095828457</v>
+        <v>140060.8205975783</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>139191.3412745273</v>
+        <v>141085.1010197589</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>140215.8655098072</v>
+        <v>142123.5643602808</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>141254.5759862653</v>
+        <v>143176.4069520649</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>142307.6693059963</v>
+        <v>144243.8280720643</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>143375.3450330081</v>
+        <v>145326.0299994436</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>144457.8057522759</v>
+        <v>146423.2180754362</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>145555.2571305076</v>
+        <v>147535.6007649362</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>146667.9079786786</v>
+        <v>148663.3897198851</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>147795.9703163975</v>
+        <v>149806.7998445118</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>148939.6594381602</v>
+        <v>150966.0493624889</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>150099.1939815599</v>
+        <v>152141.359886071</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>151274.7959975155</v>
+        <v>153332.9564872776</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>152466.6910225841</v>
+        <v>154541.0677711907</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>153675.1081534311</v>
+        <v>155765.925951437</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>154900.2801235229</v>
+        <v>157007.7669279246</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>156142.4433821177</v>
+        <v>158266.8303669085</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>157401.8381756287</v>
+        <v>159543.3597834604</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>158678.7086314354</v>
+        <v>160837.6026264209</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>159973.3028442215</v>
+        <v>162149.8103659116</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>161285.8729649194</v>
+        <v>163480.2385834897</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>162616.6752923439</v>
+        <v>164829.1470650288</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>163965.970367599</v>
+        <v>166196.7998964099</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>165334.0230713438</v>
+        <v>167583.4655621104</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>166721.1027240053</v>
+        <v>168989.4170467809</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>168127.4831890282</v>
+        <v>170414.9319398994</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>169553.4429792544</v>
+        <v>171860.292543598</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>170999.2653665234</v>
+        <v>173325.785983755</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>172465.2384945918</v>
+        <v>174811.7043244501</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>173951.6554954675</v>
+        <v>176318.344685882</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>175458.8146092582</v>
+        <v>177846.0093658468</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>176987.0193076345</v>
+        <v>179395.0059648812</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>178536.5784210101</v>
+        <v>180965.6475151735</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>180107.8062695437</v>
+        <v>182558.252613347</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>181701.0227980658</v>
+        <v>184173.1455572231</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>183316.5537150396</v>
+        <v>185810.6564866728</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>184954.7306356622</v>
+        <v>187471.1215286644</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>186615.8912292157</v>
+        <v>189154.88294662</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>188300.3793707782</v>
+        <v>190862.2892941901</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>190008.5452974059</v>
+        <v>192593.695573561</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>191740.7457688974</v>
+        <v>194349.4633984062</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>193497.3442332523</v>
+        <v>196129.9611615959</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>195278.7109969389</v>
+        <v>197935.5642077817</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>197085.2234000786</v>
+        <v>199766.655010964</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>198917.2659966659</v>
+        <v>201623.6233571648</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>200775.230739931</v>
+        <v>203506.866532311</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>202659.5171729606</v>
+        <v>205416.7895154498</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>204570.5326246838</v>
+        <v>207353.8051774006</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>206508.6924113375</v>
+        <v>209318.3344849611</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>208474.4200435149</v>
+        <v>211310.8067107736</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>210468.1474389067</v>
+        <v>213331.6596489599</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>212490.3151408372</v>
+        <v>215381.3398366309</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>214541.3725426985</v>
+        <v>217460.3027813747</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>216621.7781183797</v>
+        <v>219569.0131948203</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>218731.9996587861</v>
+        <v>221707.9452323751</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>220872.5145145421</v>
+        <v>223877.5827392297</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>223043.80984496</v>
+        <v>226078.4195027145</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>225246.3828733597</v>
+        <v>228310.9595110925</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>227480.7411488139</v>
+        <v>230575.7172188659</v>
       </c>
     </row>
     <row r="238">
@@ -2338,7 +2338,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>229747.4028143874</v>
+        <v>232873.2178186648</v>
       </c>
     </row>
     <row r="239">
@@ -2346,7 +2346,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>232046.8968819343</v>
+        <v>235203.9975197837</v>
       </c>
     </row>
     <row r="240">
@@ -2354,7 +2354,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>234379.7635135089</v>
+        <v>237568.6038334206</v>
       </c>
     </row>
     <row r="241">
@@ -2362,7 +2362,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>236746.5543094341</v>
+        <v>239967.5958646645</v>
       </c>
     </row>
     <row r="242">
@@ -2370,7 +2370,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>239147.8326030683</v>
+        <v>242401.5446112733</v>
       </c>
     </row>
     <row r="243">
@@ -2378,7 +2378,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>241584.1737622963</v>
+        <v>244871.0332692663</v>
       </c>
     </row>
     <row r="244">
@@ -2386,7 +2386,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>244056.1654977613</v>
+        <v>247376.6575453499</v>
       </c>
     </row>
     <row r="245">
@@ -2394,7 +2394,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>246564.4081778446</v>
+        <v>249919.0259761826</v>
       </c>
     </row>
     <row r="246">
@@ -2402,7 +2402,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>249109.5151503831</v>
+        <v>252498.7602544699</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>251692.1130711067</v>
+        <v>255116.49556187</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>254312.8422387569</v>
+        <v>257772.880908672</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>256972.3569368375</v>
+        <v>260468.5794801959</v>
       </c>
     </row>
     <row r="250">
@@ -2434,7 +2434,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>259671.3257819266</v>
+        <v>263204.268989844</v>
       </c>
     </row>
     <row r="251">
@@ -2442,7 +2442,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>262410.4320784673</v>
+        <v>265980.6420387186</v>
       </c>
     </row>
     <row r="252">
@@ -2450,7 +2450,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>265190.3741799265</v>
+        <v>268798.4064816942</v>
       </c>
     </row>
     <row r="253">
@@ -2458,7 +2458,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>268011.8658561993</v>
+        <v>271658.2857998211</v>
       </c>
     </row>
     <row r="254">
@@ -2466,7 +2466,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>270875.636667111</v>
+        <v>274561.0194789084</v>
       </c>
     </row>
     <row r="255">
@@ -2474,7 +2474,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>273782.4323418406</v>
+        <v>277507.3633941106</v>
       </c>
     </row>
     <row r="256">
@@ -2482,7 +2482,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>276733.0151640754</v>
+        <v>280498.0902003213</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>279728.16436267</v>
+        <v>283533.9897281486</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>282768.6765075623</v>
+        <v>286615.8693852162</v>
       </c>
     </row>
     <row r="259">
@@ -2506,7 +2506,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>285855.3659106622</v>
+        <v>289744.554562508</v>
       </c>
     </row>
     <row r="260">
@@ -2514,7 +2514,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>288989.0650314101</v>
+        <v>292920.8890454428</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>292170.6248866515</v>
+        <v>296145.7354293271</v>
       </c>
     </row>
     <row r="262">
@@ -2530,7 +2530,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>295400.9154644608</v>
+        <v>299419.9755388072</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>298680.8261414907</v>
+        <v>302744.5108508987</v>
       </c>
     </row>
     <row r="264">
@@ -2546,7 +2546,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>302011.2661033995</v>
+        <v>306120.2629211328</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>305393.1647678678</v>
+        <v>309548.1738123285</v>
       </c>
     </row>
     <row r="266">
@@ -2562,7 +2562,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>308827.4722096601</v>
+        <v>313029.2065254378</v>
       </c>
     </row>
     <row r="267">
@@ -2570,7 +2570,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>312315.1595871656</v>
+        <v>316564.3454318889</v>
       </c>
     </row>
     <row r="268">
@@ -2578,7 +2578,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>315857.2195697881</v>
+        <v>320154.596706792</v>
       </c>
     </row>
     <row r="269">
@@ -2586,7 +2586,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>319454.6667655148</v>
+        <v>323800.9887623246</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>323108.538147946</v>
+        <v>327504.5726805711</v>
       </c>
     </row>
     <row r="271">
@@ -2602,7 +2602,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>326819.8934820099</v>
+        <v>331266.4226450304</v>
       </c>
     </row>
     <row r="272">
@@ -2610,7 +2610,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>330589.8157475411</v>
+        <v>335087.6363699567</v>
       </c>
     </row>
     <row r="273">
@@ -2618,7 +2618,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>334419.4115598373</v>
+        <v>338969.3355266378</v>
       </c>
     </row>
     <row r="274">
@@ -2626,7 +2626,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>338309.8115862578</v>
+        <v>342912.6661656626</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>342262.170957864</v>
+        <v>346918.7991341614</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>346277.6696750423</v>
+        <v>350988.9304869476</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>350357.5130059855</v>
+        <v>355124.2818904207</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>354502.931876844</v>
+        <v>359326.1010180255</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>358715.1832522915</v>
+        <v>363595.6619359962</v>
       </c>
     </row>
     <row r="280">
@@ -2674,7 +2674,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>362995.5505051798</v>
+        <v>367934.2654780395</v>
       </c>
     </row>
     <row r="281">
@@ -2682,7 +2682,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>367345.3437738884</v>
+        <v>372343.2396075468</v>
       </c>
     </row>
     <row r="282">
@@ -2690,7 +2690,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>371765.9003059021</v>
+        <v>376823.9397658464</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>376258.5847860774</v>
+        <v>381377.7492049355</v>
       </c>
     </row>
     <row r="284">
@@ -2706,7 +2706,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>380824.7896479817</v>
+        <v>386006.0793030562</v>
       </c>
     </row>
     <row r="285">
@@ -2714,7 +2714,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>385465.9353666182</v>
+        <v>390710.3698614021</v>
       </c>
     </row>
     <row r="286">
@@ -2722,7 +2722,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>390183.4707307695</v>
+        <v>395492.0893801678</v>
       </c>
     </row>
     <row r="287">
@@ -2730,7 +2730,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>394978.8730931147</v>
+        <v>400352.7353120686</v>
       </c>
     </row>
     <row r="288">
@@ -2738,7 +2738,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>399853.6485962035</v>
+        <v>405293.8342913899</v>
       </c>
     </row>
     <row r="289">
@@ -2746,7 +2746,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>404809.3323722868</v>
+        <v>410316.9423365357</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>409847.4887149289</v>
+        <v>415423.6450239755</v>
       </c>
     </row>
     <row r="291">
@@ -2762,7 +2762,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>414969.711220248</v>
+        <v>420615.5576314079</v>
       </c>
     </row>
     <row r="292">
@@ -2770,7 +2770,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>420177.6228955574</v>
+        <v>425894.325247878</v>
       </c>
     </row>
     <row r="293">
@@ -2778,7 +2778,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>425472.8762330988</v>
+        <v>431261.6228485151</v>
       </c>
     </row>
     <row r="294">
@@ -2786,7 +2786,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>430857.1532464945</v>
+        <v>436719.1553314808</v>
       </c>
     </row>
     <row r="295">
@@ -2794,7 +2794,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>436332.1654674619</v>
+        <v>442268.6575146383</v>
       </c>
     </row>
     <row r="296">
@@ -2802,7 +2802,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>441899.6539002715</v>
+        <v>447911.8940893908</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>447561.3889313621</v>
+        <v>453650.6595290677</v>
       </c>
     </row>
     <row r="298">
@@ -2818,7 +2818,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>453319.1701914564</v>
+        <v>459486.7779491633</v>
       </c>
     </row>
     <row r="299">
@@ -2826,7 +2826,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>459174.8263674665</v>
+        <v>465422.1029166838</v>
       </c>
     </row>
     <row r="300">
@@ -2834,7 +2834,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>465130.2149614209</v>
+        <v>471458.517205794</v>
       </c>
     </row>
     <row r="301">
@@ -2842,7 +2842,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>471187.2219935916</v>
+        <v>477597.9324969058</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>477347.7616469524</v>
+        <v>483842.2890162987</v>
       </c>
     </row>
     <row r="303">
@@ -2858,7 +2858,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>480261.5680698871</v>
+        <v>487774.2929643356</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>483229.650429331</v>
+        <v>491776.8316844939</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>486253.0876555885</v>
+        <v>495851.2664641762</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>489332.9727301305</v>
+        <v>499998.9763489693</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>492470.4122557968</v>
+        <v>504221.3576301665</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>495666.5259861783</v>
+        <v>508519.8232805142</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>498922.4463126519</v>
+        <v>512895.8023362161</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>502239.3177075557</v>
+        <v>517350.7392232375</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>505618.2961220079</v>
+        <v>521886.0930259772</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>509060.5483369149</v>
+        <v>526503.3366964207</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>512567.2512657453</v>
+        <v>531203.9562019227</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>516139.5912076827</v>
+        <v>535989.4496098225</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>519778.7630498438</v>
+        <v>540861.3261071655</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>523485.96941729</v>
+        <v>545821.1049538801</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>527262.4197696464</v>
+        <v>550870.3143678373</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>531109.3294432183</v>
+        <v>556010.4903403362</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>535027.9186375854</v>
+        <v>561243.1753806552</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>539019.4113457539</v>
+        <v>566569.9171884374</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>543085.0342270704</v>
+        <v>571992.2672528309</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>547226.015422203</v>
+        <v>577511.7793774307</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>551443.5833096536</v>
+        <v>583130.0081302605</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>555738.9652033858</v>
+        <v>588848.5072181912</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>560113.3859913338</v>
+        <v>594668.8277854056</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>564568.0667147035</v>
+        <v>600592.5166357126</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>569104.2230881718</v>
+        <v>606621.1143787461</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>573723.063961275</v>
+        <v>612756.1535003186</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>578425.7897214775</v>
+        <v>618999.1563574522</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>583213.5906396298</v>
+        <v>625351.6330988744</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>588087.6451587448</v>
+        <v>631815.0795120485</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>593049.1181272612</v>
+        <v>638390.9747981017</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>598099.1589781982</v>
+        <v>645080.7792763155</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>603238.8998558705</v>
+        <v>651885.9320201679</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>608469.4536920873</v>
+        <v>658807.8484272438</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>613791.9122340328</v>
+        <v>665847.9177256674</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>619207.344026305</v>
+        <v>673007.5004200665</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>624716.792349873</v>
+        <v>680287.9256804313</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>630321.2731209943</v>
+        <v>687690.4886775924</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>636021.7727534487</v>
+        <v>695216.4478694279</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>641819.2459877124</v>
+        <v>702867.0222422614</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>647714.6136910174</v>
+        <v>710643.3885123096</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>653708.7606325236</v>
+        <v>718546.6782923995</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>659802.533238137</v>
+        <v>726577.975229563</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>665996.7373297896</v>
+        <v>734738.3121194803</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>672292.1358542857</v>
+        <v>743028.6680041056</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>678689.4466071083</v>
+        <v>751449.9652591795</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>685189.3399568311</v>
+        <v>760003.0666786601</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>691792.4365760596</v>
+        <v>768688.7725634602</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>698499.3051850554</v>
+        <v>777507.8178221664</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>705310.4603144404</v>
+        <v>786460.8690917505</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>712226.3600935818</v>
+        <v>795548.5218865266</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>719247.4040714612</v>
+        <v>804771.29778389</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>726373.9310769903</v>
+        <v>814129.6416555815</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>733606.2171259036</v>
+        <v>823623.9189534332</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>740944.4733814616</v>
+        <v>833254.4130587155</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>748388.8441763041</v>
+        <v>843021.3227043352</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>755479.2297226704</v>
+        <v>852362.3638572985</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>762669.7045901729</v>
+        <v>861832.4920438103</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>769960.1871036231</v>
+        <v>871431.6198921382</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>777350.5247054812</v>
+        <v>881159.569776954</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>784840.4924642462</v>
+        <v>891016.0718316162</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>792429.7916832647</v>
+        <v>901000.7620833649</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>800118.0486167334</v>
+        <v>911113.1807201046</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>807904.8132994665</v>
+        <v>921352.7704972167</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>815789.5584967997</v>
+        <v>931718.8752926186</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>823771.6787807768</v>
+        <v>942210.738818013</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>831850.4897384456</v>
+        <v>952827.5034938963</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>840025.227317808</v>
+        <v>963568.209495564</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>848295.0473165843</v>
+        <v>974431.79397688</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>856659.0250185785</v>
+        <v>985417.0904781366</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>865116.1549820048</v>
+        <v>996522.828523811</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>874620.7990965438</v>
+        <v>1008699.138043775</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>884226.6939770015</v>
+        <v>1021003.344384913</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>893932.530353936</v>
+        <v>1033433.802884619</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>903736.9131566761</v>
+        <v>1045988.759455286</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>913638.3621917597</v>
+        <v>1058666.35127954</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>923635.3130050063</v>
+        <v>1071464.607733333</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>933726.1179279016</v>
+        <v>1084381.451538211</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>943909.0473082837</v>
+        <v>1097414.700143178</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>954182.2909246283</v>
+        <v>1110562.067335803</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>964543.9595825012</v>
+        <v>1123821.165081274</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>975947.2537112542</v>
+        <v>1138542.985265624</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>987443.5499408644</v>
+        <v>1153383.628086779</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>999030.6304740336</v>
+        <v>1168340.267299461</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>1010706.20292008</v>
+        <v>1183409.979067796</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>1022467.902986035</v>
+        <v>1198589.745221021</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>1034313.297340553</v>
+        <v>1213876.456731451</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>1046239.886643833</v>
+        <v>1229266.91740678</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>1058245.108736003</v>
+        <v>1244757.847787914</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>1070326.341975766</v>
+        <v>1260345.889242623</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>1082480.908720378</v>
+        <v>1276027.608244536</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>1091139.979269936</v>
+        <v>1288717.067130226</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>1099841.340880903</v>
+        <v>1301471.059188491</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>1108582.611765734</v>
+        <v>1314286.335366959</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>1117361.3720421</v>
+        <v>1327159.592847288</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>1126175.166526318</v>
+        <v>1340087.478995571</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>1135021.507571991</v>
+        <v>1353066.595393127</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>1143897.87794442</v>
+        <v>1366093.501935182</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>1152801.733721177</v>
+        <v>1379164.720984667</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>1161730.507209167</v>
+        <v>1392276.741568122</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>1170681.609868447</v>
+        <v>1405426.023600562</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>1175758.570484891</v>
+        <v>1413059.561642728</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>1180830.9651652</v>
+        <v>1420692.331092246</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>1185896.579418459</v>
+        <v>1428321.327294747</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>1190953.178335004</v>
+        <v>1435943.517528626</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>1195998.50793277</v>
+        <v>1443555.84308391</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>1201030.296456528</v>
+        <v>1451155.221294306</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>1206046.255626214</v>
+        <v>1458738.547516438</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>1211044.081831187</v>
+        <v>1466302.697050975</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>1216021.457268029</v>
+        <v>1473844.527001139</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>1220976.051020311</v>
+        <v>1481360.878064931</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>1226007.54500635</v>
+        <v>1489357.281271659</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>1231012.01275274</v>
+        <v>1497324.101251754</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>1235987.083882448</v>
+        <v>1505258.10954814</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>1240930.379281508</v>
+        <v>1513156.070933897</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>1245839.511932114</v>
+        <v>1521014.745015662</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>1250712.087699361</v>
+        <v>1528830.887767193</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>1255545.706078138</v>
+        <v>1536601.252997696</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>1260337.960908201</v>
+        <v>1544322.593761247</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>1265086.441067005</v>
+        <v>1551991.66371536</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>1269788.731151533</v>
+        <v>1559605.218438597</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>1274442.412162053</v>
+        <v>1567160.016719069</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>1279045.062202456</v>
+        <v>1574652.82182763</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>1283594.257213623</v>
+        <v>1582080.40279164</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>1288087.57175802</v>
+        <v>1589439.535687247</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>1292522.579875525</v>
+        <v>1596727.004970242</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>1296896.856032217</v>
+        <v>1603939.604867658</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>1301207.976185569</v>
+        <v>1611074.140854343</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>1305453.518991092</v>
+        <v>1618127.431240777</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>1309631.067176986</v>
+        <v>1625096.30890033</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>1313738.209114714</v>
+        <v>1631977.623165963</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>1317772.54061461</v>
+        <v>1638768.241928036</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>1321731.666976564</v>
+        <v>1645465.053966308</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>1325613.205326576</v>
+        <v>1652064.97155045</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>1329414.787270315</v>
+        <v>1658564.933344201</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>1333134.06189494</v>
+        <v>1664961.907648955</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>1336768.699150047</v>
+        <v>1671252.896022578</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>1340316.393637896</v>
+        <v>1677434.937309061</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>1343774.868841771</v>
+        <v>1683505.112113694</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>1347141.881819615</v>
+        <v>1689460.547757119</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>1350415.228387751</v>
+        <v>1695298.42373962</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>1353592.748816562</v>
+        <v>1701015.977744338</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>1356672.334056539</v>
+        <v>1706610.512204781</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>1359651.93250888</v>
+        <v>1712079.401457909</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>1362529.557350044</v>
+        <v>1717420.099499243</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>1365303.294414158</v>
+        <v>1722630.148350836</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>1367971.310631031</v>
+        <v>1727707.187046532</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>1370531.863010783</v>
+        <v>1732648.961231804</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>1372983.308158642</v>
+        <v>1737453.333367469</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>1375324.112295551</v>
+        <v>1742118.293517966</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>1377552.86175172</v>
+        <v>1746641.970695512</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/s_SFH.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_SFH.xlsx
@@ -450,7 +450,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>73096.02312931385</v>
+        <v>72899.79219473852</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>73181.46195878988</v>
+        <v>72985.00165822938</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>73268.12847750637</v>
+        <v>73071.43551515065</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>73356.04020738768</v>
+        <v>73159.11124038798</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>73445.2149171324</v>
+        <v>73248.04655493874</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>73535.67062560047</v>
+        <v>73338.25942929015</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>73627.42560524434</v>
+        <v>73429.76808684101</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>73720.49838558465</v>
+        <v>73522.59100736835</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>73814.90775673189</v>
+        <v>73616.74693053933</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>73910.67277295321</v>
+        <v>73712.25485946877</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>74007.81275628577</v>
+        <v>73809.13406432258</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>74106.34730019741</v>
+        <v>73907.40408596869</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>74206.29627329421</v>
+        <v>74007.08473967464</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>74307.67982307663</v>
+        <v>74108.19611885361</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>74410.51837974372</v>
+        <v>74210.75859885851</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>74514.83266004703</v>
+        <v>74314.79284082544</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>74620.64367119395</v>
+        <v>74420.31979556657</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>74727.97271480129</v>
+        <v>74527.36070751325</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>74836.84139090034</v>
+        <v>74635.93711871</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>74947.27160199262</v>
+        <v>74746.07087285977</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>75059.28555715852</v>
+        <v>74857.78411942118</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>75172.90577621818</v>
+        <v>74971.09931775855</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>75288.15509394582</v>
+        <v>75086.03924134465</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>75405.05666433836</v>
+        <v>75202.62698201802</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>75523.63396493797</v>
+        <v>75320.88595429384</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>75643.91080121048</v>
+        <v>75440.83989973072</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>75765.91131097931</v>
+        <v>75562.51289135253</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>75889.65996891605</v>
+        <v>75685.92933812701</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>76015.18159108805</v>
+        <v>75811.11398950122</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>76142.50133956397</v>
+        <v>75938.09193999467</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>76271.64472707786</v>
+        <v>76066.88863385082</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>76402.63762175226</v>
+        <v>76197.52986974757</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>76535.50625188123</v>
+        <v>76330.04180556745</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>76670.27721077393</v>
+        <v>76464.45096322824</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>76806.97746165948</v>
+        <v>76600.78423357451</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>76945.63434265381</v>
+        <v>76739.06888133124</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>77086.27557178889</v>
+        <v>76879.33255011968</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>77228.92925210574</v>
+        <v>77021.60326753634</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>77373.6238768114</v>
+        <v>77165.90945029649</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>77520.38833450076</v>
+        <v>77312.27990944171</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>77669.25191444384</v>
+        <v>77460.74385561312</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>77820.24431193982</v>
+        <v>77611.33090439098</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>77973.39563373801</v>
+        <v>77764.07108170111</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>78128.73640352656</v>
+        <v>77918.99482928892</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>78286.29756749047</v>
+        <v>78076.13301026236</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>78446.11049993834</v>
+        <v>78235.51691470362</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>78608.20700900002</v>
+        <v>78397.1782653517</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>78772.61934239528</v>
+        <v>78561.1492233553</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>78939.38019327429</v>
+        <v>78727.46239409772</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>79108.52270613122</v>
+        <v>78896.15083309461</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>79280.08048279109</v>
+        <v>79067.24805196485</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>79454.08758847199</v>
+        <v>79240.7880244761</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>79630.57855792143</v>
+        <v>79416.80519266524</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>79809.58840163038</v>
+        <v>79595.33447303539</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>79991.15261212381</v>
+        <v>79776.4112628295</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>80175.30717032919</v>
+        <v>79960.07144638202</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>80362.08855202502</v>
+        <v>80146.35140154979</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>80551.53373436841</v>
+        <v>80335.28800622246</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>80743.68020250415</v>
+        <v>80526.91864491357</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>80938.5659562558</v>
+        <v>80721.28121543364</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>81136.22951689978</v>
+        <v>80918.41413564637</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>81336.70993402318</v>
+        <v>81118.35635030769</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>81540.0467924673</v>
+        <v>81321.14733799086</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>81746.2802193563</v>
+        <v>81526.82711809626</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>81955.45089121423</v>
+        <v>81735.43625794923</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>82167.60004116948</v>
+        <v>81947.01587998515</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>82382.76946624875</v>
+        <v>82161.60766902391</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>82601.00153476193</v>
+        <v>82379.25387963506</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>82822.33919377858</v>
+        <v>82599.99734359395</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>83046.82597669694</v>
+        <v>82823.88147743062</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>83274.50601090751</v>
+        <v>83050.95029007288</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>83505.42402555191</v>
+        <v>83281.24839058399</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>83739.62535937775</v>
+        <v>83514.82099599688</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>83977.15596869246</v>
+        <v>83751.71393924631</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>84218.06243541531</v>
+        <v>83991.97367719939</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>84462.39197523048</v>
+        <v>84235.64729878692</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>84710.19244584245</v>
+        <v>84482.78253323617</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>84961.51235533378</v>
+        <v>84733.42775840672</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>85216.40087062858</v>
+        <v>84987.63200923098</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>85474.90782606213</v>
+        <v>85245.44498626063</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>85737.08373205776</v>
+        <v>85506.91706432069</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>86002.97978391394</v>
+        <v>85772.09930127251</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>86272.64787070162</v>
+        <v>86041.04344688766</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>86546.14058427489</v>
+        <v>86313.80195183391</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>86823.51122839564</v>
+        <v>86590.42797677583</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>87104.81382797399</v>
+        <v>86870.97540159021</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>87390.10313842699</v>
+        <v>87155.49883469965</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>87679.43465515724</v>
+        <v>87444.05362252594</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>87972.86462315237</v>
+        <v>87736.69585906343</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>88270.45004670865</v>
+        <v>88033.48239557655</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>88572.24869927985</v>
+        <v>88334.47085042277</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>88878.31913345397</v>
+        <v>88639.71961900176</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>89188.72069105906</v>
+        <v>88949.28788383471</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>89503.51351340191</v>
+        <v>89263.23562477533</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>89822.75855164012</v>
+        <v>89581.62362935387</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>90146.51757729099</v>
+        <v>89904.51350325803</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>90474.85319287924</v>
+        <v>90231.96768095203</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>90807.82884272617</v>
+        <v>90564.04943643698</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>91145.50882388304</v>
+        <v>90900.82289415451</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>91487.95829721038</v>
+        <v>91242.35304003664</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>91835.24329860724</v>
+        <v>91588.70573270493</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>92187.43075039284</v>
+        <v>91939.9477148213</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>92544.58847284222</v>
+        <v>92296.14662459299</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>92906.78519588141</v>
+        <v>92657.37100743612</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>93274.09057094292</v>
+        <v>93023.69032779946</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>93646.57518298624</v>
+        <v>93395.17498115271</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>94024.31056268598</v>
+        <v>93771.89630614186</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>94407.36919879146</v>
+        <v>94153.92659691554</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>94795.82455066148</v>
+        <v>94541.33911562618</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>95189.75106097732</v>
+        <v>94934.20810510893</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>95589.22416863895</v>
+        <v>95332.60880174331</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>95994.32032184734</v>
+        <v>95736.6174485001</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>96405.11699137773</v>
+        <v>96146.3113081794</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>96821.69268404812</v>
+        <v>96561.76867684261</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>97244.12695638706</v>
+        <v>96983.06889744372</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>97672.50042850578</v>
+        <v>97410.2923736642</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>98106.89479817964</v>
+        <v>97843.52058395636</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>98547.39285514297</v>
+        <v>98282.8360958003</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>98994.07849560377</v>
+        <v>98728.32258017935</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>99447.03673698285</v>
+        <v>99180.06482627954</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>99906.35373288294</v>
+        <v>99638.14875641886</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>100372.1167882945</v>
+        <v>100102.6614412118</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>100844.4143750428</v>
+        <v>100573.6911149756</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>101323.336147484</v>
+        <v>101051.3271913834</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>101808.9729584562</v>
+        <v>101535.6602793731</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>102301.4168754909</v>
+        <v>102026.7821993151</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>102800.7611972956</v>
+        <v>102524.7859994505</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>103307.1004705095</v>
+        <v>103029.7659726021</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>103820.5305067452</v>
+        <v>103541.8176731701</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>104341.1483999207</v>
+        <v>104061.0379344176</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>104869.052543891</v>
+        <v>104587.5248860551</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>105404.3426503889</v>
+        <v>105121.3779721328</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>105947.1197672813</v>
+        <v>105662.6979692483</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>106497.4862971541</v>
+        <v>106211.5870050812</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>107055.5460162303</v>
+        <v>106768.1485772605</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>107621.4040936358</v>
+        <v>107332.487572579</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>108195.1671110206</v>
+        <v>107904.7102865615</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>108776.9430825472</v>
+        <v>108484.9244433994</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>109366.8414752563</v>
+        <v>109073.2392162623</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>109964.9732298231</v>
+        <v>109669.7652479981</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>110571.4507817145</v>
+        <v>110274.6146722334</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>111186.3880827609</v>
+        <v>110887.9011348878</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>111809.9006231551</v>
+        <v>111509.7398161131</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>112442.1054538918</v>
+        <v>112140.2474526733</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>113083.1212096617</v>
+        <v>112779.5423607767</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>113733.0681322157</v>
+        <v>113427.7444593775</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>114392.0680942127</v>
+        <v>114084.9752939598</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>115060.2446235679</v>
+        <v>114751.35806082</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>115737.7229283178</v>
+        <v>115427.017631866</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>116424.629922019</v>
+        <v>116112.0805799465</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>117121.0942496973</v>
+        <v>116806.6752047317</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>117827.2463143671</v>
+        <v>117510.9315591607</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>118543.2183041389</v>
+        <v>118224.9814764768</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>119269.1442199349</v>
+        <v>118948.958597868</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>120005.1599038335</v>
+        <v>119682.998400736</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>120751.4030680632</v>
+        <v>120427.238227612</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>121508.0133246687</v>
+        <v>121181.8173157435</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>122275.1322158721</v>
+        <v>121946.8768273732</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>123052.9032451515</v>
+        <v>122722.559880735</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>123841.4719090638</v>
+        <v>123509.0115817911</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>124640.985729835</v>
+        <v>124306.3790567348</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>125451.5942887463</v>
+        <v>125114.8114852866</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>126273.4492603422</v>
+        <v>125934.4601348111</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>127106.7044474892</v>
+        <v>126765.4783952812</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>127951.5158173144</v>
+        <v>127608.0218151203</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>128808.041538056</v>
+        <v>128462.2481379538</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>129676.4420168542</v>
+        <v>129328.3173402989</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>130556.8799385187</v>
+        <v>130206.3916702274</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>131449.5203053035</v>
+        <v>131096.6356870343</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>132354.5304777268</v>
+        <v>131999.2163019477</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>133272.0802164697</v>
+        <v>132914.3028199155</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>134202.3417253934</v>
+        <v>133842.0669825064</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>135145.4896957122</v>
+        <v>134782.6830119653</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>136101.7013513633</v>
+        <v>135736.3276564603</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>137071.1564956143</v>
+        <v>136703.1802365657</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>138054.0375589517</v>
+        <v>137683.4226930217</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>139050.5296482944</v>
+        <v>138677.2396358157</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>140060.8205975783</v>
+        <v>139684.8183946318</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>141085.1010197589</v>
+        <v>140706.3490707126</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>142123.5643602808</v>
+        <v>141742.0245901861</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>143176.4069520649</v>
+        <v>142792.040758905</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>144243.8280720643</v>
+        <v>143856.5963188507</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>145326.0299994436</v>
+        <v>144935.8930061565</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>146423.2180754362</v>
+        <v>146030.1356108041</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>147535.6007649362</v>
+        <v>147139.5320380505</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>148663.3897198851</v>
+        <v>148264.2933716438</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>149806.7998445118</v>
+        <v>149404.6339388889</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>150966.0493624889</v>
+        <v>150560.7713776232</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>152141.359886071</v>
+        <v>151732.9267051688</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>153332.9564872776</v>
+        <v>152921.3243893252</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>154541.0677711907</v>
+        <v>154126.1924214693</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>155765.925951437</v>
+        <v>155347.7623918359</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>157007.7669279246</v>
+        <v>156586.2695670443</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>158266.8303669085</v>
+        <v>157841.9529699503</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>159543.3597834604</v>
+        <v>159115.0554618941</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>160837.6026264209</v>
+        <v>160405.8238274239</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>162149.8103659116</v>
+        <v>161714.5088615736</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>163480.2385834897</v>
+        <v>163041.3654597756</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>164829.1470650288</v>
+        <v>164386.6527104919</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>166196.7998964099</v>
+        <v>165750.6339906477</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>167583.4655621104</v>
+        <v>167133.5770639571</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>168989.4170467809</v>
+        <v>168535.7541822258</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>170414.9319398994</v>
+        <v>169957.4421897251</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>171860.292543598</v>
+        <v>171398.9226307293</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>173325.785983755</v>
+        <v>172860.4818603087</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>174811.7043244501</v>
+        <v>174342.4111584785</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>176318.344685882</v>
+        <v>175845.0068477991</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>177846.0093658468</v>
+        <v>177368.5704145291</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>179395.0059648812</v>
+        <v>178913.4086334319</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>180965.6475151735</v>
+        <v>180479.8336963409</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>182558.252613347</v>
+        <v>182068.1633445863</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>184173.1455572231</v>
+        <v>183678.7210053917</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>185810.6564866728</v>
+        <v>185311.8359323462</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>187471.1215286644</v>
+        <v>186967.843350064</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>189154.88294662</v>
+        <v>188647.0846031391</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>190862.2892941901</v>
+        <v>190349.9073095077</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>192593.695573561</v>
+        <v>192076.6655183301</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>194349.4633984062</v>
+        <v>193827.7198725045</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>196129.9611615959</v>
+        <v>195603.4377759272</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>197935.5642077817</v>
+        <v>197404.1935656131</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>199766.655010964</v>
+        <v>199230.368688787</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>201623.6233571648</v>
+        <v>201082.351885065</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>203506.866532311</v>
+        <v>202960.539373835</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>205416.7895154498</v>
+        <v>204865.335046952</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>207353.8051774006</v>
+        <v>206797.1506668572</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>209318.3344849611</v>
+        <v>208756.4060702364</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>211310.8067107736</v>
+        <v>210743.5293773219</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>213331.6596489599</v>
+        <v>212758.9572069492</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>215381.3398366309</v>
+        <v>214803.1348974722</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>217460.3027813747</v>
+        <v>216876.5167336395</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>219569.0131948203</v>
+        <v>218979.5661795322</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>221707.9452323751</v>
+        <v>221112.7561176572</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>223877.5827392297</v>
+        <v>223276.5690942922</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>226078.4195027145</v>
+        <v>225471.4975711636</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>228310.9595110925</v>
+        <v>227698.0441835459</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>230575.7172188659</v>
+        <v>229956.7220048555</v>
       </c>
     </row>
     <row r="238">
@@ -2338,7 +2338,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>232873.2178186648</v>
+        <v>232248.0548178093</v>
       </c>
     </row>
     <row r="239">
@@ -2346,7 +2346,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>235203.9975197837</v>
+        <v>234572.5773922138</v>
       </c>
     </row>
     <row r="240">
@@ -2354,7 +2354,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>237568.6038334206</v>
+        <v>236930.8357694382</v>
       </c>
     </row>
     <row r="241">
@@ -2362,7 +2362,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>239967.5958646645</v>
+        <v>239323.3875536184</v>
       </c>
     </row>
     <row r="242">
@@ -2370,7 +2370,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>242401.5446112733</v>
+        <v>241750.8022096323</v>
       </c>
     </row>
     <row r="243">
@@ -2378,7 +2378,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>244871.0332692663</v>
+        <v>244213.6613678723</v>
       </c>
     </row>
     <row r="244">
@@ -2386,7 +2386,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>247376.6575453499</v>
+        <v>246712.5591358322</v>
       </c>
     </row>
     <row r="245">
@@ -2394,7 +2394,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>249919.0259761826</v>
+        <v>249248.102416515</v>
       </c>
     </row>
     <row r="246">
@@ -2402,7 +2402,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>252498.7602544699</v>
+        <v>251820.9112336526</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>255116.49556187</v>
+        <v>254431.6190637174</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>257772.880908672</v>
+        <v>257080.873174689</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>260468.5794801959</v>
+        <v>259769.3349715242</v>
       </c>
     </row>
     <row r="250">
@@ -2434,7 +2434,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>263204.268989844</v>
+        <v>262497.6803482606</v>
       </c>
     </row>
     <row r="251">
@@ -2442,7 +2442,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>265980.6420387186</v>
+        <v>265266.6000466684</v>
       </c>
     </row>
     <row r="252">
@@ -2450,7 +2450,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>268798.4064816942</v>
+        <v>268076.8000213407</v>
       </c>
     </row>
     <row r="253">
@@ -2458,7 +2458,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>271658.2857998211</v>
+        <v>270929.0018110967</v>
       </c>
     </row>
     <row r="254">
@@ -2466,7 +2466,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>274561.0194789084</v>
+        <v>273823.9429165489</v>
       </c>
     </row>
     <row r="255">
@@ -2474,7 +2474,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>277507.3633941106</v>
+        <v>276762.3771836566</v>
       </c>
     </row>
     <row r="256">
@@ -2482,7 +2482,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>280498.0902003213</v>
+        <v>279745.0751930721</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>283533.9897281486</v>
+        <v>282772.8246550529</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>286615.8693852162</v>
+        <v>285846.4308096854</v>
       </c>
     </row>
     <row r="259">
@@ -2506,7 +2506,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>289744.554562508</v>
+        <v>288966.7168321388</v>
       </c>
     </row>
     <row r="260">
@@ -2514,7 +2514,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>292920.8890454428</v>
+        <v>292134.5242426363</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>296145.7354293271</v>
+        <v>295350.713320792</v>
       </c>
     </row>
     <row r="262">
@@ -2530,7 +2530,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>299419.9755388072</v>
+        <v>298616.1635239379</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>302744.5108508987</v>
+        <v>301931.773909017</v>
       </c>
     </row>
     <row r="264">
@@ -2546,7 +2546,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>306120.2629211328</v>
+        <v>305298.4635575862</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>309548.1738123285</v>
+        <v>308717.1720034364</v>
       </c>
     </row>
     <row r="266">
@@ -2562,7 +2562,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>313029.2065254378</v>
+        <v>312188.8596622823</v>
       </c>
     </row>
     <row r="267">
@@ -2570,7 +2570,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>316564.3454318889</v>
+        <v>315714.5082629442</v>
       </c>
     </row>
     <row r="268">
@@ -2578,7 +2578,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>320154.596706792</v>
+        <v>319295.1212793912</v>
       </c>
     </row>
     <row r="269">
@@ -2586,7 +2586,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>323800.9887623246</v>
+        <v>322931.7243629626</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>327504.5726805711</v>
+        <v>326625.3657740462</v>
       </c>
     </row>
     <row r="271">
@@ -2602,7 +2602,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>331266.4226450304</v>
+        <v>330377.1168124264</v>
       </c>
     </row>
     <row r="272">
@@ -2610,7 +2610,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>335087.6363699567</v>
+        <v>334188.0722454736</v>
       </c>
     </row>
     <row r="273">
@@ -2618,7 +2618,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>338969.3355266378</v>
+        <v>338059.3507332777</v>
       </c>
     </row>
     <row r="274">
@@ -2626,7 +2626,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>342912.6661656626</v>
+        <v>341992.0952497816</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>346918.7991341614</v>
+        <v>345987.473498902</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>350988.9304869476</v>
+        <v>350046.6783245667</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>355124.2818904207</v>
+        <v>354170.9281135337</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>359326.1010180255</v>
+        <v>358361.4671897892</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>363595.6619359962</v>
+        <v>362619.5661992553</v>
       </c>
     </row>
     <row r="280">
@@ -2674,7 +2674,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>367934.2654780395</v>
+        <v>366946.5224834676</v>
       </c>
     </row>
     <row r="281">
@@ -2682,7 +2682,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>372343.2396075468</v>
+        <v>371343.6604408151</v>
       </c>
     </row>
     <row r="282">
@@ -2690,7 +2690,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>376823.9397658464</v>
+        <v>375812.3318738575</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>381377.7492049355</v>
+        <v>380353.9163211639</v>
       </c>
     </row>
     <row r="284">
@@ -2706,7 +2706,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>386006.0793030562</v>
+        <v>384969.8213720414</v>
       </c>
     </row>
     <row r="285">
@@ -2714,7 +2714,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>390710.3698614021</v>
+        <v>389661.4829624454</v>
       </c>
     </row>
     <row r="286">
@@ -2722,7 +2722,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>395492.0893801678</v>
+        <v>394430.3656502881</v>
       </c>
     </row>
     <row r="287">
@@ -2730,7 +2730,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>400352.7353120686</v>
+        <v>399277.9628682779</v>
       </c>
     </row>
     <row r="288">
@@ -2738,7 +2738,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>405293.8342913899</v>
+        <v>404205.7971523526</v>
       </c>
     </row>
     <row r="289">
@@ -2746,7 +2746,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>410316.9423365357</v>
+        <v>409215.4203436859</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>415423.6450239755</v>
+        <v>414308.4137621662</v>
       </c>
     </row>
     <row r="291">
@@ -2762,7 +2762,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>420615.5576314079</v>
+        <v>419486.3883491759</v>
       </c>
     </row>
     <row r="292">
@@ -2770,7 +2770,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>425894.325247878</v>
+        <v>424750.9847774139</v>
       </c>
     </row>
     <row r="293">
@@ -2778,7 +2778,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>431261.6228485151</v>
+        <v>430103.8735254318</v>
       </c>
     </row>
     <row r="294">
@@ -2786,7 +2786,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>436719.1553314808</v>
+        <v>435546.7549144836</v>
       </c>
     </row>
     <row r="295">
@@ -2794,7 +2794,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>442268.6575146383</v>
+        <v>441081.359105203</v>
       </c>
     </row>
     <row r="296">
@@ -2802,7 +2802,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>447911.8940893908</v>
+        <v>446709.446051567</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>453650.6595290677</v>
+        <v>452432.8054095265</v>
       </c>
     </row>
     <row r="298">
@@ -2818,7 +2818,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>459486.7779491633</v>
+        <v>458253.2563976219</v>
       </c>
     </row>
     <row r="299">
@@ -2826,7 +2826,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>465422.1029166838</v>
+        <v>464172.6476068404</v>
       </c>
     </row>
     <row r="300">
@@ -2834,7 +2834,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>471458.517205794</v>
+        <v>470192.8567569194</v>
       </c>
     </row>
     <row r="301">
@@ -2842,7 +2842,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>477597.9324969058</v>
+        <v>476315.7903962429</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>483842.2890162987</v>
+        <v>482543.3835424295</v>
       </c>
     </row>
     <row r="303">
@@ -2858,7 +2858,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>487774.2929643356</v>
+        <v>486662.3058521276</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>491776.8316844939</v>
+        <v>490854.7056231841</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>495851.2664641762</v>
+        <v>495121.9945064331</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>499998.9763489693</v>
+        <v>499465.6025727248</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>504221.3576301665</v>
+        <v>503886.9777863179</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>508519.8232805142</v>
+        <v>508387.5854245375</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>512895.8023362161</v>
+        <v>512968.9074416516</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>517350.7392232375</v>
+        <v>517632.4417749274</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>521886.0930259772</v>
+        <v>522379.7015908587</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>526503.3366964207</v>
+        <v>527212.2144695965</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>531203.9562019227</v>
+        <v>532131.5215256568</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>535989.4496098225</v>
+        <v>537139.1764630313</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>540861.3261071655</v>
+        <v>542236.744562906</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>545821.1049538801</v>
+        <v>547425.801602256</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>550870.3143678373</v>
+        <v>552707.9327016895</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>556010.4903403362</v>
+        <v>558084.7311010066</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>561243.1753806552</v>
+        <v>563557.7968610579</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>566569.9171884374</v>
+        <v>569128.7354906154</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>571992.2672528309</v>
+        <v>574799.1564971183</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>577511.7793774307</v>
+        <v>580570.6718602995</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>583130.0081302605</v>
+        <v>586444.8944278827</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>588848.5072181912</v>
+        <v>592423.4362327168</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>594668.8277854056</v>
+        <v>598507.9067309257</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>600592.5166357126</v>
+        <v>604699.9109608544</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>606621.1143787461</v>
+        <v>611001.0476228329</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>612756.1535003186</v>
+        <v>617412.9070800241</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>618999.1563574522</v>
+        <v>623937.0692808779</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>625351.6330988744</v>
+        <v>630575.1016039946</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>631815.0795120485</v>
+        <v>637328.5566264887</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>638390.9747981017</v>
+        <v>644198.9698172469</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>645080.7792763155</v>
+        <v>651187.8571567931</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>651885.9320201679</v>
+        <v>658296.7126858016</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>658807.8484272438</v>
+        <v>665527.0059846418</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>665847.9177256674</v>
+        <v>672880.1795866918</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>673007.5004200665</v>
+        <v>680357.6463285177</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>680287.9256804313</v>
+        <v>687960.7866403906</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>687690.4886775924</v>
+        <v>695690.9457809832</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>695216.4478694279</v>
+        <v>703549.4310204877</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>702867.0222422614</v>
+        <v>711537.5087767671</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>710643.3885123096</v>
+        <v>719656.4017095522</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>718546.6782923995</v>
+        <v>727907.2857780884</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>726577.975229563</v>
+        <v>736291.2872680207</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>734738.3121194803</v>
+        <v>744809.4797936988</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>743028.6680041056</v>
+        <v>753462.8812824462</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>751449.9652591795</v>
+        <v>762252.4509477376</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>760003.0666786601</v>
+        <v>771179.0862585554</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>768688.7725634602</v>
+        <v>780243.6199125721</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>777507.8178221664</v>
+        <v>789446.8168211121</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>786460.8690917505</v>
+        <v>798789.3711141761</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>795548.5218865266</v>
+        <v>808271.9031740892</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>804771.29778389</v>
+        <v>817894.9567066064</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>814129.6416555815</v>
+        <v>827658.9958585399</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>823623.9189534332</v>
+        <v>837564.4023911913</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>833254.4130587155</v>
+        <v>847611.4729190404</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>843021.3227043352</v>
+        <v>857800.4162232813</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>852362.3638572985</v>
+        <v>867712.100224885</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>861832.4920438103</v>
+        <v>877760.2379349531</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>871431.6198921382</v>
+        <v>887944.7463185127</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>881159.569776954</v>
+        <v>898265.4475298215</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>891016.0718316162</v>
+        <v>908722.0668096342</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>901000.7620833649</v>
+        <v>919314.2305110543</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>911113.1807201046</v>
+        <v>930041.4642631024</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>921352.7704972167</v>
+        <v>940903.1912808961</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>931718.8752926186</v>
+        <v>951898.7308310939</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>942210.738818013</v>
+        <v>963027.2968609731</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>952827.5034938963</v>
+        <v>974287.9967991239</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>963568.209495564</v>
+        <v>985679.8305353896</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>974431.79397688</v>
+        <v>997201.6895871932</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>985417.0904781366</v>
+        <v>1008852.356458928</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>996522.828523811</v>
+        <v>1020630.504200544</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>1008699.138043775</v>
+        <v>1033297.082918893</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>1021003.344384913</v>
+        <v>1046096.419447244</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>1033433.802884619</v>
+        <v>1059026.808458197</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>1045988.759455286</v>
+        <v>1072086.430854365</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>1058666.35127954</v>
+        <v>1085273.354458563</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>1071464.607733333</v>
+        <v>1098585.53493929</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>1084381.451538211</v>
+        <v>1112020.816972865</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>1097414.700143178</v>
+        <v>1125576.935642715</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>1110562.067335803</v>
+        <v>1139251.518075464</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>1123821.165081274</v>
+        <v>1153042.085312532</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>1138542.985265624</v>
+        <v>1167137.953127789</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>1153383.628086779</v>
+        <v>1181346.263019348</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>1168340.267299461</v>
+        <v>1195664.210617076</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>1183409.979067796</v>
+        <v>1210088.894492199</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>1198589.745221021</v>
+        <v>1224617.319202283</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>1213876.456731451</v>
+        <v>1239246.398548131</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>1229266.91740678</v>
+        <v>1253972.959035008</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>1244757.847787914</v>
+        <v>1268793.743529803</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>1260345.889242623</v>
+        <v>1283705.415104893</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>1276027.608244536</v>
+        <v>1298704.561058728</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>1288717.067130226</v>
+        <v>1311718.00104022</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>1301471.059188491</v>
+        <v>1324797.060292222</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>1314286.335366959</v>
+        <v>1337938.380878927</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>1327159.592847288</v>
+        <v>1351138.548325062</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>1340087.478995571</v>
+        <v>1364394.095627357</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>1353066.595393127</v>
+        <v>1377701.507351361</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>1366093.501935182</v>
+        <v>1391057.22380136</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>1379164.720984667</v>
+        <v>1404457.645250884</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>1392276.741568122</v>
+        <v>1417899.136221178</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>1405426.023600562</v>
+        <v>1431378.029794856</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>1413059.561642728</v>
+        <v>1436134.208775625</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>1420692.331092246</v>
+        <v>1440871.655013891</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>1428321.327294747</v>
+        <v>1445587.57583396</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>1435943.517528626</v>
+        <v>1450279.13941652</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>1443555.84308391</v>
+        <v>1454943.475796236</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>1451155.221294306</v>
+        <v>1459577.677823953</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>1458738.547516438</v>
+        <v>1464178.802092018</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>1466302.697050975</v>
+        <v>1468743.869822118</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>1473844.527001139</v>
+        <v>1473269.867716051</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>1481360.878064931</v>
+        <v>1477753.748770942</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>1489357.281271659</v>
+        <v>1482843.064343716</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>1497324.101251754</v>
+        <v>1487886.957311497</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>1505258.10954814</v>
+        <v>1492882.245776167</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>1513156.070933897</v>
+        <v>1497825.72116376</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>1521014.745015662</v>
+        <v>1502714.149134398</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>1528830.887767193</v>
+        <v>1507544.270487334</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>1536601.252997696</v>
+        <v>1512312.802072376</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>1544322.593761247</v>
+        <v>1517016.437720837</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>1551991.66371536</v>
+        <v>1521651.849211157</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>1559605.218438597</v>
+        <v>1526215.687286359</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>1567160.016719069</v>
+        <v>1530704.582742686</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>1574652.82182763</v>
+        <v>1535115.14761088</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>1582080.40279164</v>
+        <v>1539443.976453813</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>1589439.535687247</v>
+        <v>1543687.647806406</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>1596727.004970242</v>
+        <v>1547842.725785954</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>1603939.604867658</v>
+        <v>1551905.76190324</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>1611074.140854343</v>
+        <v>1555873.297106853</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>1618127.431240777</v>
+        <v>1559741.86409521</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>1625096.30890033</v>
+        <v>1563507.989932658</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>1631977.623165963</v>
+        <v>1567168.199007709</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>1638768.241928036</v>
+        <v>1570719.016372971</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>1645465.053966308</v>
+        <v>1574156.97150753</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>1652064.97155045</v>
+        <v>1577478.602543402</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>1658564.933344201</v>
+        <v>1580680.46099815</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>1664961.907648955</v>
+        <v>1583759.117055827</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>1671252.896022578</v>
+        <v>1586711.165437885</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>1677434.937309061</v>
+        <v>1589533.231904687</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>1683505.112113694</v>
+        <v>1592221.980426539</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>1689460.547757119</v>
+        <v>1594774.121060833</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>1695298.42373962</v>
+        <v>1597186.418568704</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>1701015.977744338</v>
+        <v>1599455.701800722</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>1706610.512204781</v>
+        <v>1601578.873876313</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>1712079.401457909</v>
+        <v>1603552.923175922</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>1717420.099499243</v>
+        <v>1605374.935158305</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>1722630.148350836</v>
+        <v>1607042.105007762</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>1727707.187046532</v>
+        <v>1608551.75110757</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>1732648.961231804</v>
+        <v>1609901.329326421</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>1737453.333367469</v>
+        <v>1611088.44809419</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>1742118.293517966</v>
+        <v>1612110.884232074</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>1746641.970695512</v>
+        <v>1612966.599490025</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/s_SFH.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_SFH.xlsx
@@ -450,7 +450,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>72899.79219473852</v>
+        <v>72114.86845643715</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>72985.00165822938</v>
+        <v>72199.16045598732</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>73071.43551515065</v>
+        <v>72284.66366572774</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>73159.11124038798</v>
+        <v>72371.39537238918</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>73248.04655493874</v>
+        <v>72459.37310616416</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>73338.25942929015</v>
+        <v>72548.61464404878</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>73429.76808684101</v>
+        <v>72639.13801322764</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>73522.59100736835</v>
+        <v>72730.96149450299</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>73616.74693053933</v>
+        <v>72824.10362576904</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>73712.25485946877</v>
+        <v>72918.583205531</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>73809.13406432258</v>
+        <v>73014.41929646983</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>73907.40408596869</v>
+        <v>73111.6312290538</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>74007.08473967464</v>
+        <v>73210.23860519631</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>74108.19611885361</v>
+        <v>73310.26130196149</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>74210.75859885851</v>
+        <v>73411.71947531763</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>74314.79284082544</v>
+        <v>73514.63356393902</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>74420.31979556657</v>
+        <v>73619.0242930571</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>74527.36070751325</v>
+        <v>73724.91267836101</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>74635.93711871</v>
+        <v>73832.32002994865</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>74746.07087285977</v>
+        <v>73941.26795632829</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>74857.78411942118</v>
+        <v>74051.77836847182</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>74971.09931775855</v>
+        <v>74163.87348391996</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>75086.03924134465</v>
+        <v>74277.57583093985</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>75202.62698201802</v>
+        <v>74392.90825273651</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>75320.88595429384</v>
+        <v>74509.89391171731</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>75440.83989973072</v>
+        <v>74628.55629381165</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>75562.51289135253</v>
+        <v>74748.91921284536</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>75685.92933812701</v>
+        <v>74871.00681497087</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>75811.11398950122</v>
+        <v>74994.84358315397</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>75938.09193999467</v>
+        <v>75120.45434171747</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>76066.88863385082</v>
+        <v>75247.86426094257</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>76197.52986974757</v>
+        <v>75377.09886172874</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>76330.04180556745</v>
+        <v>75508.18402031236</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>76464.45096322824</v>
+        <v>75641.14597304541</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>76600.78423357451</v>
+        <v>75776.01132123452</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>76739.06888133124</v>
+        <v>75912.80703604099</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>76879.33255011968</v>
+        <v>76051.56046344271</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>77021.60326753634</v>
+        <v>76192.29932925869</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>77165.90945029649</v>
+        <v>76335.05174423674</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>77312.27990944171</v>
+        <v>76479.84620920545</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>77460.74385561312</v>
+        <v>76626.71162029021</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>77611.33090439098</v>
+        <v>76775.67727419568</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>77764.07108170111</v>
+        <v>76926.77287355356</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>77918.99482928892</v>
+        <v>77080.02853233829</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>78076.13301026236</v>
+        <v>77235.47478134967</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>78235.51691470362</v>
+        <v>77393.14257376469</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>78397.1782653517</v>
+        <v>77553.06329075839</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>78561.1492233553</v>
+        <v>77715.26874719532</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>78727.46239409772</v>
+        <v>77879.79119739142</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>78896.15083309461</v>
+        <v>78046.66334094822</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>79067.24805196485</v>
+        <v>78215.9183286597</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>79240.7880244761</v>
+        <v>78387.58976849251</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>79416.80519266524</v>
+        <v>78561.71173164058</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>79595.33447303539</v>
+        <v>78738.31875865546</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>79776.4112628295</v>
+        <v>78917.44586565232</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>79960.07144638202</v>
+        <v>79099.12855059322</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>80146.35140154979</v>
+        <v>79283.40279964883</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>80335.28800622246</v>
+        <v>79470.30509363866</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>80526.91864491357</v>
+        <v>79659.87241455111</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>80721.28121543364</v>
+        <v>79852.142252145</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>80918.41413564637</v>
+        <v>80047.15261063269</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>81118.35635030769</v>
+        <v>80244.9420154457</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>81321.14733799086</v>
+        <v>80445.54952008517</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>81526.82711809626</v>
+        <v>80649.0147130562</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>81735.43625794923</v>
+        <v>80855.3777248892</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>81947.01587998515</v>
+        <v>81064.67923524774</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>82161.60766902391</v>
+        <v>81276.9604801246</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>82379.25387963506</v>
+        <v>81492.26325912755</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>82599.99734359395</v>
+        <v>81710.62994285533</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>82823.88147743062</v>
+        <v>81932.1034803654</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>83050.95029007288</v>
+        <v>82156.72740673428</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>83281.24839058399</v>
+        <v>82384.54585071225</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>83514.82099599688</v>
+        <v>82615.60354247336</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>83751.71393924631</v>
+        <v>82849.94582146168</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>83991.97367719939</v>
+        <v>83087.61864433586</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>84235.64729878692</v>
+        <v>83328.66859301263</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>84482.78253323617</v>
+        <v>83573.14288281102</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>84733.42775840672</v>
+        <v>83821.08937069842</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>84987.63200923098</v>
+        <v>84072.5565636403</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>85245.44498626063</v>
+        <v>84327.59362705456</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>85506.91706432069</v>
+        <v>84586.25039337242</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>85772.09930127251</v>
+        <v>84848.57737070699</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>86041.04344688766</v>
+        <v>85114.62575163177</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>86313.80195183391</v>
+        <v>85384.44742206988</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>86590.42797677583</v>
+        <v>85658.0949702964</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>86870.97540159021</v>
+        <v>85935.62169605489</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>87155.49883469965</v>
+        <v>86217.08161979038</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>87444.05362252594</v>
+        <v>86502.52949200076</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>87736.69585906343</v>
+        <v>86792.02080270741</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>88033.48239557655</v>
+        <v>87085.61179104814</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>88334.47085042277</v>
+        <v>87383.35945499424</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>88639.71961900176</v>
+        <v>87685.32156119285</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>88949.28788383471</v>
+        <v>87991.55665493745</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>89263.23562477533</v>
+        <v>88302.12407026897</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>89581.62362935387</v>
+        <v>88617.08394020874</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>89904.51350325803</v>
+        <v>88936.49720712603</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>90231.96768095203</v>
+        <v>89260.42563324324</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>90564.04943643698</v>
+        <v>89588.9318112802</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>90900.82289415451</v>
+        <v>89922.0791752403</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>91242.35304003664</v>
+        <v>90259.93201134176</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>91588.70573270493</v>
+        <v>90602.55546909574</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>91939.9477148213</v>
+        <v>90950.01557253519</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>92296.14662459299</v>
+        <v>91302.37923159602</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>92657.37100743612</v>
+        <v>91659.71425365482</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>93023.69032779946</v>
+        <v>92022.08935522556</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>93395.17498115271</v>
+        <v>92389.57417381863</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>93771.89630614186</v>
+        <v>92762.23927996536</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>94153.92659691554</v>
+        <v>93140.15618941172</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>94541.33911562618</v>
+        <v>93523.39737548484</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>94934.20810510893</v>
+        <v>93912.03628163536</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>95332.60880174331</v>
+        <v>94306.14733416057</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>95736.6174485001</v>
+        <v>94705.80595511114</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>96146.3113081794</v>
+        <v>95111.08857538609</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>96561.76867684261</v>
+        <v>95522.07264802061</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>96983.06889744372</v>
+        <v>95938.83666167042</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>97410.2923736642</v>
+        <v>96361.46015429767</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>97843.52058395636</v>
+        <v>96790.02372706313</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>98282.8360958003</v>
+        <v>97224.60905842963</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>98728.32258017935</v>
+        <v>97665.29891848155</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>99180.06482627954</v>
+        <v>98112.17718346625</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>99638.14875641886</v>
+        <v>98565.32885056238</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>100102.6614412118</v>
+        <v>99024.84005288113</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>100573.6911149756</v>
+        <v>99490.79807470665</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>101051.3271913834</v>
+        <v>99963.29136698093</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>101535.6602793731</v>
+        <v>100442.4095630407</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>102026.7821993151</v>
+        <v>100928.2434946119</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>102524.7859994505</v>
+        <v>101420.8852080701</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>103029.7659726021</v>
+        <v>101920.4279809724</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>103541.8176731701</v>
+        <v>102426.9663388694</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>104061.0379344176</v>
+        <v>102940.596072405</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>104587.5248860551</v>
+        <v>103461.4142547113</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>105121.3779721328</v>
+        <v>103989.5192591084</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>105662.6979692483</v>
+        <v>104525.0107771164</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>106211.5870050812</v>
+        <v>105067.9898367896</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>106768.1485772605</v>
+        <v>105618.5588213815</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>107332.487572579</v>
+        <v>106176.821488352</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>107904.7102865615</v>
+        <v>106742.882988725</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>108484.9244433994</v>
+        <v>107316.8498868083</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>109073.2392162623</v>
+        <v>107898.8301802864</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>109669.7652479981</v>
+        <v>108488.9333206979</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>110274.6146722334</v>
+        <v>109087.2702343089</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>110887.9011348878</v>
+        <v>109693.953343395</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>111509.7398161131</v>
+        <v>110309.096587945</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>112140.2474526733</v>
+        <v>110932.8154477993</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>112779.5423607767</v>
+        <v>111565.2269652367</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>113427.7444593775</v>
+        <v>112206.4497680249</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>114084.9752939598</v>
+        <v>112856.6040929481</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>114751.35806082</v>
+        <v>113515.8118098287</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>115427.017631866</v>
+        <v>114184.1964460585</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>116112.0805799465</v>
+        <v>114861.8832116563</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>116806.6752047317</v>
+        <v>115548.9990248692</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>117510.9315591607</v>
+        <v>116245.6725383353</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>118224.9814764768</v>
+        <v>116952.0341658283</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>118948.958597868</v>
+        <v>117668.2161096003</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>119682.998400736</v>
+        <v>118394.3523883458</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>120427.238227612</v>
+        <v>119130.5788658073</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>121181.8173157435</v>
+        <v>119877.0332800423</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>121946.8768273732</v>
+        <v>120633.8552733772</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>122722.559880735</v>
+        <v>121401.186423069</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>123509.0115817911</v>
+        <v>122179.1702727005</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>124306.3790567348</v>
+        <v>122967.9523643338</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>125114.8114852866</v>
+        <v>123767.6802714477</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>125934.4601348111</v>
+        <v>124578.5036326866</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>126765.4783952812</v>
+        <v>125400.5741864491</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>127608.0218151203</v>
+        <v>126234.0458063438</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>128462.2481379538</v>
+        <v>127079.0745375452</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>129328.3173402989</v>
+        <v>127935.8186340777</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>130206.3916702274</v>
+        <v>128804.4385970621</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>131096.6356870343</v>
+        <v>129685.0972139572</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>131999.2163019477</v>
+        <v>130577.9595988312</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>132914.3028199155</v>
+        <v>131483.1932336983</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>133842.0669825064</v>
+        <v>132400.9680109586</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>134782.6830119653</v>
+        <v>133331.4562769778</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>135736.3276564603</v>
+        <v>134274.8328768483</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>136703.1802365657</v>
+        <v>135231.2752003711</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>137683.4226930217</v>
+        <v>136200.9632293013</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>138677.2396358157</v>
+        <v>137184.0795859011</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>139684.8183946318</v>
+        <v>138180.8095828457</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>140706.3490707126</v>
+        <v>139191.3412745273</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>141742.0245901861</v>
+        <v>140215.8655098072</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>142792.040758905</v>
+        <v>141254.5759862653</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>143856.5963188507</v>
+        <v>142307.6693059963</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>144935.8930061565</v>
+        <v>143375.3450330081</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>146030.1356108041</v>
+        <v>144457.8057522759</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>147139.5320380505</v>
+        <v>145555.2571305076</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>148264.2933716438</v>
+        <v>146667.9079786786</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>149404.6339388889</v>
+        <v>147795.9703163975</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>150560.7713776232</v>
+        <v>148939.6594381602</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>151732.9267051688</v>
+        <v>150099.1939815599</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>152921.3243893252</v>
+        <v>151274.7959975155</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>154126.1924214693</v>
+        <v>152466.6910225841</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>155347.7623918359</v>
+        <v>153675.1081534311</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>156586.2695670443</v>
+        <v>154900.2801235229</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>157841.9529699503</v>
+        <v>156142.4433821177</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>159115.0554618941</v>
+        <v>157401.8381756287</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>160405.8238274239</v>
+        <v>158678.7086314354</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>161714.5088615736</v>
+        <v>159973.3028442215</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>163041.3654597756</v>
+        <v>161285.8729649194</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>164386.6527104919</v>
+        <v>162616.6752923439</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>165750.6339906477</v>
+        <v>163965.970367599</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>167133.5770639571</v>
+        <v>165334.0230713438</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>168535.7541822258</v>
+        <v>166721.1027240053</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>169957.4421897251</v>
+        <v>168127.4831890282</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>171398.9226307293</v>
+        <v>169553.4429792544</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>172860.4818603087</v>
+        <v>170999.2653665234</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>174342.4111584785</v>
+        <v>172465.2384945918</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>175845.0068477991</v>
+        <v>173951.6554954675</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>177368.5704145291</v>
+        <v>175458.8146092582</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>178913.4086334319</v>
+        <v>176987.0193076345</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>180479.8336963409</v>
+        <v>178536.5784210101</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>182068.1633445863</v>
+        <v>180107.8062695437</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>183678.7210053917</v>
+        <v>181701.0227980658</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>185311.8359323462</v>
+        <v>183316.5537150396</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>186967.843350064</v>
+        <v>184954.7306356622</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>188647.0846031391</v>
+        <v>186615.8912292157</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>190349.9073095077</v>
+        <v>188300.3793707782</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>192076.6655183301</v>
+        <v>190008.5452974059</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>193827.7198725045</v>
+        <v>191740.7457688974</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>195603.4377759272</v>
+        <v>193497.3442332523</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>197404.1935656131</v>
+        <v>195278.7109969389</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>199230.368688787</v>
+        <v>197085.2234000786</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>201082.351885065</v>
+        <v>198917.2659966659</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>202960.539373835</v>
+        <v>200775.230739931</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>204865.335046952</v>
+        <v>202659.5171729606</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>206797.1506668572</v>
+        <v>204570.5326246838</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>208756.4060702364</v>
+        <v>206508.6924113375</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>210743.5293773219</v>
+        <v>208474.4200435149</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>212758.9572069492</v>
+        <v>210468.1474389067</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>214803.1348974722</v>
+        <v>212490.3151408372</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>216876.5167336395</v>
+        <v>214541.3725426985</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>218979.5661795322</v>
+        <v>216621.7781183797</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>221112.7561176572</v>
+        <v>218731.9996587861</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>223276.5690942922</v>
+        <v>220872.5145145421</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>225471.4975711636</v>
+        <v>223043.80984496</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>227698.0441835459</v>
+        <v>225246.3828733597</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>229956.7220048555</v>
+        <v>227480.7411488139</v>
       </c>
     </row>
     <row r="238">
@@ -2338,7 +2338,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>232248.0548178093</v>
+        <v>229747.4028143874</v>
       </c>
     </row>
     <row r="239">
@@ -2346,7 +2346,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>234572.5773922138</v>
+        <v>232046.8968819343</v>
       </c>
     </row>
     <row r="240">
@@ -2354,7 +2354,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>236930.8357694382</v>
+        <v>234379.7635135089</v>
       </c>
     </row>
     <row r="241">
@@ -2362,7 +2362,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>239323.3875536184</v>
+        <v>236746.5543094341</v>
       </c>
     </row>
     <row r="242">
@@ -2370,7 +2370,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>241750.8022096323</v>
+        <v>239147.8326030683</v>
       </c>
     </row>
     <row r="243">
@@ -2378,7 +2378,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>244213.6613678723</v>
+        <v>241584.1737622963</v>
       </c>
     </row>
     <row r="244">
@@ -2386,7 +2386,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>246712.5591358322</v>
+        <v>244056.1654977613</v>
       </c>
     </row>
     <row r="245">
@@ -2394,7 +2394,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>249248.102416515</v>
+        <v>246564.4081778446</v>
       </c>
     </row>
     <row r="246">
@@ -2402,7 +2402,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>251820.9112336526</v>
+        <v>249109.5151503831</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>254431.6190637174</v>
+        <v>251692.1130711067</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>257080.873174689</v>
+        <v>254312.8422387569</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>259769.3349715242</v>
+        <v>256972.3569368375</v>
       </c>
     </row>
     <row r="250">
@@ -2434,7 +2434,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>262497.6803482606</v>
+        <v>259671.3257819266</v>
       </c>
     </row>
     <row r="251">
@@ -2442,7 +2442,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>265266.6000466684</v>
+        <v>262410.4320784673</v>
       </c>
     </row>
     <row r="252">
@@ -2450,7 +2450,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>268076.8000213407</v>
+        <v>265190.3741799265</v>
       </c>
     </row>
     <row r="253">
@@ -2458,7 +2458,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>270929.0018110967</v>
+        <v>268011.8658561993</v>
       </c>
     </row>
     <row r="254">
@@ -2466,7 +2466,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>273823.9429165489</v>
+        <v>270875.636667111</v>
       </c>
     </row>
     <row r="255">
@@ -2474,7 +2474,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>276762.3771836566</v>
+        <v>273782.4323418406</v>
       </c>
     </row>
     <row r="256">
@@ -2482,7 +2482,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>279745.0751930721</v>
+        <v>276733.0151640754</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>282772.8246550529</v>
+        <v>279728.16436267</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>285846.4308096854</v>
+        <v>282768.6765075623</v>
       </c>
     </row>
     <row r="259">
@@ -2506,7 +2506,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>288966.7168321388</v>
+        <v>285855.3659106622</v>
       </c>
     </row>
     <row r="260">
@@ -2514,7 +2514,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>292134.5242426363</v>
+        <v>288989.0650314101</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>295350.713320792</v>
+        <v>292170.6248866515</v>
       </c>
     </row>
     <row r="262">
@@ -2530,7 +2530,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>298616.1635239379</v>
+        <v>295400.9154644608</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>301931.773909017</v>
+        <v>298680.8261414907</v>
       </c>
     </row>
     <row r="264">
@@ -2546,7 +2546,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>305298.4635575862</v>
+        <v>302011.2661033995</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>308717.1720034364</v>
+        <v>305393.1647678678</v>
       </c>
     </row>
     <row r="266">
@@ -2562,7 +2562,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>312188.8596622823</v>
+        <v>308827.4722096601</v>
       </c>
     </row>
     <row r="267">
@@ -2570,7 +2570,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>315714.5082629442</v>
+        <v>312315.1595871656</v>
       </c>
     </row>
     <row r="268">
@@ -2578,7 +2578,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>319295.1212793912</v>
+        <v>315857.2195697881</v>
       </c>
     </row>
     <row r="269">
@@ -2586,7 +2586,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>322931.7243629626</v>
+        <v>319454.6667655148</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>326625.3657740462</v>
+        <v>323108.538147946</v>
       </c>
     </row>
     <row r="271">
@@ -2602,7 +2602,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>330377.1168124264</v>
+        <v>326819.8934820099</v>
       </c>
     </row>
     <row r="272">
@@ -2610,7 +2610,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>334188.0722454736</v>
+        <v>330589.8157475411</v>
       </c>
     </row>
     <row r="273">
@@ -2618,7 +2618,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>338059.3507332777</v>
+        <v>334419.4115598373</v>
       </c>
     </row>
     <row r="274">
@@ -2626,7 +2626,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>341992.0952497816</v>
+        <v>338309.8115862578</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>345987.473498902</v>
+        <v>342262.170957864</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>350046.6783245667</v>
+        <v>346277.6696750423</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>354170.9281135337</v>
+        <v>350357.5130059855</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>358361.4671897892</v>
+        <v>354502.931876844</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>362619.5661992553</v>
+        <v>358715.1832522915</v>
       </c>
     </row>
     <row r="280">
@@ -2674,7 +2674,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>366946.5224834676</v>
+        <v>362995.5505051798</v>
       </c>
     </row>
     <row r="281">
@@ -2682,7 +2682,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>371343.6604408151</v>
+        <v>367345.3437738884</v>
       </c>
     </row>
     <row r="282">
@@ -2690,7 +2690,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>375812.3318738575</v>
+        <v>371765.9003059021</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>380353.9163211639</v>
+        <v>376258.5847860774</v>
       </c>
     </row>
     <row r="284">
@@ -2706,7 +2706,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>384969.8213720414</v>
+        <v>380824.7896479817</v>
       </c>
     </row>
     <row r="285">
@@ -2714,7 +2714,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>389661.4829624454</v>
+        <v>385465.9353666182</v>
       </c>
     </row>
     <row r="286">
@@ -2722,7 +2722,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>394430.3656502881</v>
+        <v>390183.4707307695</v>
       </c>
     </row>
     <row r="287">
@@ -2730,7 +2730,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>399277.9628682779</v>
+        <v>394978.8730931147</v>
       </c>
     </row>
     <row r="288">
@@ -2738,7 +2738,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>404205.7971523526</v>
+        <v>399853.6485962035</v>
       </c>
     </row>
     <row r="289">
@@ -2746,7 +2746,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>409215.4203436859</v>
+        <v>404809.3323722868</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>414308.4137621662</v>
+        <v>409847.4887149289</v>
       </c>
     </row>
     <row r="291">
@@ -2762,7 +2762,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>419486.3883491759</v>
+        <v>414969.711220248</v>
       </c>
     </row>
     <row r="292">
@@ -2770,7 +2770,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>424750.9847774139</v>
+        <v>420177.6228955574</v>
       </c>
     </row>
     <row r="293">
@@ -2778,7 +2778,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>430103.8735254318</v>
+        <v>425472.8762330988</v>
       </c>
     </row>
     <row r="294">
@@ -2786,7 +2786,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>435546.7549144836</v>
+        <v>430857.1532464945</v>
       </c>
     </row>
     <row r="295">
@@ -2794,7 +2794,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>441081.359105203</v>
+        <v>436332.1654674619</v>
       </c>
     </row>
     <row r="296">
@@ -2802,7 +2802,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>446709.446051567</v>
+        <v>441899.6539002715</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>452432.8054095265</v>
+        <v>447561.3889313621</v>
       </c>
     </row>
     <row r="298">
@@ -2818,7 +2818,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>458253.2563976219</v>
+        <v>453319.1701914564</v>
       </c>
     </row>
     <row r="299">
@@ -2826,7 +2826,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>464172.6476068404</v>
+        <v>459174.8263674665</v>
       </c>
     </row>
     <row r="300">
@@ -2834,7 +2834,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>470192.8567569194</v>
+        <v>465130.2149614209</v>
       </c>
     </row>
     <row r="301">
@@ -2842,7 +2842,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>476315.7903962429</v>
+        <v>471187.2219935916</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>482543.3835424295</v>
+        <v>477347.7616469524</v>
       </c>
     </row>
     <row r="303">
@@ -2858,7 +2858,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>486662.3058521276</v>
+        <v>480261.5680698871</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>490854.7056231841</v>
+        <v>483229.650429331</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>495121.9945064331</v>
+        <v>486253.0876555885</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>499465.6025727248</v>
+        <v>489332.9727301305</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>503886.9777863179</v>
+        <v>492470.4122557968</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>508387.5854245375</v>
+        <v>495666.5259861783</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>512968.9074416516</v>
+        <v>498922.4463126519</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>517632.4417749274</v>
+        <v>502239.3177075557</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>522379.7015908587</v>
+        <v>505618.2961220079</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>527212.2144695965</v>
+        <v>509060.5483369149</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>532131.5215256568</v>
+        <v>512567.2512657453</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>537139.1764630313</v>
+        <v>516139.5912076827</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>542236.744562906</v>
+        <v>519778.7630498438</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>547425.801602256</v>
+        <v>523485.96941729</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>552707.9327016895</v>
+        <v>527262.4197696464</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>558084.7311010066</v>
+        <v>531109.3294432183</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>563557.7968610579</v>
+        <v>535027.9186375854</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>569128.7354906154</v>
+        <v>539019.4113457539</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>574799.1564971183</v>
+        <v>543085.0342270704</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>580570.6718602995</v>
+        <v>547226.015422203</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>586444.8944278827</v>
+        <v>551443.5833096536</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>592423.4362327168</v>
+        <v>555738.9652033858</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>598507.9067309257</v>
+        <v>560113.3859913338</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>604699.9109608544</v>
+        <v>564568.0667147035</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>611001.0476228329</v>
+        <v>569104.2230881718</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>617412.9070800241</v>
+        <v>573723.063961275</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>623937.0692808779</v>
+        <v>578425.7897214775</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>630575.1016039946</v>
+        <v>583213.5906396298</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>637328.5566264887</v>
+        <v>588087.6451587448</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>644198.9698172469</v>
+        <v>593049.1181272612</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>651187.8571567931</v>
+        <v>598099.1589781982</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>658296.7126858016</v>
+        <v>603238.8998558705</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>665527.0059846418</v>
+        <v>608469.4536920873</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>672880.1795866918</v>
+        <v>613791.9122340328</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>680357.6463285177</v>
+        <v>619207.344026305</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>687960.7866403906</v>
+        <v>624716.792349873</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>695690.9457809832</v>
+        <v>630321.2731209943</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>703549.4310204877</v>
+        <v>636021.7727534487</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>711537.5087767671</v>
+        <v>641819.2459877124</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>719656.4017095522</v>
+        <v>647714.6136910174</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>727907.2857780884</v>
+        <v>653708.7606325236</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>736291.2872680207</v>
+        <v>659802.533238137</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>744809.4797936988</v>
+        <v>665996.7373297896</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>753462.8812824462</v>
+        <v>672292.1358542857</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>762252.4509477376</v>
+        <v>678689.4466071083</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>771179.0862585554</v>
+        <v>685189.3399568311</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>780243.6199125721</v>
+        <v>691792.4365760596</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>789446.8168211121</v>
+        <v>698499.3051850554</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>798789.3711141761</v>
+        <v>705310.4603144404</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>808271.9031740892</v>
+        <v>712226.3600935818</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>817894.9567066064</v>
+        <v>719247.4040714612</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>827658.9958585399</v>
+        <v>726373.9310769903</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>837564.4023911913</v>
+        <v>733606.2171259036</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>847611.4729190404</v>
+        <v>740944.4733814616</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>857800.4162232813</v>
+        <v>748388.8441763041</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>867712.100224885</v>
+        <v>755479.2297226704</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>877760.2379349531</v>
+        <v>762669.7045901729</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>887944.7463185127</v>
+        <v>769960.1871036231</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>898265.4475298215</v>
+        <v>777350.5247054812</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>908722.0668096342</v>
+        <v>784840.4924642462</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>919314.2305110543</v>
+        <v>792429.7916832647</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>930041.4642631024</v>
+        <v>800118.0486167334</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>940903.1912808961</v>
+        <v>807904.8132994665</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>951898.7308310939</v>
+        <v>815789.5584967997</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>963027.2968609731</v>
+        <v>823771.6787807768</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>974287.9967991239</v>
+        <v>831850.4897384456</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>985679.8305353896</v>
+        <v>840025.227317808</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>997201.6895871932</v>
+        <v>848295.0473165843</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>1008852.356458928</v>
+        <v>856659.0250185785</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>1020630.504200544</v>
+        <v>865116.1549820048</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>1033297.082918893</v>
+        <v>874620.7990965438</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>1046096.419447244</v>
+        <v>884226.6939770015</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>1059026.808458197</v>
+        <v>893932.530353936</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>1072086.430854365</v>
+        <v>903736.9131566761</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>1085273.354458563</v>
+        <v>913638.3621917597</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>1098585.53493929</v>
+        <v>923635.3130050063</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>1112020.816972865</v>
+        <v>933726.1179279016</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>1125576.935642715</v>
+        <v>943909.0473082837</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>1139251.518075464</v>
+        <v>954182.2909246283</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>1153042.085312532</v>
+        <v>964543.9595825012</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>1167137.953127789</v>
+        <v>975947.2537112542</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>1181346.263019348</v>
+        <v>987443.5499408644</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>1195664.210617076</v>
+        <v>999030.6304740336</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>1210088.894492199</v>
+        <v>1010706.20292008</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>1224617.319202283</v>
+        <v>1022467.902986035</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>1239246.398548131</v>
+        <v>1034313.297340553</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>1253972.959035008</v>
+        <v>1046239.886643833</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>1268793.743529803</v>
+        <v>1058245.108736003</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>1283705.415104893</v>
+        <v>1070326.341975766</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>1298704.561058728</v>
+        <v>1082480.908720378</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>1311718.00104022</v>
+        <v>1091139.979269936</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>1324797.060292222</v>
+        <v>1099841.340880903</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>1337938.380878927</v>
+        <v>1108582.611765734</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>1351138.548325062</v>
+        <v>1117361.3720421</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>1364394.095627357</v>
+        <v>1126175.166526318</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>1377701.507351361</v>
+        <v>1135021.507571991</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>1391057.22380136</v>
+        <v>1143897.87794442</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>1404457.645250884</v>
+        <v>1152801.733721177</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>1417899.136221178</v>
+        <v>1161730.507209167</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>1431378.029794856</v>
+        <v>1170681.609868447</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>1436134.208775625</v>
+        <v>1175758.570484891</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>1440871.655013891</v>
+        <v>1180830.9651652</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>1445587.57583396</v>
+        <v>1185896.579418459</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>1450279.13941652</v>
+        <v>1190953.178335004</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>1454943.475796236</v>
+        <v>1195998.50793277</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>1459577.677823953</v>
+        <v>1201030.296456528</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>1464178.802092018</v>
+        <v>1206046.255626214</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>1468743.869822118</v>
+        <v>1211044.081831187</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>1473269.867716051</v>
+        <v>1216021.457268029</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>1477753.748770942</v>
+        <v>1220976.051020311</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>1482843.064343716</v>
+        <v>1226007.54500635</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>1487886.957311497</v>
+        <v>1231012.01275274</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>1492882.245776167</v>
+        <v>1235987.083882448</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>1497825.72116376</v>
+        <v>1240930.379281508</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>1502714.149134398</v>
+        <v>1245839.511932114</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>1507544.270487334</v>
+        <v>1250712.087699361</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>1512312.802072376</v>
+        <v>1255545.706078138</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>1517016.437720837</v>
+        <v>1260337.960908201</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>1521651.849211157</v>
+        <v>1265086.441067005</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>1526215.687286359</v>
+        <v>1269788.731151533</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>1530704.582742686</v>
+        <v>1274442.412162053</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>1535115.14761088</v>
+        <v>1279045.062202456</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>1539443.976453813</v>
+        <v>1283594.257213623</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>1543687.647806406</v>
+        <v>1288087.57175802</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>1547842.725785954</v>
+        <v>1292522.579875525</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>1551905.76190324</v>
+        <v>1296896.856032217</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>1555873.297106853</v>
+        <v>1301207.976185569</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>1559741.86409521</v>
+        <v>1305453.518991092</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>1563507.989932658</v>
+        <v>1309631.067176986</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>1567168.199007709</v>
+        <v>1313738.209114714</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>1570719.016372971</v>
+        <v>1317772.54061461</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>1574156.97150753</v>
+        <v>1321731.666976564</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>1577478.602543402</v>
+        <v>1325613.205326576</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>1580680.46099815</v>
+        <v>1329414.787270315</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>1583759.117055827</v>
+        <v>1333134.06189494</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>1586711.165437885</v>
+        <v>1336768.699150047</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>1589533.231904687</v>
+        <v>1340316.393637896</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>1592221.980426539</v>
+        <v>1343774.868841771</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>1594774.121060833</v>
+        <v>1347141.881819615</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>1597186.418568704</v>
+        <v>1350415.228387751</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>1599455.701800722</v>
+        <v>1353592.748816562</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>1601578.873876313</v>
+        <v>1356672.334056539</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>1603552.923175922</v>
+        <v>1359651.93250888</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>1605374.935158305</v>
+        <v>1362529.557350044</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>1607042.105007762</v>
+        <v>1365303.294414158</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>1608551.75110757</v>
+        <v>1367971.310631031</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>1609901.329326421</v>
+        <v>1370531.863010783</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>1611088.44809419</v>
+        <v>1372983.308158642</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>1612110.884232074</v>
+        <v>1375324.112295551</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>1612966.599490025</v>
+        <v>1377552.86175172</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/s_SFH.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_SFH.xlsx
@@ -450,7 +450,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>72114.86845643715</v>
+        <v>72899.79219473852</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>72199.16045598732</v>
+        <v>72985.00165822938</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>72284.66366572774</v>
+        <v>73071.43551515065</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>72371.39537238918</v>
+        <v>73159.11124038798</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>72459.37310616416</v>
+        <v>73248.04655493874</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>72548.61464404878</v>
+        <v>73338.25942929015</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>72639.13801322764</v>
+        <v>73429.76808684101</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>72730.96149450299</v>
+        <v>73522.59100736835</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>72824.10362576904</v>
+        <v>73616.74693053933</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>72918.583205531</v>
+        <v>73712.25485946877</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>73014.41929646983</v>
+        <v>73809.13406432258</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>73111.6312290538</v>
+        <v>73907.40408596869</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>73210.23860519631</v>
+        <v>74007.08473967464</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>73310.26130196149</v>
+        <v>74108.19611885361</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>73411.71947531763</v>
+        <v>74210.75859885851</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>73514.63356393902</v>
+        <v>74314.79284082544</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>73619.0242930571</v>
+        <v>74420.31979556657</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>73724.91267836101</v>
+        <v>74527.36070751325</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>73832.32002994865</v>
+        <v>74635.93711871</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>73941.26795632829</v>
+        <v>74746.07087285977</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>74051.77836847182</v>
+        <v>74857.78411942118</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>74163.87348391996</v>
+        <v>74971.09931775855</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>74277.57583093985</v>
+        <v>75086.03924134465</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>74392.90825273651</v>
+        <v>75202.62698201802</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>74509.89391171731</v>
+        <v>75320.88595429384</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>74628.55629381165</v>
+        <v>75440.83989973072</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>74748.91921284536</v>
+        <v>75562.51289135253</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>74871.00681497087</v>
+        <v>75685.92933812701</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>74994.84358315397</v>
+        <v>75811.11398950122</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>75120.45434171747</v>
+        <v>75938.09193999467</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>75247.86426094257</v>
+        <v>76066.88863385082</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>75377.09886172874</v>
+        <v>76197.52986974757</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>75508.18402031236</v>
+        <v>76330.04180556745</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>75641.14597304541</v>
+        <v>76464.45096322824</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>75776.01132123452</v>
+        <v>76600.78423357451</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>75912.80703604099</v>
+        <v>76739.06888133124</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>76051.56046344271</v>
+        <v>76879.33255011968</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>76192.29932925869</v>
+        <v>77021.60326753634</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>76335.05174423674</v>
+        <v>77165.90945029649</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>76479.84620920545</v>
+        <v>77312.27990944171</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>76626.71162029021</v>
+        <v>77460.74385561312</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>76775.67727419568</v>
+        <v>77611.33090439098</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>76926.77287355356</v>
+        <v>77764.07108170111</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>77080.02853233829</v>
+        <v>77918.99482928892</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>77235.47478134967</v>
+        <v>78076.13301026236</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>77393.14257376469</v>
+        <v>78235.51691470362</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>77553.06329075839</v>
+        <v>78397.1782653517</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>77715.26874719532</v>
+        <v>78561.1492233553</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>77879.79119739142</v>
+        <v>78727.46239409772</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>78046.66334094822</v>
+        <v>78896.15083309461</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>78215.9183286597</v>
+        <v>79067.24805196485</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>78387.58976849251</v>
+        <v>79240.7880244761</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>78561.71173164058</v>
+        <v>79416.80519266524</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>78738.31875865546</v>
+        <v>79595.33447303539</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>78917.44586565232</v>
+        <v>79776.4112628295</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>79099.12855059322</v>
+        <v>79960.07144638202</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>79283.40279964883</v>
+        <v>80146.35140154979</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>79470.30509363866</v>
+        <v>80335.28800622246</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>79659.87241455111</v>
+        <v>80526.91864491357</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>79852.142252145</v>
+        <v>80721.28121543364</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>80047.15261063269</v>
+        <v>80918.41413564637</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>80244.9420154457</v>
+        <v>81118.35635030769</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>80445.54952008517</v>
+        <v>81321.14733799086</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>80649.0147130562</v>
+        <v>81526.82711809626</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>80855.3777248892</v>
+        <v>81735.43625794923</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>81064.67923524774</v>
+        <v>81947.01587998515</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>81276.9604801246</v>
+        <v>82161.60766902391</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>81492.26325912755</v>
+        <v>82379.25387963506</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>81710.62994285533</v>
+        <v>82599.99734359395</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>81932.1034803654</v>
+        <v>82823.88147743062</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>82156.72740673428</v>
+        <v>83050.95029007288</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>82384.54585071225</v>
+        <v>83281.24839058399</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>82615.60354247336</v>
+        <v>83514.82099599688</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>82849.94582146168</v>
+        <v>83751.71393924631</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>83087.61864433586</v>
+        <v>83991.97367719939</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>83328.66859301263</v>
+        <v>84235.64729878692</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>83573.14288281102</v>
+        <v>84482.78253323617</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>83821.08937069842</v>
+        <v>84733.42775840672</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>84072.5565636403</v>
+        <v>84987.63200923098</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>84327.59362705456</v>
+        <v>85245.44498626063</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>84586.25039337242</v>
+        <v>85506.91706432069</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>84848.57737070699</v>
+        <v>85772.09930127251</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>85114.62575163177</v>
+        <v>86041.04344688766</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>85384.44742206988</v>
+        <v>86313.80195183391</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>85658.0949702964</v>
+        <v>86590.42797677583</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>85935.62169605489</v>
+        <v>86870.97540159021</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>86217.08161979038</v>
+        <v>87155.49883469965</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>86502.52949200076</v>
+        <v>87444.05362252594</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>86792.02080270741</v>
+        <v>87736.69585906343</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>87085.61179104814</v>
+        <v>88033.48239557655</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>87383.35945499424</v>
+        <v>88334.47085042277</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>87685.32156119285</v>
+        <v>88639.71961900176</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>87991.55665493745</v>
+        <v>88949.28788383471</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>88302.12407026897</v>
+        <v>89263.23562477533</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>88617.08394020874</v>
+        <v>89581.62362935387</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>88936.49720712603</v>
+        <v>89904.51350325803</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>89260.42563324324</v>
+        <v>90231.96768095203</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>89588.9318112802</v>
+        <v>90564.04943643698</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>89922.0791752403</v>
+        <v>90900.82289415451</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>90259.93201134176</v>
+        <v>91242.35304003664</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>90602.55546909574</v>
+        <v>91588.70573270493</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>90950.01557253519</v>
+        <v>91939.9477148213</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>91302.37923159602</v>
+        <v>92296.14662459299</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>91659.71425365482</v>
+        <v>92657.37100743612</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>92022.08935522556</v>
+        <v>93023.69032779946</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>92389.57417381863</v>
+        <v>93395.17498115271</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>92762.23927996536</v>
+        <v>93771.89630614186</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>93140.15618941172</v>
+        <v>94153.92659691554</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>93523.39737548484</v>
+        <v>94541.33911562618</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>93912.03628163536</v>
+        <v>94934.20810510893</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>94306.14733416057</v>
+        <v>95332.60880174331</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>94705.80595511114</v>
+        <v>95736.6174485001</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>95111.08857538609</v>
+        <v>96146.3113081794</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>95522.07264802061</v>
+        <v>96561.76867684261</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>95938.83666167042</v>
+        <v>96983.06889744372</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>96361.46015429767</v>
+        <v>97410.2923736642</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>96790.02372706313</v>
+        <v>97843.52058395636</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>97224.60905842963</v>
+        <v>98282.8360958003</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>97665.29891848155</v>
+        <v>98728.32258017935</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>98112.17718346625</v>
+        <v>99180.06482627954</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>98565.32885056238</v>
+        <v>99638.14875641886</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>99024.84005288113</v>
+        <v>100102.6614412118</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>99490.79807470665</v>
+        <v>100573.6911149756</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>99963.29136698093</v>
+        <v>101051.3271913834</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>100442.4095630407</v>
+        <v>101535.6602793731</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>100928.2434946119</v>
+        <v>102026.7821993151</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>101420.8852080701</v>
+        <v>102524.7859994505</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>101920.4279809724</v>
+        <v>103029.7659726021</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>102426.9663388694</v>
+        <v>103541.8176731701</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>102940.596072405</v>
+        <v>104061.0379344176</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>103461.4142547113</v>
+        <v>104587.5248860551</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>103989.5192591084</v>
+        <v>105121.3779721328</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>104525.0107771164</v>
+        <v>105662.6979692483</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>105067.9898367896</v>
+        <v>106211.5870050812</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>105618.5588213815</v>
+        <v>106768.1485772605</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>106176.821488352</v>
+        <v>107332.487572579</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>106742.882988725</v>
+        <v>107904.7102865615</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>107316.8498868083</v>
+        <v>108484.9244433994</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>107898.8301802864</v>
+        <v>109073.2392162623</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>108488.9333206979</v>
+        <v>109669.7652479981</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>109087.2702343089</v>
+        <v>110274.6146722334</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>109693.953343395</v>
+        <v>110887.9011348878</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>110309.096587945</v>
+        <v>111509.7398161131</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>110932.8154477993</v>
+        <v>112140.2474526733</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>111565.2269652367</v>
+        <v>112779.5423607767</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>112206.4497680249</v>
+        <v>113427.7444593775</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>112856.6040929481</v>
+        <v>114084.9752939598</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>113515.8118098287</v>
+        <v>114751.35806082</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>114184.1964460585</v>
+        <v>115427.017631866</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>114861.8832116563</v>
+        <v>116112.0805799465</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>115548.9990248692</v>
+        <v>116806.6752047317</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>116245.6725383353</v>
+        <v>117510.9315591607</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>116952.0341658283</v>
+        <v>118224.9814764768</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>117668.2161096003</v>
+        <v>118948.958597868</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>118394.3523883458</v>
+        <v>119682.998400736</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>119130.5788658073</v>
+        <v>120427.238227612</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>119877.0332800423</v>
+        <v>121181.8173157435</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>120633.8552733772</v>
+        <v>121946.8768273732</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>121401.186423069</v>
+        <v>122722.559880735</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>122179.1702727005</v>
+        <v>123509.0115817911</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>122967.9523643338</v>
+        <v>124306.3790567348</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>123767.6802714477</v>
+        <v>125114.8114852866</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>124578.5036326866</v>
+        <v>125934.4601348111</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>125400.5741864491</v>
+        <v>126765.4783952812</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>126234.0458063438</v>
+        <v>127608.0218151203</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>127079.0745375452</v>
+        <v>128462.2481379538</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>127935.8186340777</v>
+        <v>129328.3173402989</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>128804.4385970621</v>
+        <v>130206.3916702274</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>129685.0972139572</v>
+        <v>131096.6356870343</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>130577.9595988312</v>
+        <v>131999.2163019477</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>131483.1932336983</v>
+        <v>132914.3028199155</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>132400.9680109586</v>
+        <v>133842.0669825064</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>133331.4562769778</v>
+        <v>134782.6830119653</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>134274.8328768483</v>
+        <v>135736.3276564603</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>135231.2752003711</v>
+        <v>136703.1802365657</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>136200.9632293013</v>
+        <v>137683.4226930217</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>137184.0795859011</v>
+        <v>138677.2396358157</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>138180.8095828457</v>
+        <v>139684.8183946318</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>139191.3412745273</v>
+        <v>140706.3490707126</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>140215.8655098072</v>
+        <v>141742.0245901861</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>141254.5759862653</v>
+        <v>142792.040758905</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>142307.6693059963</v>
+        <v>143856.5963188507</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>143375.3450330081</v>
+        <v>144935.8930061565</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>144457.8057522759</v>
+        <v>146030.1356108041</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>145555.2571305076</v>
+        <v>147139.5320380505</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>146667.9079786786</v>
+        <v>148264.2933716438</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>147795.9703163975</v>
+        <v>149404.6339388889</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>148939.6594381602</v>
+        <v>150560.7713776232</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>150099.1939815599</v>
+        <v>151732.9267051688</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>151274.7959975155</v>
+        <v>152921.3243893252</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>152466.6910225841</v>
+        <v>154126.1924214693</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>153675.1081534311</v>
+        <v>155347.7623918359</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>154900.2801235229</v>
+        <v>156586.2695670443</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>156142.4433821177</v>
+        <v>157841.9529699503</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>157401.8381756287</v>
+        <v>159115.0554618941</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>158678.7086314354</v>
+        <v>160405.8238274239</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>159973.3028442215</v>
+        <v>161714.5088615736</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>161285.8729649194</v>
+        <v>163041.3654597756</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>162616.6752923439</v>
+        <v>164386.6527104919</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>163965.970367599</v>
+        <v>165750.6339906477</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>165334.0230713438</v>
+        <v>167133.5770639571</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>166721.1027240053</v>
+        <v>168535.7541822258</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>168127.4831890282</v>
+        <v>169957.4421897251</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>169553.4429792544</v>
+        <v>171398.9226307293</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>170999.2653665234</v>
+        <v>172860.4818603087</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>172465.2384945918</v>
+        <v>174342.4111584785</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>173951.6554954675</v>
+        <v>175845.0068477991</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>175458.8146092582</v>
+        <v>177368.5704145291</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>176987.0193076345</v>
+        <v>178913.4086334319</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>178536.5784210101</v>
+        <v>180479.8336963409</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>180107.8062695437</v>
+        <v>182068.1633445863</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>181701.0227980658</v>
+        <v>183678.7210053917</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>183316.5537150396</v>
+        <v>185311.8359323462</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>184954.7306356622</v>
+        <v>186967.843350064</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>186615.8912292157</v>
+        <v>188647.0846031391</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>188300.3793707782</v>
+        <v>190349.9073095077</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>190008.5452974059</v>
+        <v>192076.6655183301</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>191740.7457688974</v>
+        <v>193827.7198725045</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>193497.3442332523</v>
+        <v>195603.4377759272</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>195278.7109969389</v>
+        <v>197404.1935656131</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>197085.2234000786</v>
+        <v>199230.368688787</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>198917.2659966659</v>
+        <v>201082.351885065</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>200775.230739931</v>
+        <v>202960.539373835</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>202659.5171729606</v>
+        <v>204865.335046952</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>204570.5326246838</v>
+        <v>206797.1506668572</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>206508.6924113375</v>
+        <v>208756.4060702364</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>208474.4200435149</v>
+        <v>210743.5293773219</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>210468.1474389067</v>
+        <v>212758.9572069492</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>212490.3151408372</v>
+        <v>214803.1348974722</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>214541.3725426985</v>
+        <v>216876.5167336395</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>216621.7781183797</v>
+        <v>218979.5661795322</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>218731.9996587861</v>
+        <v>221112.7561176572</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>220872.5145145421</v>
+        <v>223276.5690942922</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>223043.80984496</v>
+        <v>225471.4975711636</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>225246.3828733597</v>
+        <v>227698.0441835459</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>227480.7411488139</v>
+        <v>229956.7220048555</v>
       </c>
     </row>
     <row r="238">
@@ -2338,7 +2338,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>229747.4028143874</v>
+        <v>232248.0548178093</v>
       </c>
     </row>
     <row r="239">
@@ -2346,7 +2346,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>232046.8968819343</v>
+        <v>234572.5773922138</v>
       </c>
     </row>
     <row r="240">
@@ -2354,7 +2354,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>234379.7635135089</v>
+        <v>236930.8357694382</v>
       </c>
     </row>
     <row r="241">
@@ -2362,7 +2362,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>236746.5543094341</v>
+        <v>239323.3875536184</v>
       </c>
     </row>
     <row r="242">
@@ -2370,7 +2370,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>239147.8326030683</v>
+        <v>241750.8022096323</v>
       </c>
     </row>
     <row r="243">
@@ -2378,7 +2378,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>241584.1737622963</v>
+        <v>244213.6613678723</v>
       </c>
     </row>
     <row r="244">
@@ -2386,7 +2386,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>244056.1654977613</v>
+        <v>246712.5591358322</v>
       </c>
     </row>
     <row r="245">
@@ -2394,7 +2394,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>246564.4081778446</v>
+        <v>249248.102416515</v>
       </c>
     </row>
     <row r="246">
@@ -2402,7 +2402,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>249109.5151503831</v>
+        <v>251820.9112336526</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>251692.1130711067</v>
+        <v>254431.6190637174</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>254312.8422387569</v>
+        <v>257080.873174689</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>256972.3569368375</v>
+        <v>259769.3349715242</v>
       </c>
     </row>
     <row r="250">
@@ -2434,7 +2434,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>259671.3257819266</v>
+        <v>262497.6803482606</v>
       </c>
     </row>
     <row r="251">
@@ -2442,7 +2442,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>262410.4320784673</v>
+        <v>265266.6000466684</v>
       </c>
     </row>
     <row r="252">
@@ -2450,7 +2450,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>265190.3741799265</v>
+        <v>268076.8000213407</v>
       </c>
     </row>
     <row r="253">
@@ -2458,7 +2458,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>268011.8658561993</v>
+        <v>270929.0018110967</v>
       </c>
     </row>
     <row r="254">
@@ -2466,7 +2466,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>270875.636667111</v>
+        <v>273823.9429165489</v>
       </c>
     </row>
     <row r="255">
@@ -2474,7 +2474,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>273782.4323418406</v>
+        <v>276762.3771836566</v>
       </c>
     </row>
     <row r="256">
@@ -2482,7 +2482,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>276733.0151640754</v>
+        <v>279745.0751930721</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>279728.16436267</v>
+        <v>282772.8246550529</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>282768.6765075623</v>
+        <v>285846.4308096854</v>
       </c>
     </row>
     <row r="259">
@@ -2506,7 +2506,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>285855.3659106622</v>
+        <v>288966.7168321388</v>
       </c>
     </row>
     <row r="260">
@@ -2514,7 +2514,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>288989.0650314101</v>
+        <v>292134.5242426363</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>292170.6248866515</v>
+        <v>295350.713320792</v>
       </c>
     </row>
     <row r="262">
@@ -2530,7 +2530,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>295400.9154644608</v>
+        <v>298616.1635239379</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>298680.8261414907</v>
+        <v>301931.773909017</v>
       </c>
     </row>
     <row r="264">
@@ -2546,7 +2546,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>302011.2661033995</v>
+        <v>305298.4635575862</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>305393.1647678678</v>
+        <v>308717.1720034364</v>
       </c>
     </row>
     <row r="266">
@@ -2562,7 +2562,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>308827.4722096601</v>
+        <v>312188.8596622823</v>
       </c>
     </row>
     <row r="267">
@@ -2570,7 +2570,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>312315.1595871656</v>
+        <v>315714.5082629442</v>
       </c>
     </row>
     <row r="268">
@@ -2578,7 +2578,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>315857.2195697881</v>
+        <v>319295.1212793912</v>
       </c>
     </row>
     <row r="269">
@@ -2586,7 +2586,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>319454.6667655148</v>
+        <v>322931.7243629626</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>323108.538147946</v>
+        <v>326625.3657740462</v>
       </c>
     </row>
     <row r="271">
@@ -2602,7 +2602,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>326819.8934820099</v>
+        <v>330377.1168124264</v>
       </c>
     </row>
     <row r="272">
@@ -2610,7 +2610,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>330589.8157475411</v>
+        <v>334188.0722454736</v>
       </c>
     </row>
     <row r="273">
@@ -2618,7 +2618,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>334419.4115598373</v>
+        <v>338059.3507332777</v>
       </c>
     </row>
     <row r="274">
@@ -2626,7 +2626,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>338309.8115862578</v>
+        <v>341992.0952497816</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>342262.170957864</v>
+        <v>345987.473498902</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>346277.6696750423</v>
+        <v>350046.6783245667</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>350357.5130059855</v>
+        <v>354170.9281135337</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>354502.931876844</v>
+        <v>358361.4671897892</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>358715.1832522915</v>
+        <v>362619.5661992553</v>
       </c>
     </row>
     <row r="280">
@@ -2674,7 +2674,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>362995.5505051798</v>
+        <v>366946.5224834676</v>
       </c>
     </row>
     <row r="281">
@@ -2682,7 +2682,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>367345.3437738884</v>
+        <v>371343.6604408151</v>
       </c>
     </row>
     <row r="282">
@@ -2690,7 +2690,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>371765.9003059021</v>
+        <v>375812.3318738575</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>376258.5847860774</v>
+        <v>380353.9163211639</v>
       </c>
     </row>
     <row r="284">
@@ -2706,7 +2706,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>380824.7896479817</v>
+        <v>384969.8213720414</v>
       </c>
     </row>
     <row r="285">
@@ -2714,7 +2714,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>385465.9353666182</v>
+        <v>389661.4829624454</v>
       </c>
     </row>
     <row r="286">
@@ -2722,7 +2722,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>390183.4707307695</v>
+        <v>394430.3656502881</v>
       </c>
     </row>
     <row r="287">
@@ -2730,7 +2730,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>394978.8730931147</v>
+        <v>399277.9628682779</v>
       </c>
     </row>
     <row r="288">
@@ -2738,7 +2738,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>399853.6485962035</v>
+        <v>404205.7971523526</v>
       </c>
     </row>
     <row r="289">
@@ -2746,7 +2746,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>404809.3323722868</v>
+        <v>409215.4203436859</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>409847.4887149289</v>
+        <v>414308.4137621662</v>
       </c>
     </row>
     <row r="291">
@@ -2762,7 +2762,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>414969.711220248</v>
+        <v>419486.3883491759</v>
       </c>
     </row>
     <row r="292">
@@ -2770,7 +2770,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>420177.6228955574</v>
+        <v>424750.9847774139</v>
       </c>
     </row>
     <row r="293">
@@ -2778,7 +2778,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>425472.8762330988</v>
+        <v>430103.8735254318</v>
       </c>
     </row>
     <row r="294">
@@ -2786,7 +2786,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>430857.1532464945</v>
+        <v>435546.7549144836</v>
       </c>
     </row>
     <row r="295">
@@ -2794,7 +2794,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>436332.1654674619</v>
+        <v>441081.359105203</v>
       </c>
     </row>
     <row r="296">
@@ -2802,7 +2802,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>441899.6539002715</v>
+        <v>446709.446051567</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>447561.3889313621</v>
+        <v>452432.8054095265</v>
       </c>
     </row>
     <row r="298">
@@ -2818,7 +2818,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>453319.1701914564</v>
+        <v>458253.2563976219</v>
       </c>
     </row>
     <row r="299">
@@ -2826,7 +2826,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>459174.8263674665</v>
+        <v>464172.6476068404</v>
       </c>
     </row>
     <row r="300">
@@ -2834,7 +2834,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>465130.2149614209</v>
+        <v>470192.8567569194</v>
       </c>
     </row>
     <row r="301">
@@ -2842,7 +2842,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>471187.2219935916</v>
+        <v>476315.7903962429</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>477347.7616469524</v>
+        <v>482543.3835424295</v>
       </c>
     </row>
     <row r="303">
@@ -2858,7 +2858,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>480261.5680698871</v>
+        <v>486662.3058521276</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>483229.650429331</v>
+        <v>490854.7056231841</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>486253.0876555885</v>
+        <v>495121.9945064331</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>489332.9727301305</v>
+        <v>499465.6025727248</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>492470.4122557968</v>
+        <v>503886.9777863179</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>495666.5259861783</v>
+        <v>508387.5854245375</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>498922.4463126519</v>
+        <v>512968.9074416516</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>502239.3177075557</v>
+        <v>517632.4417749274</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>505618.2961220079</v>
+        <v>522379.7015908587</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>509060.5483369149</v>
+        <v>527212.2144695965</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>512567.2512657453</v>
+        <v>532131.5215256568</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>516139.5912076827</v>
+        <v>537139.1764630313</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>519778.7630498438</v>
+        <v>542236.744562906</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>523485.96941729</v>
+        <v>547425.801602256</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>527262.4197696464</v>
+        <v>552707.9327016895</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>531109.3294432183</v>
+        <v>558084.7311010066</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>535027.9186375854</v>
+        <v>563557.7968610579</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>539019.4113457539</v>
+        <v>569128.7354906154</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>543085.0342270704</v>
+        <v>574799.1564971183</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>547226.015422203</v>
+        <v>580570.6718602995</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>551443.5833096536</v>
+        <v>586444.8944278827</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>555738.9652033858</v>
+        <v>592423.4362327168</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>560113.3859913338</v>
+        <v>598507.9067309257</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>564568.0667147035</v>
+        <v>604699.9109608544</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>569104.2230881718</v>
+        <v>611001.0476228329</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>573723.063961275</v>
+        <v>617412.9070800241</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>578425.7897214775</v>
+        <v>623937.0692808779</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>583213.5906396298</v>
+        <v>630575.1016039946</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>588087.6451587448</v>
+        <v>637328.5566264887</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>593049.1181272612</v>
+        <v>644198.9698172469</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>598099.1589781982</v>
+        <v>651187.8571567931</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>603238.8998558705</v>
+        <v>658296.7126858016</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>608469.4536920873</v>
+        <v>665527.0059846418</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>613791.9122340328</v>
+        <v>672880.1795866918</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>619207.344026305</v>
+        <v>680357.6463285177</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>624716.792349873</v>
+        <v>687960.7866403906</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>630321.2731209943</v>
+        <v>695690.9457809832</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>636021.7727534487</v>
+        <v>703549.4310204877</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>641819.2459877124</v>
+        <v>711537.5087767671</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>647714.6136910174</v>
+        <v>719656.4017095522</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>653708.7606325236</v>
+        <v>727907.2857780884</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>659802.533238137</v>
+        <v>736291.2872680207</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>665996.7373297896</v>
+        <v>744809.4797936988</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>672292.1358542857</v>
+        <v>753462.8812824462</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>678689.4466071083</v>
+        <v>762252.4509477376</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>685189.3399568311</v>
+        <v>771179.0862585554</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>691792.4365760596</v>
+        <v>780243.6199125721</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>698499.3051850554</v>
+        <v>789446.8168211121</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>705310.4603144404</v>
+        <v>798789.3711141761</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>712226.3600935818</v>
+        <v>808271.9031740892</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>719247.4040714612</v>
+        <v>817894.9567066064</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>726373.9310769903</v>
+        <v>827658.9958585399</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>733606.2171259036</v>
+        <v>837564.4023911913</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>740944.4733814616</v>
+        <v>847611.4729190404</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>748388.8441763041</v>
+        <v>857800.4162232813</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>755479.2297226704</v>
+        <v>867712.100224885</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>762669.7045901729</v>
+        <v>877760.2379349531</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>769960.1871036231</v>
+        <v>887944.7463185127</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>777350.5247054812</v>
+        <v>898265.4475298215</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>784840.4924642462</v>
+        <v>908722.0668096342</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>792429.7916832647</v>
+        <v>919314.2305110543</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>800118.0486167334</v>
+        <v>930041.4642631024</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>807904.8132994665</v>
+        <v>940903.1912808961</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>815789.5584967997</v>
+        <v>951898.7308310939</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>823771.6787807768</v>
+        <v>963027.2968609731</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>831850.4897384456</v>
+        <v>974287.9967991239</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>840025.227317808</v>
+        <v>985679.8305353896</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>848295.0473165843</v>
+        <v>997201.6895871932</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>856659.0250185785</v>
+        <v>1008852.356458928</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>865116.1549820048</v>
+        <v>1020630.504200544</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>874620.7990965438</v>
+        <v>1033297.082918893</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>884226.6939770015</v>
+        <v>1046096.419447244</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>893932.530353936</v>
+        <v>1059026.808458197</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>903736.9131566761</v>
+        <v>1072086.430854365</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>913638.3621917597</v>
+        <v>1085273.354458563</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>923635.3130050063</v>
+        <v>1098585.53493929</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>933726.1179279016</v>
+        <v>1112020.816972865</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>943909.0473082837</v>
+        <v>1125576.935642715</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>954182.2909246283</v>
+        <v>1139251.518075464</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>964543.9595825012</v>
+        <v>1153042.085312532</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>975947.2537112542</v>
+        <v>1167137.953127789</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>987443.5499408644</v>
+        <v>1181346.263019348</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>999030.6304740336</v>
+        <v>1195664.210617076</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>1010706.20292008</v>
+        <v>1210088.894492199</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>1022467.902986035</v>
+        <v>1224617.319202283</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>1034313.297340553</v>
+        <v>1239246.398548131</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>1046239.886643833</v>
+        <v>1253972.959035008</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>1058245.108736003</v>
+        <v>1268793.743529803</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>1070326.341975766</v>
+        <v>1283705.415104893</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>1082480.908720378</v>
+        <v>1298704.561058728</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>1091139.979269936</v>
+        <v>1311718.00104022</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>1099841.340880903</v>
+        <v>1324797.060292222</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>1108582.611765734</v>
+        <v>1337938.380878927</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>1117361.3720421</v>
+        <v>1351138.548325062</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>1126175.166526318</v>
+        <v>1364394.095627357</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>1135021.507571991</v>
+        <v>1377701.507351361</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>1143897.87794442</v>
+        <v>1391057.22380136</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>1152801.733721177</v>
+        <v>1404457.645250884</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>1161730.507209167</v>
+        <v>1417899.136221178</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>1170681.609868447</v>
+        <v>1431378.029794856</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>1175758.570484891</v>
+        <v>1436134.208775625</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>1180830.9651652</v>
+        <v>1440871.655013891</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>1185896.579418459</v>
+        <v>1445587.57583396</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>1190953.178335004</v>
+        <v>1450279.13941652</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>1195998.50793277</v>
+        <v>1454943.475796236</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>1201030.296456528</v>
+        <v>1459577.677823953</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>1206046.255626214</v>
+        <v>1464178.802092018</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>1211044.081831187</v>
+        <v>1468743.869822118</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>1216021.457268029</v>
+        <v>1473269.867716051</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>1220976.051020311</v>
+        <v>1477753.748770942</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>1226007.54500635</v>
+        <v>1482843.064343716</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>1231012.01275274</v>
+        <v>1487886.957311497</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>1235987.083882448</v>
+        <v>1492882.245776167</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>1240930.379281508</v>
+        <v>1497825.72116376</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>1245839.511932114</v>
+        <v>1502714.149134398</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>1250712.087699361</v>
+        <v>1507544.270487334</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>1255545.706078138</v>
+        <v>1512312.802072376</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>1260337.960908201</v>
+        <v>1517016.437720837</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>1265086.441067005</v>
+        <v>1521651.849211157</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>1269788.731151533</v>
+        <v>1526215.687286359</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>1274442.412162053</v>
+        <v>1530704.582742686</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>1279045.062202456</v>
+        <v>1535115.14761088</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>1283594.257213623</v>
+        <v>1539443.976453813</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>1288087.57175802</v>
+        <v>1543687.647806406</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>1292522.579875525</v>
+        <v>1547842.725785954</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>1296896.856032217</v>
+        <v>1551905.76190324</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>1301207.976185569</v>
+        <v>1555873.297106853</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>1305453.518991092</v>
+        <v>1559741.86409521</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>1309631.067176986</v>
+        <v>1563507.989932658</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>1313738.209114714</v>
+        <v>1567168.199007709</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>1317772.54061461</v>
+        <v>1570719.016372971</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>1321731.666976564</v>
+        <v>1574156.97150753</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>1325613.205326576</v>
+        <v>1577478.602543402</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>1329414.787270315</v>
+        <v>1580680.46099815</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>1333134.06189494</v>
+        <v>1583759.117055827</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>1336768.699150047</v>
+        <v>1586711.165437885</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>1340316.393637896</v>
+        <v>1589533.231904687</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>1343774.868841771</v>
+        <v>1592221.980426539</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>1347141.881819615</v>
+        <v>1594774.121060833</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>1350415.228387751</v>
+        <v>1597186.418568704</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>1353592.748816562</v>
+        <v>1599455.701800722</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>1356672.334056539</v>
+        <v>1601578.873876313</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>1359651.93250888</v>
+        <v>1603552.923175922</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>1362529.557350044</v>
+        <v>1605374.935158305</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>1365303.294414158</v>
+        <v>1607042.105007762</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>1367971.310631031</v>
+        <v>1608551.75110757</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>1370531.863010783</v>
+        <v>1609901.329326421</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>1372983.308158642</v>
+        <v>1611088.44809419</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>1375324.112295551</v>
+        <v>1612110.884232074</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>1377552.86175172</v>
+        <v>1612966.599490025</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/s_SFH.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_SFH.xlsx
@@ -482,7 +482,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>73248.04655493874</v>
+        <v>73248.04655493876</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>73338.25942929015</v>
+        <v>73338.25942929013</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>73429.76808684101</v>
+        <v>73429.768086841</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>73522.59100736835</v>
+        <v>73522.59100736832</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>73616.74693053933</v>
+        <v>73616.74693053936</v>
       </c>
     </row>
     <row r="11">
@@ -546,7 +546,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>74007.08473967464</v>
+        <v>74007.08473967465</v>
       </c>
     </row>
     <row r="15">
@@ -578,7 +578,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>74420.31979556657</v>
+        <v>74420.31979556658</v>
       </c>
     </row>
     <row r="19">
@@ -594,7 +594,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>74635.93711871</v>
+        <v>74635.93711871003</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>74746.07087285977</v>
+        <v>74746.07087285975</v>
       </c>
     </row>
     <row r="22">
@@ -618,7 +618,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>74971.09931775855</v>
+        <v>74971.09931775853</v>
       </c>
     </row>
     <row r="24">
@@ -634,7 +634,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>75202.62698201802</v>
+        <v>75202.626982018</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>75320.88595429384</v>
+        <v>75320.88595429382</v>
       </c>
     </row>
     <row r="27">
@@ -658,7 +658,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>75562.51289135253</v>
+        <v>75562.51289135254</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>75685.92933812701</v>
+        <v>75685.92933812703</v>
       </c>
     </row>
     <row r="30">
@@ -682,7 +682,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>75938.09193999467</v>
+        <v>75938.09193999469</v>
       </c>
     </row>
     <row r="32">
@@ -698,7 +698,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>76197.52986974757</v>
+        <v>76197.52986974755</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>76330.04180556745</v>
+        <v>76330.04180556744</v>
       </c>
     </row>
     <row r="35">
@@ -722,7 +722,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>76600.78423357451</v>
+        <v>76600.78423357448</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>76739.06888133124</v>
+        <v>76739.06888133123</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>76879.33255011968</v>
+        <v>76879.33255011964</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>77021.60326753634</v>
+        <v>77021.60326753635</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>77165.90945029649</v>
+        <v>77165.90945029652</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>77312.27990944171</v>
+        <v>77312.27990944173</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>77460.74385561312</v>
+        <v>77460.74385561311</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>77611.33090439098</v>
+        <v>77611.33090439097</v>
       </c>
     </row>
     <row r="44">
@@ -794,7 +794,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>77918.99482928892</v>
+        <v>77918.99482928896</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>78076.13301026236</v>
+        <v>78076.13301026235</v>
       </c>
     </row>
     <row r="47">
@@ -842,7 +842,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>78896.15083309461</v>
+        <v>78896.15083309458</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>79067.24805196485</v>
+        <v>79067.24805196481</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>79240.7880244761</v>
+        <v>79240.78802447609</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>79416.80519266524</v>
+        <v>79416.80519266526</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>79595.33447303539</v>
+        <v>79595.3344730354</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>79776.4112628295</v>
+        <v>79776.41126282953</v>
       </c>
     </row>
     <row r="57">
@@ -898,7 +898,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>80146.35140154979</v>
+        <v>80146.35140154984</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>80335.28800622246</v>
+        <v>80335.28800622249</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>80526.91864491357</v>
+        <v>80526.9186449136</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>80721.28121543364</v>
+        <v>80721.2812154337</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>80918.41413564637</v>
+        <v>80918.41413564634</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>81118.35635030769</v>
+        <v>81118.35635030772</v>
       </c>
     </row>
     <row r="64">
@@ -962,7 +962,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>81735.43625794923</v>
+        <v>81735.43625794927</v>
       </c>
     </row>
     <row r="67">
@@ -978,7 +978,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>82161.60766902391</v>
+        <v>82161.60766902393</v>
       </c>
     </row>
     <row r="69">
@@ -994,7 +994,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>82599.99734359395</v>
+        <v>82599.99734359393</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>82823.88147743062</v>
+        <v>82823.88147743055</v>
       </c>
     </row>
     <row r="72">
@@ -1042,7 +1042,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>83991.97367719939</v>
+        <v>83991.97367719938</v>
       </c>
     </row>
     <row r="77">
@@ -1058,7 +1058,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>84482.78253323617</v>
+        <v>84482.7825332362</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>84733.42775840672</v>
+        <v>84733.42775840675</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>84987.63200923098</v>
+        <v>84987.63200923095</v>
       </c>
     </row>
     <row r="81">
@@ -1106,7 +1106,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>86041.04344688766</v>
+        <v>86041.04344688765</v>
       </c>
     </row>
     <row r="85">
@@ -1122,7 +1122,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>86590.42797677583</v>
+        <v>86590.42797677575</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>86870.97540159021</v>
+        <v>86870.97540159019</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>87155.49883469965</v>
+        <v>87155.49883469963</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>87444.05362252594</v>
+        <v>87444.05362252597</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>87736.69585906343</v>
+        <v>87736.69585906336</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>88033.48239557655</v>
+        <v>88033.48239557653</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>88334.47085042277</v>
+        <v>88334.47085042279</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>88639.71961900176</v>
+        <v>88639.71961900171</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>88949.28788383471</v>
+        <v>88949.28788383478</v>
       </c>
     </row>
     <row r="95">
@@ -1210,7 +1210,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>89904.51350325803</v>
+        <v>89904.513503258</v>
       </c>
     </row>
     <row r="98">
@@ -1234,7 +1234,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>90900.82289415451</v>
+        <v>90900.82289415447</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>91242.35304003664</v>
+        <v>91242.35304003661</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>91588.70573270493</v>
+        <v>91588.70573270496</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>91939.9477148213</v>
+        <v>91939.94771482132</v>
       </c>
     </row>
     <row r="104">
@@ -1290,7 +1290,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>93395.17498115271</v>
+        <v>93395.1749811527</v>
       </c>
     </row>
     <row r="108">
@@ -1306,7 +1306,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>94153.92659691554</v>
+        <v>94153.92659691555</v>
       </c>
     </row>
     <row r="110">
@@ -1322,7 +1322,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>94934.20810510893</v>
+        <v>94934.20810510895</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>95332.60880174331</v>
+        <v>95332.60880174328</v>
       </c>
     </row>
     <row r="113">
@@ -1346,7 +1346,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>96146.3113081794</v>
+        <v>96146.31130817939</v>
       </c>
     </row>
     <row r="115">
@@ -1370,7 +1370,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>97410.2923736642</v>
+        <v>97410.29237366421</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>97843.52058395636</v>
+        <v>97843.52058395639</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>98282.8360958003</v>
+        <v>98282.83609580027</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>98728.32258017935</v>
+        <v>98728.32258017936</v>
       </c>
     </row>
     <row r="121">
@@ -1410,7 +1410,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>99638.14875641886</v>
+        <v>99638.14875641883</v>
       </c>
     </row>
     <row r="123">
@@ -1450,7 +1450,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>102026.7821993151</v>
+        <v>102026.7821993152</v>
       </c>
     </row>
     <row r="128">
@@ -1506,7 +1506,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>105662.6979692483</v>
+        <v>105662.6979692484</v>
       </c>
     </row>
     <row r="135">
@@ -1578,7 +1578,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>110887.9011348878</v>
+        <v>110887.9011348877</v>
       </c>
     </row>
     <row r="144">
@@ -1610,7 +1610,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>113427.7444593775</v>
+        <v>113427.7444593776</v>
       </c>
     </row>
     <row r="148">
@@ -1634,7 +1634,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>115427.017631866</v>
+        <v>115427.0176318659</v>
       </c>
     </row>
     <row r="151">
@@ -1706,7 +1706,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>121946.8768273732</v>
+        <v>121946.8768273731</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>122722.559880735</v>
+        <v>122722.5598807351</v>
       </c>
     </row>
     <row r="161">
@@ -1754,7 +1754,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>126765.4783952812</v>
+        <v>126765.4783952811</v>
       </c>
     </row>
     <row r="166">
@@ -1842,7 +1842,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>136703.1802365657</v>
+        <v>136703.1802365656</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>137683.4226930217</v>
+        <v>137683.4226930216</v>
       </c>
     </row>
     <row r="178">
@@ -1890,7 +1890,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>142792.040758905</v>
+        <v>142792.0407589049</v>
       </c>
     </row>
     <row r="183">
@@ -2010,7 +2010,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>160405.8238274239</v>
+        <v>160405.8238274238</v>
       </c>
     </row>
     <row r="198">
@@ -2066,7 +2066,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>169957.4421897251</v>
+        <v>169957.4421897252</v>
       </c>
     </row>
     <row r="205">
@@ -2082,7 +2082,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>172860.4818603087</v>
+        <v>172860.4818603086</v>
       </c>
     </row>
     <row r="207">
@@ -2106,7 +2106,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>177368.5704145291</v>
+        <v>177368.570414529</v>
       </c>
     </row>
     <row r="210">
@@ -2130,7 +2130,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>182068.1633445863</v>
+        <v>182068.1633445864</v>
       </c>
     </row>
     <row r="213">
@@ -2178,7 +2178,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>192076.6655183301</v>
+        <v>192076.66551833</v>
       </c>
     </row>
     <row r="219">
@@ -2210,7 +2210,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>199230.368688787</v>
+        <v>199230.3686887869</v>
       </c>
     </row>
     <row r="223">
@@ -2242,7 +2242,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>206797.1506668572</v>
+        <v>206797.1506668573</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>208756.4060702364</v>
+        <v>208756.4060702363</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>210743.5293773219</v>
+        <v>210743.5293773218</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>212758.9572069492</v>
+        <v>212758.9572069493</v>
       </c>
     </row>
     <row r="230">
@@ -2290,7 +2290,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>218979.5661795322</v>
+        <v>218979.5661795321</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>221112.7561176572</v>
+        <v>221112.7561176573</v>
       </c>
     </row>
     <row r="234">
@@ -2370,7 +2370,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>241750.8022096323</v>
+        <v>241750.8022096324</v>
       </c>
     </row>
     <row r="243">
@@ -2410,7 +2410,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>254431.6190637174</v>
+        <v>254431.6190637173</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>257080.873174689</v>
+        <v>257080.8731746891</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>259769.3349715242</v>
+        <v>259769.3349715243</v>
       </c>
     </row>
     <row r="250">
@@ -2586,7 +2586,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>322931.7243629626</v>
+        <v>322931.7243629625</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>326625.3657740462</v>
+        <v>326625.365774046</v>
       </c>
     </row>
     <row r="271">
@@ -2610,7 +2610,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>334188.0722454736</v>
+        <v>334188.0722454735</v>
       </c>
     </row>
     <row r="273">
@@ -2626,7 +2626,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>341992.0952497816</v>
+        <v>341992.0952497817</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>345987.473498902</v>
+        <v>345987.4734989021</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>350046.6783245667</v>
+        <v>350046.6783245666</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>354170.9281135337</v>
+        <v>354170.9281135338</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>358361.4671897892</v>
+        <v>358361.4671897893</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>362619.5661992553</v>
+        <v>362619.5661992552</v>
       </c>
     </row>
     <row r="280">
@@ -2730,7 +2730,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>399277.9628682779</v>
+        <v>399277.9628682778</v>
       </c>
     </row>
     <row r="288">
@@ -2746,7 +2746,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>409215.4203436859</v>
+        <v>409215.4203436858</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>414308.4137621662</v>
+        <v>414308.4137621663</v>
       </c>
     </row>
     <row r="291">
@@ -2770,7 +2770,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>424750.9847774139</v>
+        <v>424750.9847774138</v>
       </c>
     </row>
     <row r="293">
@@ -2802,7 +2802,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>446709.446051567</v>
+        <v>446709.4460515671</v>
       </c>
     </row>
     <row r="297">
@@ -2826,7 +2826,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>464172.6476068404</v>
+        <v>464172.6476068403</v>
       </c>
     </row>
     <row r="300">
@@ -2842,7 +2842,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>476315.7903962429</v>
+        <v>476315.790396243</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>482543.3835424295</v>
+        <v>482543.3835424294</v>
       </c>
     </row>
     <row r="303">
@@ -2858,7 +2858,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>486662.3058521276</v>
+        <v>486662.3058521176</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>490854.7056231841</v>
+        <v>490854.7056231645</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>495121.9945064331</v>
+        <v>495121.9945064042</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>499465.6025727248</v>
+        <v>499465.602572687</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>503886.9777863179</v>
+        <v>503886.9777862717</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>508387.5854245375</v>
+        <v>508387.5854244833</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>512968.9074416516</v>
+        <v>512968.9074415897</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>517632.4417749274</v>
+        <v>517632.4417748582</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>522379.7015908587</v>
+        <v>522379.7015907826</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>527212.2144695965</v>
+        <v>527212.2144695142</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>532131.5215256568</v>
+        <v>532131.5215255683</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>537139.1764630313</v>
+        <v>537139.1764629376</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>542236.744562906</v>
+        <v>542236.7445628071</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>547425.801602256</v>
+        <v>547425.8016021526</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>552707.9327016895</v>
+        <v>552707.9327015822</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>558084.7311010066</v>
+        <v>558084.7311008958</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>563557.7968610579</v>
+        <v>563557.7968609439</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>569128.7354906154</v>
+        <v>569128.7354904987</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>574799.1564971183</v>
+        <v>574799.1564969999</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>580570.6718602995</v>
+        <v>580570.6718601795</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>586444.8944278827</v>
+        <v>586444.8944277614</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>592423.4362327168</v>
+        <v>592423.4362325951</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>598507.9067309257</v>
+        <v>598507.9067308042</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>604699.9109608544</v>
+        <v>604699.9109607334</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>611001.0476228329</v>
+        <v>611001.0476227133</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>617412.9070800241</v>
+        <v>617412.9070799063</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>623937.0692808779</v>
+        <v>623937.0692807626</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>630575.1016039946</v>
+        <v>630575.1016038822</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>637328.5566264887</v>
+        <v>637328.5566263795</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>644198.9698172469</v>
+        <v>644198.969817142</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>651187.8571567931</v>
+        <v>651187.857156693</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>658296.7126858016</v>
+        <v>658296.7126857066</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>665527.0059846418</v>
+        <v>665527.005984553</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>672880.1795866918</v>
+        <v>672880.1795866094</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>680357.6463285177</v>
+        <v>680357.6463284426</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>687960.7866403906</v>
+        <v>687960.7866403232</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>695690.9457809832</v>
+        <v>695690.9457809242</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>703549.4310204877</v>
+        <v>703549.431020438</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>711537.5087767671</v>
+        <v>711537.5087767271</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>719656.4017095522</v>
+        <v>719656.4017095226</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>727907.2857780884</v>
+        <v>727907.2857780698</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>736291.2872680207</v>
+        <v>736291.287268014</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>744809.4797936988</v>
+        <v>744809.4797937043</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>753462.8812824462</v>
+        <v>753462.881282465</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>762252.4509477376</v>
+        <v>762252.4509477702</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>771179.0862585554</v>
+        <v>771179.0862586022</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>780243.6199125721</v>
+        <v>780243.619912634</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>789446.8168211121</v>
+        <v>789446.8168211895</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>798789.3711141761</v>
+        <v>798789.3711142698</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>808271.9031740892</v>
+        <v>808271.9031742</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>817894.9567066064</v>
+        <v>817894.9567067346</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>827658.9958585399</v>
+        <v>827658.9958586865</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>837564.4023911913</v>
+        <v>837564.4023913569</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>847611.4729190404</v>
+        <v>847611.4729192255</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>857800.4162232813</v>
+        <v>857800.4162234862</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>867712.100224885</v>
+        <v>867712.1002251137</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>877760.2379349531</v>
+        <v>877760.2379352062</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>887944.7463185127</v>
+        <v>887944.7463187909</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>898265.4475298215</v>
+        <v>898265.4475301258</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>908722.0668096342</v>
+        <v>908722.0668099649</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>919314.2305110543</v>
+        <v>919314.230511412</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>930041.4642631024</v>
+        <v>930041.4642634883</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>940903.1912808961</v>
+        <v>940903.19128131</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>951898.7308310939</v>
+        <v>951898.7308315369</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>963027.2968609731</v>
+        <v>963027.2968614456</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>974287.9967991239</v>
+        <v>974287.9967996269</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>985679.8305353896</v>
+        <v>985679.8305359236</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>997201.6895871932</v>
+        <v>997201.6895877583</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>1008852.356458928</v>
+        <v>1008852.356459525</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>1020630.504200544</v>
+        <v>1020630.504201173</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>1033297.082918893</v>
+        <v>1033297.082919548</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>1046096.419447244</v>
+        <v>1046096.419447925</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>1059026.808458197</v>
+        <v>1059026.808458904</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>1072086.430854365</v>
+        <v>1072086.430855097</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>1085273.354458563</v>
+        <v>1085273.354459322</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>1098585.53493929</v>
+        <v>1098585.534940075</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>1112020.816972865</v>
+        <v>1112020.816973676</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>1125576.935642715</v>
+        <v>1125576.935643554</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>1139251.518075464</v>
+        <v>1139251.518076329</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>1153042.085312532</v>
+        <v>1153042.085313424</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>1167137.953127789</v>
+        <v>1167137.953128705</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>1181346.263019348</v>
+        <v>1181346.263020289</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>1195664.210617076</v>
+        <v>1195664.210618042</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>1210088.894492199</v>
+        <v>1210088.894493188</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>1224617.319202283</v>
+        <v>1224617.319203297</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>1239246.398548131</v>
+        <v>1239246.398549169</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>1253972.959035008</v>
+        <v>1253972.95903607</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>1268793.743529803</v>
+        <v>1268793.743530889</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>1283705.415104893</v>
+        <v>1283705.415106002</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>1298704.561058728</v>
+        <v>1298704.561059861</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>1311718.00104022</v>
+        <v>1311718.001041397</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>1324797.060292222</v>
+        <v>1324797.06029344</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>1337938.380878927</v>
+        <v>1337938.380880188</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>1351138.548325062</v>
+        <v>1351138.548326366</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>1364394.095627357</v>
+        <v>1364394.095628702</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>1377701.507351361</v>
+        <v>1377701.507352746</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>1391057.22380136</v>
+        <v>1391057.223802784</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>1404457.645250884</v>
+        <v>1404457.645252347</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>1417899.136221178</v>
+        <v>1417899.136222679</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>1431378.029794856</v>
+        <v>1431378.029796394</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>1436134.208775625</v>
+        <v>1436134.208777264</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>1440871.655013891</v>
+        <v>1440871.655015626</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>1445587.57583396</v>
+        <v>1445587.575835787</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>1450279.13941652</v>
+        <v>1450279.139418433</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>1454943.475796236</v>
+        <v>1454943.475798229</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>1459577.677823953</v>
+        <v>1459577.67782602</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>1464178.802092018</v>
+        <v>1464178.802094152</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>1468743.869822118</v>
+        <v>1468743.869824311</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>1473269.867716051</v>
+        <v>1473269.867718295</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>1477753.748770942</v>
+        <v>1477753.748773229</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>1482843.064343716</v>
+        <v>1482843.064346037</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>1487886.957311497</v>
+        <v>1487886.957313841</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>1492882.245776167</v>
+        <v>1492882.245778524</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>1497825.72116376</v>
+        <v>1497825.721166121</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>1502714.149134398</v>
+        <v>1502714.149136751</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>1507544.270487334</v>
+        <v>1507544.270489667</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>1512312.802072376</v>
+        <v>1512312.802074677</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>1517016.437720837</v>
+        <v>1517016.437723095</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>1521651.849211157</v>
+        <v>1521651.849213357</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>1526215.687286359</v>
+        <v>1526215.687288487</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>1530704.582742686</v>
+        <v>1530704.582744729</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>1535115.14761088</v>
+        <v>1535115.147612821</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>1539443.976453813</v>
+        <v>1539443.976455638</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>1543687.647806406</v>
+        <v>1543687.647808097</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>1547842.725785954</v>
+        <v>1547842.725787495</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>1551905.76190324</v>
+        <v>1551905.761904614</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>1555873.297106853</v>
+        <v>1555873.297108041</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>1559741.86409521</v>
+        <v>1559741.864096195</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>1563507.989932658</v>
+        <v>1563507.989933421</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>1567168.199007709</v>
+        <v>1567168.199008229</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>1570719.016372971</v>
+        <v>1570719.016373229</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>1574156.97150753</v>
+        <v>1574156.971507507</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>1577478.602543402</v>
+        <v>1577478.602543077</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>1580680.46099815</v>
+        <v>1580680.460997502</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>1583759.117055827</v>
+        <v>1583759.117054836</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>1586711.165437885</v>
+        <v>1586711.16543653</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>1589533.231904687</v>
+        <v>1589533.231902946</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>1592221.980426539</v>
+        <v>1592221.980424393</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>1594774.121060833</v>
+        <v>1594774.121058261</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>1597186.418568704</v>
+        <v>1597186.418565684</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>1599455.701800722</v>
+        <v>1599455.701797236</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>1601578.873876313</v>
+        <v>1601578.873872341</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>1603552.923175922</v>
+        <v>1603552.923171444</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>1605374.935158305</v>
+        <v>1605374.935153304</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>1607042.105007762</v>
+        <v>1607042.105002218</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>1608551.75110757</v>
+        <v>1608551.751101467</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>1609901.329326421</v>
+        <v>1609901.329319744</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>1611088.44809419</v>
+        <v>1611088.448086923</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>1612110.884232074</v>
+        <v>1612110.884224203</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>1612966.599490025</v>
+        <v>1612966.599481539</v>
       </c>
     </row>
   </sheetData>
